--- a/output/resultadosCompuTrabajo.xlsx
+++ b/output/resultadosCompuTrabajo.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -425,15 +425,15 @@
         <v>descripcion</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>Desarrollador NodeJS</v>
+        <v>Desarrollador NodeJS - 6 meses</v>
       </c>
       <c r="B2" t="str">
         <v>Grupo TI de Mexico y Comercio Electronico SA de CV</v>
       </c>
       <c r="C2" t="str">
-        <v xml:space="preserve">4.2 </v>
+        <v>Grupo TI de Mexico y Comercio Electronico SA de CV - Apodaca, Nuevo León</v>
       </c>
       <c r="D2" t="str">
         <v>Presencial y remoto</v>
@@ -442,13 +442,25 @@
         <v>$ 23,000.00 (Mensual)</v>
       </c>
       <c r="F2" t="str">
-        <v>Hace 4 días</v>
-      </c>
-      <c r="G2" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G2" t="str" xml:space="preserve">
+        <v xml:space="preserve">Estamos en búsqueda de un Desarrollador de Software de TI
+Requerimientos Mínimos de Operación
+Operación en organizaciones de Sistemas de Información
+Desarrollo Node JS
+Desarrollo de API con NodeJs
+Integración con diferentes patrones (WSDL, API)
+Conexión con REST y con la infraestructura de AWS
+Operación de seguridad de datos
+Postman
+Laravel Framework
+Patrones de arquitectura
+DevOps
+Asignación durante 6 meses</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
         <v>Desarrollador/a FullStack</v>
       </c>
@@ -456,7 +468,7 @@
         <v>Holcim Apasco</v>
       </c>
       <c r="C3" t="str">
-        <v xml:space="preserve">4.6 </v>
+        <v>Holcim Apasco - San Pedro Tlaquepaque, Jalisco</v>
       </c>
       <c r="D3" t="str">
         <v>Presencial y remoto</v>
@@ -465,36 +477,100 @@
         <v>$ 20,000.00 (Mensual)</v>
       </c>
       <c r="F3" t="str">
-        <v>Hace 4 horas</v>
-      </c>
-      <c r="G3" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>Hace 11 horas (actualizada)</v>
+      </c>
+      <c r="G3" t="str" xml:space="preserve">
+        <v xml:space="preserve">¿QUIÉN ES HOLCIM?
+Somos el líder mundial en soluciones innovadoras y sostenibles para la construcción mediante cuatro segmentos de negocio: cemento, concreto/hormigón premezclado, agregados, soluciones y productos.
+Nuestro objetivo es impulsar la construcción circular para construir más con menos. Gracias a nuestro enfoque en la reducción de emisiones de CO2, cuidado al medio ambiente, apoyo a las comunidades y desarrollo de nuestra gente, hemos logrado que nuestros 70.000 colaboradores y colaboradoras en todo el mundo sienten una gran pasión por construir progreso para las personas y el planeta, creando mejores soluciones y experiencias para sus clientes, comunidades y equipos.
+¡TRABAJA CON NOSOTROS!
+Tendrás la oportunidad de compartir la pasión que tenemos por nuestro planeta, aportar perspectivas innovadoras, dentro de un entorno dinámico y retador, que promueve la diversidad e inclusión.
+Porque solo si trabajamos juntos en una cultura en la que todos prosperamos, podremos construir el mundo en el que todos queremos vivir.
+TE ESTAMOS BUSCANDO: Desarrollador/a FullStack!
+Serás responsable de diseñar, desarrollar y mantener aplicaciones web completas (frontend y backend), asegurando interfaces atractivas, usabilidad, seguridad y alto rendimiento.
+Tus principales retos serán:
+Crear interfaces de usuario modernas, responsivas y funcionales.
+Desarrollar APIs robustas e integraciones con servicios externos.
+Implementar y administrar bases de datos relacionales y no relacionales.
+Asegurar la autenticación y seguridad de las aplicaciones.
+Integrar plataformas de pago y otros servicios de terceros.
+Colaborar con equipos multidisciplinarios en entornos ágiles.
+Lugar de trabajo: Carretera a Tlaquepaque Jalisco, San Martin de las flores.
+Requisitos indispensables:
+Licenciatura o ingeniería en sistemas, desarrollo de software o afín.
+Experiencia comprobable en desarrollo Full Stack.
+Dominio de HTML, CSS, JavaScript y frameworks como React, Angular o Vuejs
+Conocimientos en backend con Nodejs, Python o Java.
+Manejo de bases de datos relacionales (SQL Server, PostgreSQL) y no relacionales (MongoDB, Firebase).
+Experiencia con integración de APIs REST y GraphQL.
+Uso de servicios en la nube (AWS, GCP) y control de versiones con Git/GitHub.
+Inglés B2.
+Requisitos deseados:
+Experiencia en entornos de retail, e commerce o mayoristas (B2B/B2C).
+Familiaridad con plataformas de pago.
+Conocimientos en backend con Nodejs, Python o Java.
+¡NO TE PIERDAS LA OPORTUNIDAD DE SER PARTE DE NUESTRO EQUIPO!
+¡CONSTRUYE PROGRESO CON NOSOTROS!</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>Desarrollador Jr</v>
+        <v>Desarrollador Jr - Corporativo Tony</v>
       </c>
       <c r="B4" t="str">
         <v>Grupo Tony</v>
       </c>
       <c r="C4" t="str">
-        <v xml:space="preserve">4.1 </v>
+        <v>Grupo Tony - Boca del Río, Veracruz</v>
       </c>
       <c r="D4" t="str">
-        <v>No disponible</v>
+        <v>Tiempo Completo</v>
       </c>
       <c r="E4" t="str">
         <v>$ 13,000.00 (Mensual)</v>
       </c>
       <c r="F4" t="str">
-        <v>Ayer</v>
-      </c>
-      <c r="G4" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>Hace 2 días (actualizada)</v>
+      </c>
+      <c r="G4" t="str" xml:space="preserve">
+        <v xml:space="preserve">¡ÚNETE A NUESTRO EQUIPO DE TRABAJO!
+Importante Empresa en el Ramo Papelero a Nivel Nacional, busca talento con alto sentido de responsabilidad, compromiso y ganas de aprender.
+Desarrollador Junior
+Requisitos:
+Ing. en Sistemas computacionales o Carreras afín.
+Experiencia en:
+• 1 año en Programación de sistemas Web.
+• Compresión rápida de procesos de negocio.
+• Trabajar en Equipo.
+• Comunicación efectiva
+• Gestión del tiempo.
+• Resolución de problemas.
+• Aprendizaje continuo.
+• Clean Code.
+Conocimientos:
+• HTML Y CSS.
+• JavaScript y Jquery
+• Python/Django
+• Nodejs, Express: .
+• Sentencias de SQL.
+• Manejo de archivo XML/JSON.
+• Manejo de repositorio de fuentes Git.
+• Desarrollo y consumir API REST básico.
+• Metodología Ágil Scrum.
+• Linux Básico
+**Ofrecemos:
+• Sueldo base
+• Prestaciones superiores a las de la ley
+• Comedor Corporativo
+• Capacitación.
+• Contratación directa con la Empresa.
+• Estabilidad laboral.
+• Desarrollo y crecimiento profesional.
+• Beneficios y descuentos con empresas afiliadas.
+• Buen ambiente de trabajo.</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
       <c r="A5" t="str">
         <v>Desarrollador</v>
       </c>
@@ -502,53 +578,109 @@
         <v>CT Internacional del Noroeste</v>
       </c>
       <c r="C5" t="str">
-        <v xml:space="preserve">4.2 </v>
+        <v>CT Internacional del Noroeste - Hermosillo, Sonora</v>
       </c>
       <c r="D5" t="str">
-        <v>No disponible</v>
+        <v>Tiempo Completo</v>
       </c>
       <c r="E5" t="str">
-        <v>No especificado</v>
+        <v>A convenir</v>
       </c>
       <c r="F5" t="str">
-        <v>Hace 2 días</v>
-      </c>
-      <c r="G5" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>Hace 2 días (actualizada)</v>
+      </c>
+      <c r="G5" t="str" xml:space="preserve">
+        <v xml:space="preserve">¿Quieres pertenecer a la empresa mayorista líder en la distribución de tecnología de información en México?
+Estamos buscando talento con deseos de crecer y desarrollarse en una empresa con gran proyección, para nuestra posición de: Desarrollador
+TRABAJO 100% PRESENCIAL HERMOSILLO, SONORA.
+Perfil
+Buscamos un Desarrollador Node.js responsable de gestionar el intercambio de datos entre el servidor y los usuarios.
+Su enfoque principal será el desarrollo de toda la lógica del lado del servidor, la definición y el mantenimiento de la base de datos y garantizar un alto rendimiento y capacidad de respuesta a las solicitudes del Front-End.
+Capaz integrar los elementos frontales creados por sus compañeros de trabajo en la aplicación. Por lo tanto, también es necesaria una comprensión básica de las tecnologías Front-End.
+Requisitos
+Buen dominio de JavaScript
+Experiencia con Nodejs / Express
+Conocimiento en SQL.
+MongoDB (Deseable)
+Alguna de las siguientes tecnologías: HTLM5, CSS3, Angular 4, Angular js.
+Deseable conocimiento de administración en Linux.
+Experiencia mínima de 1 año en puesto similar.
+Funciones
+Participar en el diseño de software de los sistemas, diseño de las bases de datos, programación, documentación de sistemas terminados control de calidad, mantenimiento a sistemas desarrollados y revisión de requerimientos.
+a. Desarrollar e implementar nuevas funcionalidades en el API.
+b. Corregir e identificar posibles incidencias en el API.
+c. Despliegue y publicación del API.
+d. Reingeniería de procesos y reestructuración código.
+e. Consumo de APIs e integración con servicios de terceros, aliados y proveedores.
+f. Análisis de requerimientos funcionales y técnicos.
+Habilidades
+Responsable
+Autodidacta
+Buen comunicador
+Organizado
+Analítico
+Disponibilidad de Tiempo
+Orientado a resultados</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
       <c r="A6" t="str">
-        <v>Desarrollador Full Stack</v>
+        <v>Desarrollador Full Stack - React y React Native</v>
       </c>
       <c r="B6" t="str">
         <v>GRUPO TRUPER</v>
       </c>
       <c r="C6" t="str">
-        <v xml:space="preserve">4.3 </v>
+        <v>GRUPO TRUPER - Miguel Hidalgo, Ciudad de México DF</v>
       </c>
       <c r="D6" t="str">
-        <v>No disponible</v>
+        <v>Tiempo Completo</v>
       </c>
       <c r="E6" t="str">
-        <v>No especificado</v>
+        <v>A convenir</v>
       </c>
       <c r="F6" t="str">
-        <v>Hace 5 días</v>
-      </c>
-      <c r="G6" t="str">
-        <v>No disponible</v>
+        <v>Hace 6 días (actualizada)</v>
+      </c>
+      <c r="G6" t="str" xml:space="preserve">
+        <v xml:space="preserve">En GRUPO TRUPER estamos en búsqueda de un Desarrollador Full Stack con experiencia sólida en React, Vuejs, React Native y Nodejs, para integrarse a nuestro equipo de tecnología. Si te apasiona el desarrollo web y móvil, y estás buscando nuevos retos en una empresa innovadora y en constante crecimiento, ¡esta oportunidad es para ti!
+Requisitos del puesto
+Al menos 4 años de experiencia como desarrollador full stack.
+Licenciatura concluida en Ingeniería en Sistemas, Informática, Computación o afín (mínimo 100% de créditos comprobables).
+Dominio de Reactjs y Vuejs para desarrollo frontend.
+Experiencia en React Native para desarrollo móvil.
+Conocimiento sólido en Nodejs para backend.
+Conocimientos deseables en Java.
+Manejo de APIs RESTful.
+Bases de datos relacionales y no relacionales (MySQL, MongoDB, etc.).
+Control de versiones con Git.
+Conocimiento de metodologías ágiles (Scrum, Kanban).
+Conocimiento de herramientas de integración continua y buenas prácticas de desarrollo.
+Responsabilidades del puesto
+Desarrollar aplicaciones web y móviles escalables, eficientes y de alto rendimiento.
+Diseñar e implementar funcionalidades tanto del lado cliente como del lado servidor.
+Integrar servicios de terceros y APIs RESTful.
+Participar en decisiones técnicas, arquitectónicas y de diseño.
+Colaborar con equipos multidisciplinarios para garantizar entregables de calidad.
+Realizar mantenimiento, mejoras y soporte a soluciones existentes.
+Participar en revisiones de código y documentación técnica.
+Beneficios
+Sueldo base competitivo
+Prestaciones de ley
+Prestaciones superiores a la ley
+Estabilidad laboral
+Oportunidades de desarrollo profesional en un entorno de innovación constante</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Analista programador</v>
+        <v>Analista programador - administrador de servidor</v>
       </c>
       <c r="B7" t="str">
         <v>SOLVENCIAINFORMATICA</v>
       </c>
       <c r="C7" t="str">
-        <v>Culiacán, Sinaloa</v>
+        <v>SOLVENCIAINFORMATICA - Culiacán, Sinaloa</v>
       </c>
       <c r="D7" t="str">
         <v>Presencial y remoto</v>
@@ -557,21 +689,21 @@
         <v>$ 12,000.00 (Mensual)</v>
       </c>
       <c r="F7" t="str">
-        <v>Más de 30 días</v>
+        <v>Hace más de 30 días</v>
       </c>
       <c r="G7" t="str">
-        <v>No disponible</v>
+        <v>ANALISTA-PROGRAMADOR-MANEJADOR BASE DE DATOS, ANALIZAR Y MODULAR REQUERIMIENTOS DEL CLIENTE, PROGRAMAR Y ADMINISTRAR SERVIDOR WEB,DESARROLLO-TESTEO-IMPLEMENTACION DEL DESARROLLO,CONOCIMIENTOS C#,JAVASCRIP,PHP.HTML,NODEJS Y MYSQL</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Programador/a</v>
+        <v>Programador/a - Administrador de servidor</v>
       </c>
       <c r="B8" t="str">
         <v>SOLVENCIAINFORMATICA</v>
       </c>
       <c r="C8" t="str">
-        <v>Culiacán, Sinaloa</v>
+        <v>SOLVENCIAINFORMATICA - Culiacán, Sinaloa</v>
       </c>
       <c r="D8" t="str">
         <v>Presencial y remoto</v>
@@ -580,13 +712,13 @@
         <v>$ 12,000.00 (Mensual)</v>
       </c>
       <c r="F8" t="str">
-        <v>Más de 30 días</v>
+        <v>Hace más de 30 días</v>
       </c>
       <c r="G8" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>Experiencia c# javascrip, nodejs,php,html y mysql, administrar las actualizaciones de desarorrollo y mantenimiento de base de datos en servidores IBM SOFTLAYER</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
       <c r="A9" t="str">
         <v>Programador/a</v>
       </c>
@@ -594,390 +726,985 @@
         <v>PROMOTORES DE GESTORIA NOTARIAL DE OAXACA</v>
       </c>
       <c r="C9" t="str">
-        <v>Oaxaca de Juárez, Oaxaca</v>
+        <v>PROMOTORES DE GESTORIA NOTARIAL DE OAXACA - Oaxaca de Juárez, Oaxaca</v>
       </c>
       <c r="D9" t="str">
-        <v>No disponible</v>
+        <v>Tiempo Completo</v>
       </c>
       <c r="E9" t="str">
         <v>$ 14,000.00 (Mensual)</v>
       </c>
       <c r="F9" t="str">
-        <v>Más de 30 días</v>
-      </c>
-      <c r="G9" t="str">
+        <v>Hace más de 30 días</v>
+      </c>
+      <c r="G9" t="str" xml:space="preserve">
+        <v xml:space="preserve">Conocimientos:
+- En reactjs, Nextjs, Python, Nodejs, TypeScript.
+- Bases de datos relacionales y no relacionales como MongoDB, SqlServer.
+Funciones:
+-Desarrollar o modificar módulos de sistemas existentes o en desarrollo en reactjs.
+Codificar las interfaces gráficas de acuerdo con los diseños y funcionalidades proporcionados.
+-Probar sistemas en desarrollo o producción para validar la calidad y funcionalidad de los sistemas
+-Apoyar a las diferentes actividades del área.
+Periodo a prueba: 1 mes
+Perfil : Licenciatura en sistemas computacionales , informatica o afin.</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v>Desarrollador Fullstack (React + Node.js) - Presencial, tiempo completo</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Evolve Interactive SA de CV</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Evolve Interactive SA de CV - Benito Juárez, Ciudad de México DF</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E10" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Hace 3 horas (actualizada)</v>
+      </c>
+      <c r="G10" t="str" xml:space="preserve">
+        <v xml:space="preserve">Vacante: Desarrollador Fullstack (React + Node.js)
+Ubicación: División del Norte, CDMX
+Modalidad: Presencial, tiempo completo
+Industria: Tecnología / Startups
+Rango salarial: Negociable, según experiencia
+Tecnologías clave requeridas:
+Frontend: React (JavaScript o TypeScript), consumo de APIs REST
+Backend: Node.js con Express u otro framework similar
+Bases de datos: MongoDB y MySQL (modelado, consultas, mantenimiento)
+Web Scraping: Experiencia con herramientas como Puppeteer, Cheerio o similares
+Infraestructura: Conocimientos en servicios de AWS (EC2, S3, Lambda, RDS, etc.)
+Deseables:
+Control de versiones con Git (GitHub)
+Experiencia con Docker
+Familiaridad con herramientas de gestión (Trello, Jira, etc.)
+Conocimientos básicos en despliegue o monitoreo de servicios web
+Sobre el rol:
+Serás parte de un equipo de desarrollo ágil, enfocado tanto en tomar proyectos ya avanzados como en iniciar nuevas soluciones dentro de la empresa. Trabajarás de la mano con un líder de equipo técnico y colaborarás con un equipo pequeño y enfocado.
+¿Qué ofrecemos?
+Proyecto desafiante con enfoque en innovación y escalabilidad
+Cultura de colaboración, autonomía y mejora continua
+Crecimiento profesional dentro de un entorno de startups
+Prestaciones de ley y ambiente dinámico / Vales de despensa, comedor.
+Sueldo negociable de acuerdo a experiencia.</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>Becario Tester - Backend</v>
+      </c>
+      <c r="B11" t="str">
         <v>No disponible</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Becario Tester</v>
-      </c>
-      <c r="B10" t="str">
-        <v>No disponible</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Miguel Hidalgo, Ciudad de México DF</v>
-      </c>
-      <c r="D10" t="str">
+      <c r="C11" t="str">
+        <v>Importante empresa del sector - Miguel Hidalgo, Ciudad de México DF</v>
+      </c>
+      <c r="D11" t="str">
         <v>Presencial y remoto</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E11" t="str">
         <v>$ 8,000.00 (Mensual)</v>
       </c>
-      <c r="F10" t="str">
-        <v>Hace 2 horas</v>
-      </c>
-      <c r="G10" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
+      <c r="F11" t="str">
+        <v>Hace 10 horas (actualizada)</v>
+      </c>
+      <c r="G11" t="str" xml:space="preserve">
+        <v xml:space="preserve">BECARIO (A) TESTER BACKEND
+Escolaridad:
+Licenciatura Curso Ing. Sistemas Computacionales, Computación, Informática, Ingeniería de Software o afín en curso.
+Conocimientos Solidos:
+Javascript - Intermedio
+NodeJS - Intermedio
+TypeScript - Básico
+Base de datos SQL/Nosql
+Control de versiones (Git)
+Funcionamiento básico de APIS
+PRUEBAS DE SOFTWARE A NIVEL USUARIO
+Pruebas Caja Blanca
+Pruebas Caja Negra
+Requisitos:
+-Ser estudiante de los últimos semestres de la ingeniería
+-6to semestre en adelante
+-No egresados ni pasantes.
+-No estar a menos de 6 meses de concluir tus estudios universitarios.
+-Disponibilidad para cubrir 30h semanales (seis horas diarias lunes a viernes)
+Responsabilidades:
+Colaborar en la planificación y ejecución de pruebas de software
+Identificar, reportar y dar seguimiento a defectos o errores en el sistema
+Desarrollar y ejecutar pruebas automatizadas para servicios backend
+Ayudar en la documentación de los procesos de prueba y resultados
+Habilidades
+-Iniciativa, Proactivo, Análisis, integración a equipos de trabajo, trabajo bajo presión.
+Ofrecemos:
+-Beca económica mensual de $8,000 (libres)
+-Zona de trabajo Polanco,
+-Modalidad hibrida 3 dias presenciales, 2 dias home office
+-Indispensable vivir en CDMX o Municipios cercanos a la CDMX, no mas de 1 hr de Polanco
+Si te interesa la vacante envía tu CV por este medio.</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
         <v>Full Stack WordPress Developer</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B12" t="str">
         <v>HAPPIEST MINDS INC</v>
       </c>
-      <c r="C11" t="str">
-        <v>Gustavo A. Madero, Ciudad de México DF</v>
-      </c>
-      <c r="D11" t="str">
-        <v>No disponible</v>
-      </c>
-      <c r="E11" t="str">
-        <v>No especificado</v>
-      </c>
-      <c r="F11" t="str">
-        <v>Ayer</v>
-      </c>
-      <c r="G11" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Programador/a</v>
-      </c>
-      <c r="B12" t="str">
+      <c r="C12" t="str">
+        <v>HAPPIEST MINDS INC - Gustavo A. Madero, Ciudad de México DF</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E12" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Ayer (actualizada)</v>
+      </c>
+      <c r="G12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Job Description
+Full Stack WordPress Developer - will work with a talented team to bridge the gap between graphical design and technical implementation.
+Responsible for maintaining and enhancing the organization’s custom WordPress technology stack, developing scalable solutions, and ensuring best practices in performance, security, and accessibility.
+Main Responsibilities
+• Construct new websites using a custom WordPress technology stack
+• Produce marketing assets to support new partners and programs
+• Migrate legacy websites into Client's standard custom WordPress stack
+• Maintain websites via production tickets and ad hoc projects
+• Implement new features/enhancements to site platform
+• Create custom modules for content entry and publishing automation
+• Optimize code bases via page speed diagnostics to improve browser efficiency and search rankings
+• Quality assurance reviews of other developers’ work
+• Troubleshoot errors by reviewing logs and browser consoles
+• Assist with feature documentation
+• Ensure the technical feasibility of UI/UX designs for responsive page development; strong understanding of responsive design best practices
+• Ensure accessibility compliancy via WCAG 2.0 A and AA standards
+• Collaborate with other team members and stakeholders
+Job Requirements
+• Bachelor’s degree in related field or equivalent work experience preferred
+• 5+ years full stack development experience
+• 3+ years WordPress development experience
+• Familiarity with WordPress database schema, ability to write and execute WordPress database queries, updates
+• Familiarity with WordPress wp-cli command line utility
+• Proficient understanding of front-end technologies including HTML5, CSS3, SASS, JS and jQuery. Experience with ReactJS, BootStrap, Vue is a plus
+• Experience working with A/B testing frameworks such as Webflow Intellimize
+• Advanced knowledge of PHP (5+ years) and MySQL (3+ years)
+• Experience implementing and consuming JSON RESTful APIs; experience with NodeJS is a plus
+• Experience working with Pantheon hosting platform (including Pantheon Terminus utility) is a plus
+• Worpress Plugin Development Experience
+• Experience working with Azure DevOps
+• Familiarity with Elementor visual designer experience
+• Experience with Tealium customer data platform is a plus
+• Experience Conversion Rate Optimization strategies, implementing A/B testing (using tools such as Intellimize), is a strong plus
+• Understanding of custom post type development and implementation via visual designers
+• Understanding of standard web performance benchmarks such as Google Core Web Vitals
+• Experience with CMS parent and child theme development
+• Experience with GIT version control tools and local development
+• Ability to interpret Figma designs into code
+• Strong understanding of best practices in software design and implementation
+• Strong understanding of data architecture
+• Experience with code security standards, such as using PHPCS, Sonar Cube code scanning utilities nice to have
+• Experience performing code reviews in collaborative team environment
+• Demonstrated ability to effectively and indepently work within a mid-sized development team using formal SDLC methodologies such as Scrum. Proven ability to assess, estimate and deliver solutions that meet requirements and timelines.
+• Knowledge of schema markup and code optimization for search rankings
+• Analytical mindset with strong quantitative and problem-solving skills
+• Effective communication and documentation skills</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>Programador/a - Temporal</v>
+      </c>
+      <c r="B13" t="str">
         <v>Caja Morelia Valladolid</v>
       </c>
-      <c r="C12" t="str">
-        <v xml:space="preserve">4.3 </v>
-      </c>
-      <c r="D12" t="str">
-        <v>No disponible</v>
-      </c>
-      <c r="E12" t="str">
-        <v>No especificado</v>
-      </c>
-      <c r="F12" t="str">
-        <v>Ayer</v>
-      </c>
-      <c r="G12" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Java with React or Python</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Adecco</v>
-      </c>
       <c r="C13" t="str">
-        <v xml:space="preserve">4.2 </v>
+        <v>Caja Morelia Valladolid - Morelia, Michoacán</v>
       </c>
       <c r="D13" t="str">
-        <v>No disponible</v>
+        <v>Tiempo Completo</v>
       </c>
       <c r="E13" t="str">
-        <v>$ 60,000.00 (Mensual)</v>
+        <v>A convenir</v>
       </c>
       <c r="F13" t="str">
-        <v>Hace 2 días</v>
-      </c>
-      <c r="G13" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>Ayer (actualizada)</v>
+      </c>
+      <c r="G13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Empresa Mexicana dedicada al servicio Financiero con 59 años de historia y presencia nacional, Caja Morelia Valladolid solicita personal.
+PROGRAMADOR TEMPORAL
+OFECEMOS:
+-Sueldo base.
+-Prestaciones superiores a las de Ley.
+-Vales de despensa 8% del sueldo bruto mensual.
+-Fondo de ahorro del 13% del sueldo bruto mensual.
+-Seguro de vida.
+-Prima vacacional 100%.
+-30 días de aguinaldo desde el primer año.
+-Uniformes.
+-Opciones a becas.
+- Y mucho más...
+REQUISITOS:
+•Licenciatura o ingeniería Titulado en Informática, Sistemas Computacionales, TIC’s a fines.
+•Dominio de bases de datos SQL SERVER
+•Dominio de .NET C# o JAVA
+•Dominio Programación web (Html5, Maquetado CSS, Javascript, ECMAScript 2015+, VueJS2)
+•Dominio API Rest y SOAP (Net Core, nodeJS)
+•Dominio Programación móvil (Android, IOS, híbrido o nativo)
+•Manejo de Control de Versiones GIT.
+•Manejo de Plataforma JIRA &amp; Confluence
+•Deseable Delphi 6
+Horario de trabajo: Lunes a Viernes de 8:30 am a 5 pm y Sábados de 8:30 am a 2 pm
+Interesados postularse por este medio</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
       <c r="A14" t="str">
-        <v>Java Fullstack React</v>
+        <v>Java with React or Python - Fullstack, BackEnd or FrontEnd</v>
       </c>
       <c r="B14" t="str">
         <v>Adecco</v>
       </c>
       <c r="C14" t="str">
-        <v xml:space="preserve">4.2 </v>
+        <v>Adecco - Benito Juárez, Ciudad de México DF</v>
       </c>
       <c r="D14" t="str">
-        <v>No disponible</v>
+        <v>Remoto</v>
       </c>
       <c r="E14" t="str">
         <v>$ 60,000.00 (Mensual)</v>
       </c>
       <c r="F14" t="str">
-        <v>Hace 2 días</v>
-      </c>
-      <c r="G14" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>Hace 2 días (actualizada)</v>
+      </c>
+      <c r="G14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Java Engineer
+Design, develop, and maintain advanced software systems while adhering to high standards for code quality, testing, and automation.
+Collaborate with cross-functional teams to deliver scalable solutions, mentor junior developers, and support DevOps practices, including CI/CD pipelines and cloud infrastructure.
++ 7 years of hands-on experience in software development, with expertise in system design, architecture, and building enterprise-level applications.
+Software Development Languages: Proficiency: Java (required)
+Frameworks: Spring Boot
+RESTful architecture and microservices
+Messaging technologies (e.g., Kafka, SQS)
+Cloud platforms (AWS preferred)
+Kubernetes, Lambda (preferred)
+CI/CD pipelines (e.g., GitLab CI/CD, Terraform)
+Test automation (Unit, Integration, Regression, Load)
+Familiarity with relational databases
+Logging and monitoring tools (e.g., New Relic, Splunk)
+Java - React
+Engineer with strong UI experience with full stack experience.
+Expectation is the candidates are strong on React based web UI development.
+They are also open and willing to do backend development as per project needs.
+Engineer with full stack development experience and stronger backend development experience.
+Again, they should be able to do UI development as needed but focus would be more on backend development.
+Design, Development, Testing, Documentation, Data analysis, On-call support during working hours.
+Design, develop, and maintain advanced software systems while adhering to high standards for code quality, testing, and automation.
+Collaborate with cross-functional teams to deliver scalable solutions, mentor junior developers, and support DevOps practices, including CI/CD pipelines and cloud infrastructure.
+Software Engineer with + 5 years of hands-on experience in software development, with expertise in system design, architecture, and building enterprise-level applications.
+Proficiency: Java (required)
+Frameworks: Spring Boot
+Skills: RESTful architecture and microservices
+Messaging technologies (e.g., Kafka, SQS)
+Cloud platforms (AWS preferred)
+Kubernetes, Lambda (preferred)
+CI/CD pipelines (e.g., GitLab CI/CD, Terraform)
+Test automation (Unit, Integration, Regression, Load)
+Familiarity with relational databases
+Logging and monitoring tools (e.g., New Relic, Splunk)
+Java Back-End
+Have experience on the entire tech stack - frontend, backend, data engineering, devops, support.
+Be an expert in backend development, proficient in k8s, Kafka, AWS ecosystems, comfortable designing and implementing Rest / GraphQL services on Java / Springboot.
+Have exposure to system design, be able to think comprehensively about integrations with other components and / or systems
+Master CS fundamentals - time / space complexity analysis in context of data structures and algorithms.
+Leads and works with other software engineers on design best practices and conducts code reviews.
+Resolves complex engineering problems, collaborating with others.
+Drive end user experience goals and initiatives for on-going end user productivity improvements
+Facilitates cross functional troubleshooting, root cause analysis and engages others when needed.
+Responsible for creating, evaluating, and contributing to feature detailed designs.
+Design, develop, and implement software utilizing an agile project cycle.
+Mentor others on the team and raise the bar for technical knowledge across a wide spectrum.
+Demonstrates thorough knowledge of information technology concepts issues, trends and best practices as they relate to Cloud technologies and system integrations.
+Apply and share knowledge of security coding practices and secure system fundamentals.
+Experience with cloud-based services such as AWS.
+Familiarity with Continuous Integration and Continuous Delivery methodologies and tooling.
+A deep proficiency of an OOP language.
+Java Front
+Design, code, devops, incident engagement during office hours
+Have experience on the entire tech stack - frontend, backend, data engineering, devops, support.
+Be an expert in frontend development, proficient in ReactJS ecosystem, comfortable designing and implementing Rest / GraphQL services on NodeJS / Typescript.
+Have exposure to system design, be able to think comprehensively about integrations with other components and / or systems
+Master CS fundamentals – time / space complexity analysis in context of data structures and algorithms.
+Leads and works with other software engineers on design best practices and conducts code reviews.
+Facilitates cross functional troubleshooting, root cause analysis and engages others when needed.
+Responsible for creating, evaluating, and contributing to feature detailed designs.
+Design, develop, and implement software utilizing an agile project cycle.
+Mentor others on the team and raise the bar for technical knowledge across a wide spectrum.
+Demonstrates thorough knowledge of information technology concepts issues, trends and best practices as they relate to Cloud technologies and system integrations.
+Apply and share knowledge of security coding practices and secure system fundamentals.
+Experience with cloud-based services such as AWS.
+Familiarity with Continuous Integration and Continuous Delivery methodologies and tooling.
+A deep proficiency of an OOP language.</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
       <c r="A15" t="str">
-        <v>Java Fullstack React</v>
+        <v>Java Fullstack React - Backend or Frontend Engineers</v>
       </c>
       <c r="B15" t="str">
         <v>Adecco</v>
       </c>
       <c r="C15" t="str">
-        <v xml:space="preserve">4.2 </v>
+        <v>Adecco - Benito Juárez, Ciudad de México DF</v>
       </c>
       <c r="D15" t="str">
-        <v>No disponible</v>
+        <v>Remoto</v>
       </c>
       <c r="E15" t="str">
         <v>$ 60,000.00 (Mensual)</v>
       </c>
       <c r="F15" t="str">
-        <v>Hace 2 días</v>
-      </c>
-      <c r="G15" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>Hace 2 días (actualizada)</v>
+      </c>
+      <c r="G15" t="str" xml:space="preserve">
+        <v xml:space="preserve">Roles: Java, Java React, Java Back End, Java Front End Engineers
+Requirements and Offer Job
+Education: Bachelor’s Degree in Information Technologies or related engineering.
+Languages: High level of proficiency in English (speaking, reading, writing)" Level: B2, C1, C2, Fluent
+Modality: Home Office 100 %
+Location: Mexico
+Workday: Monday - Friday
+Gross Salary: $60,000 MXN /Month
+Hiring: 100 % Payroll
+Benefits: Social Insurance (IMSS), 12 Vacation Days per Year, 15 Days of Christmas Bonus, 25 % Vacation Bonus, Life Insurance.
+Plus Benefits: Online Technical Trainings and Access to Academies and Certifications.
+Job Stability and Professional Development
+Role: Java Engineer
+Design, develop, and maintain advanced software systems while adhering to high standards for code quality, testing, and automation.
+Collaborate with cross-functional teams to deliver scalable solutions, mentor junior developers, and support DevOps practices, including CI/CD pipelines and cloud infrastructure.
++ 7 years of hands-on experience in software development, with expertise in system design, architecture, and building enterprise-level applications.
+Software Development Languages: Proficiency: Java (required)
+Frameworks: Spring Boot
+RESTful architecture and microservices
+Messaging technologies (e.g., Kafka, SQS
+Cloud platforms (AWS preferred)
+Kubernetes, Lambda (preferred)
+CI/CD pipelines (e.g., GitLab CI/CD, Terraform)
+Test automation (Unit, Integration, Regression, Load)
+Familiarity with relational databases
+Logging and monitoring tools (e.g., New Relic, Splunk)
+Role: Java React
+Engineer with strong UI experience with full stack experience.
+Expectation is the candidates are strong on React based web UI development.
+They are also open and willing to do backend development as per project needs.
+Engineer with full stack development experience and stronger backend development experience.
+Again, they should be able to do UI development as needed but focus would be more on backend development.
+Design, Development, Testing, Documentation, Data analysis, On-call support during working hours.
+Design, develop, and maintain advanced software systems while adhering to high standards for code quality, testing, and automation.
+Collaborate with cross-functional teams to deliver scalable solutions, mentor junior developers, and support DevOps practices, including CI/CD pipelines and cloud infrastructure.
+Software Engineer with + 5 years of hands-on experience in software development, with expertise in system design, architecture, and building enterprise-level applications.
+Proficiency: Java (required)
+Frameworks: Spring Boot
+RESTful architecture and microservices
+Messaging technologies (e.g., Kafka, SQS)
+Cloud platforms (AWS preferred)
+Kubernetes, Lambda (preferred)
+CI/CD pipelines (e.g., GitLab CI/CD, Terraform)
+Test automation (Unit, Integration, Regression, Load)
+Familiarity with relational databases
+Logging and monitoring tools (e.g., New Relic, Splunk)
+Role: Java BackEnd
+Have experience on the entire tech stack - frontend, backend, data engineering, devops, support.
+Be an expert in backend development, proficient in k8s, Kafka, AWS ecosystems, comfortable designing and implementing Rest / GraphQL services on Java / Springboot.
+Have exposure to system design, be able to think comprehensively about integrations with other components and / or systems
+Master CS fundamentals - time / space complexity analysis in context of data structures and algorithms.
+Leads and works with other software engineers on design best practices and conducts code reviews.
+Drive end user experience goals and initiatives for on-going end user productivity improvements
+Facilitates cross functional troubleshooting, root cause analysis and engages others when needed.
+Responsible for creating, evaluating, and contributing to feature detailed designs.
+Design, develop, and implement software utilizing an agile project cycle.
+Mentor others on the team and raise the bar for technical knowledge across a wide spectrum.
+Demonstrates thorough knowledge of information technology concepts issues, trends and best practices as they relate to Cloud technologies and system integrations.
+Apply and share knowledge of security coding practices and secure system fundamentals.
+Experience with cloud-based services such as AWS.
+Familiarity with Continuous Integration and Continuous Delivery methodologies and tooling.
+A deep proficiency of an OOP language.
+Role: Java FrontEnd
+Design, code, devops, incident engagement during office hours
+Have experience on the entire tech stack - frontend, backend, data engineering, devops, support.
+Be an expert in frontend development, proficient in ReactJS ecosystem, comfortable designing and implementing Rest / GraphQL services on NodeJS / Typescript.
+Have exposure to system design, be able to think comprehensively about integrations with other components and / or systems
+Master CS fundamentals – time / space complexity analysis in context of data structures and algorithms.
+Leads and works with other software engineers on design best practices and conducts code reviews.
+Facilitates cross functional troubleshooting, root cause analysis and engages others when needed.
+Responsible for creating, evaluating, and contributing to feature detailed designs.
+Design, develop, and implement software utilizing an agile project cycle.
+Mentor others on the team and raise the bar for technical knowledge across a wide spectrum.
+Demonstrates thorough knowledge of information technology concepts issues, trends and best practices as they relate to Cloud technologies and system integrations.
+Apply and share knowledge of security coding practices and secure system fundamentals.
+Experience with cloud-based services such as AWS.
+Familiarity with Continuous Integration and Continuous Delivery methodologies and tooling.
+A deep proficiency of an OOP language.</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
       <c r="A16" t="str">
-        <v>Desarrollador iOS</v>
+        <v>Java Fullstack React - Backend or Frontend Engineers</v>
       </c>
       <c r="B16" t="str">
         <v>Adecco</v>
       </c>
       <c r="C16" t="str">
-        <v xml:space="preserve">4.2 </v>
+        <v>Adecco - Benito Juárez, Ciudad de México DF</v>
       </c>
       <c r="D16" t="str">
-        <v>No disponible</v>
+        <v>Remoto</v>
       </c>
       <c r="E16" t="str">
-        <v>No especificado</v>
+        <v>$ 60,000.00 (Mensual)</v>
       </c>
       <c r="F16" t="str">
-        <v>Hace 2 días</v>
-      </c>
-      <c r="G16" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>Hace 2 días (actualizada)</v>
+      </c>
+      <c r="G16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Roles: Java, Java React, Java Back End, Java Front End Engineers
+Requirements and Offer Job
+Education: Bachelor’s Degree in Information Technologies or related.
+Languages: High level of proficiency in English (speaking, reading, writing) Level: B2, C1, C2, Fluent
+Modality: Home Office 100 %
+Location: Mexico
+Workday: Monday - Friday
+Gross Salary: $60,000 MXN /Month
+Hiring: 100 % Payroll
+Benefits: Social Insurance (IMSS), 12 Vacation days per year, 15 Days of Christmas Bonus, 25 % Vacation Bonus, Life Insurance.
+Plus Benefits: Online Technical Trainings and Access to Academies and Certifications.
+Job Stability and Professional Development
+Role: Java Engineer
+Design, develop, and maintain advanced software systems while adhering to high standards for code quality, testing, and automation.
+Collaborate with cross-functional teams to deliver scalable solutions, mentor junior developers, and support DevOps practices, including CI/CD pipelines and cloud infrastructure.
++ 7 years of hands-on experience in software development, with expertise in system design, architecture, and building enterprise-level applications.
+Software Development Languages: Proficiency: Java (required)
+Frameworks: Spring Boot
+RESTful architecture and microservices
+Messaging technologies (e.g., Kafka, SQS
+Cloud platforms (AWS preferred)
+Kubernetes, Lambda (preferred)
+CI/CD pipelines (e.g., GitLab CI/CD, Terraform)
+Test automation (Unit, Integration, Regression, Load)
+Familiarity with relational databases
+Logging and monitoring tools (e.g., New Relic, Splunk)
+Role: Java React
+Engineer with strong UI experience with full stack experience.
+Expectation is the candidates are strong on React based web UI development.
+They are also open and willing to do backend development as per project needs.
+Engineer with full stack development experience and stronger backend development experience.
+Again, they should be able to do UI development as needed but focus would be more on backend development.
+Design, Development, Testing, Documentation, Data analysis, On-call support during working hours.
+Design, develop, and maintain advanced software systems while adhering to high standards for code quality, testing, and automation.
+Collaborate with cross-functional teams to deliver scalable solutions, mentor junior developers, and support DevOps practices, including CI/CD pipelines and cloud infrastructure.
+Software Engineer with + 5 years of hands-on experience in software development, with expertise in system design, architecture, and building enterprise-level applications.
+Proficiency: Java (required)
+Frameworks: Spring Boot
+RESTful architecture and microservices
+Messaging technologies (e.g., Kafka, SQS)
+Cloud platforms (AWS preferred)
+Kubernetes, Lambda (preferred)
+CI/CD pipelines (e.g., GitLab CI/CD, Terraform)
+Test automation (Unit, Integration, Regression, Load)
+Familiarity with relational databases
+Logging and monitoring tools (e.g., New Relic, Splunk)
+Role: Java BackEnd
+Have experience on the entire tech stack - frontend, backend, data engineering, devops, support.
+Be an expert in backend development, proficient in k8s, Kafka, AWS ecosystems, comfortable designing and implementing Rest / GraphQL services on Java / Springboot.
+Have exposure to system design, be able to think comprehensively about integrations with other components and / or systems
+Master CS fundamentals - time / space complexity analysis in context of data structures and algorithms.
+Leads and works with other software engineers on design best practices and conducts code reviews.
+Drive end user experience goals and initiatives for on-going end user productivity improvements
+Facilitates cross functional troubleshooting, root cause analysis and engages others when needed.
+Responsible for creating, evaluating, and contributing to feature detailed designs.
+Design, develop, and implement software utilizing an agile project cycle.
+Mentor others on the team and raise the bar for technical knowledge across a wide spectrum.
+Demonstrates thorough knowledge of information technology concepts issues, trends and best practices as they relate to Cloud technologies and system integrations.
+Apply and share knowledge of security coding practices and secure system fundamentals.
+Experience with cloud-based services such as AWS.
+Familiarity with Continuous Integration and Continuous Delivery methodologies and tooling.
+A deep proficiency of an OOP language.
+Role: Java FrontEnd
+Design, code, devops, incident engagement during office hours
+Have experience on the entire tech stack - frontend, backend, data engineering, devops, support.
+Be an expert in frontend development, proficient in ReactJS ecosystem, comfortable designing and implementing Rest / GraphQL services on NodeJS / Typescript.
+Have exposure to system design, be able to think comprehensively about integrations with other components and / or systems
+Master CS fundamentals – time / space complexity analysis in context of data structures and algorithms.
+Leads and works with other software engineers on design best practices and conducts code reviews.
+Facilitates cross functional troubleshooting, root cause analysis and engages others when needed.
+Responsible for creating, evaluating, and contributing to feature detailed designs.
+Design, develop, and implement software utilizing an agile project cycle.
+Mentor others on the team and raise the bar for technical knowledge across a wide spectrum.
+Demonstrates thorough knowledge of information technology concepts issues, trends and best practices as they relate to Cloud technologies and system integrations.
+Apply and share knowledge of security coding practices and secure system fundamentals.
+Experience with cloud-based services such as AWS.
+Familiarity with Continuous Integration and Continuous Delivery methodologies and tooling.
+A deep proficiency of an OOP language.</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
       <c r="A17" t="str">
+        <v>Desarrollador iOS</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Adecco</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Adecco - Cuauhtémoc, Ciudad de México DF</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E17" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G17" t="str" xml:space="preserve">
+        <v xml:space="preserve">Conocimientos Técnicos:
+Conocimientos robustos en aplicaciones móviles, principalmente iOS
+Responsable de diseñar, programar y estabilizar las aplicaciones o sistemas mediante diferentes lenguajes de programación o manejadores de bases de datos para proveer a los usuarios de negocio nuevas funcionalidades y estabilidad en las aplicaciones, asegurando entrega en tiempo, calidad y apegándose a los estándares y metodologías definidos.
+Participa en los diseños técnicos y funcionales.
+Cumple con los estándares de desarrollo, diseño, arquitectura, seguridad y Configuration Management.
+Define en conjunto con Arquitectura y Seguridad de la información estándares de desarrollo.
+Documenta las aplicaciones y comparte el conocimiento técnico siendo una referencia para acompañar a sus compañeros mediante capacitación técnica.
+Lidera grupos de trabajo en la resolución de problemas.
+Responsable de documentación del proceso de liberación, apoya en su presentación en foros para su aprobación.
+Responsable de validar la liberación, obtención de vobos y seguimiento al periodo de garantía.
+Soporte hacia la línea de Negocio para entendimiento de las reglas de negocio, funcionalidades y comportamiento de los aplicativos para la definición de la operación.
+Ejecuta y documenta pruebas unitarias.
+Tecnologías:
+Apache Tomcat, Jenkins, Github, SonarQube o similar.
+Construcción de código JavaScript (NodeJs) utilizando Maven
+Docker
+Kubernetes
+BBDD relacionales y no relacionales.
+Conocimientos básicos Nube pública, preferentemente Azure (Resource groups, Blob Storage, Functions, Application gateway, App Service, Azure DevOps).
+Conocimientos Funcionales:
+Responsable de dirigir, alinear e implementar soluciones tecnológicas que evolucionen y provean estabilidad a las aplicaciones asignadas a su célula de Transformación.
+Acompañar al equipo de Arquitectura en los diseños de solución técnica.
+Comunica rápida y oportunamente información relativa a las aplicaciones, riesgos existentes y vulnerabilidades a su líder de célula para la toma oportuna de decisiones.</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
         <v>Trabajo Desde Casa Node.js Senior Tech Lead / Ref. 0111</v>
-      </c>
-      <c r="B17" t="str">
-        <v>BairesDev LLC</v>
-      </c>
-      <c r="C17" t="str">
-        <v xml:space="preserve">2.1 </v>
-      </c>
-      <c r="D17" t="str">
-        <v>No disponible</v>
-      </c>
-      <c r="E17" t="str">
-        <v>No especificado</v>
-      </c>
-      <c r="F17" t="str">
-        <v>Hace 3 días</v>
-      </c>
-      <c r="G17" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>Work From Home Node.js Junior Engineer / Ref. 0111</v>
       </c>
       <c r="B18" t="str">
         <v>BairesDev LLC</v>
       </c>
       <c r="C18" t="str">
-        <v xml:space="preserve">2.1 </v>
+        <v>BairesDev LLC - Guadalajara, Jalisco</v>
       </c>
       <c r="D18" t="str">
-        <v>No disponible</v>
+        <v>Remoto</v>
       </c>
       <c r="E18" t="str">
-        <v>No especificado</v>
+        <v>A convenir</v>
       </c>
       <c r="F18" t="str">
-        <v>Hace 3 días</v>
-      </c>
-      <c r="G18" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G18" t="str" xml:space="preserve">
+        <v xml:space="preserve">En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Node.js Senior Tech Lead en BairesDev
+Únete como Node.js Senior Tech Lead para impulsar a nuestro equipo de desarrollo con tu amplio conocimiento de Node.js. Supervisarás el desarrollo de proyectos, establecerás estándares técnicos y liderarás al equipo en la entrega de aplicaciones escalables y robustas del lado del servidor, fomentando la innovación en el desarrollo back-end.
+Lo que harás
+- Supervisar la dirección técnica de proyectos Node.js, alineando las decisiones técnicas con los objetivos comerciales.
+- Liderar y orientar a un equipo de desarrollo, promoviendo la colaboración efectiva y el éxito del proyecto.
+- Definir los requisitos, el alcance y los plazos del proyecto en colaboración con las partes interesadas.
+- Garantizar la entrega de soluciones Node.js de alta calidad, escalables y eficientes.
+- Mantenerte al día con las tendencias de la industria y las nuevas tecnologías, evaluando su aplicación en los proyectos del equipo.
+- Facilitar la comunicación y la resolución de problemas dentro del equipo, garantizando un flujo de trabajo eficiente y abordando los desafíos técnicos de manera proactiva.
+¿Qué Buscamos?
+- 7+ años de experiencia con Node.js.
+- Experto en metodologías Agile, asegurando la entrega eficiente del proyecto y la colaboración del equipo.
+- Dominio profundo de Patrones de Diseño.
+- Conocimiento avanzado de infraestructura IT.
+- Sólida experiencia en las mejores prácticas de seguridad de aplicaciones.
+- Historial comprobado en el desarrollo e integración de aplicaciones a gran escala.
+- Experiencia en ambas áreas de desarrollo, front-end y back-end.
+- Habilidad para realizar revisiones de código y administrar pipelines de CI/CD.
+- Comprensión clara de los requisitos del cliente, evaluando los beneficios y debilidades potenciales.
+- Conocimiento avanzado de las ventajas y desventajas de elegir tecnologías o soluciones específicas.
+- Amplia experiencia en liderar reuniones con clientes y partes interesadas, comunicando efectivamente conceptos técnicos.
+- Habilidades de liderazgo demostradas en la gestión de equipos, asignación y estimación de tareas, identificación de riesgos, toma de decisiones, resolución de conflictos y planificación de proyectos.
+- Inglés avanzado.
+Qué ofrecemos para que tu trabajo (y tu vida) sea más fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.
+- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.
+- Hardware y software.
+- Horarios flexibles
+- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.
+- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.
+- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
       <c r="A19" t="str">
-        <v>Work From Home Node.js Junior Developer / Ref. 0111</v>
+        <v>Work From Home Node.js Junior Engineer / Ref. 0111</v>
       </c>
       <c r="B19" t="str">
         <v>BairesDev LLC</v>
       </c>
       <c r="C19" t="str">
-        <v xml:space="preserve">2.1 </v>
+        <v>BairesDev LLC - Chilcuautla, Hidalgo</v>
       </c>
       <c r="D19" t="str">
-        <v>No disponible</v>
+        <v>Remoto</v>
       </c>
       <c r="E19" t="str">
-        <v>No especificado</v>
+        <v>A convenir</v>
       </c>
       <c r="F19" t="str">
-        <v>Hace 3 días</v>
-      </c>
-      <c r="G19" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G19" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Node.js Junior Engineer at BairesDev
+As a Node.js Junior Engineer, apply your JavaScript and Node.js skills to build efficient server-side applications. This role involves developing APIs, working with server-side logic, and enhancing your backend development capabilities.
+What you will do:
+- Develop and maintain Node.js applications, focusing on creating efficient back-end functionality.
+- Work on integrating user-facing elements with server-side logic, collaborating with front-end developers.
+- Troubleshoot and debug applications, contributing to improving application performance.
+- Participate in code reviews to learn and maintain high-quality coding standards.
+- Stay updated with new trends in Node.js and related technologies, understanding their application in development projects.
+- Participate actively in team meetings and contribute ideas to enhance project development and team collaboration.
+Heres what we are looking for:
+- 1+ year of experience with Node.js.
+- Good understanding of basic algorithms and data structures.
+- Basic knowledge of version control systems, preferably Git.
+- Ability to solve problems effectively and learn new technologies quickly.
+- Advanced level of English is a plus.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
       <c r="A20" t="str">
-        <v>Trabajo Desde Casa Desarrollador Node.js / Ref. 0111</v>
+        <v>Work From Home Node.js Junior Developer / Ref. 0111</v>
       </c>
       <c r="B20" t="str">
         <v>BairesDev LLC</v>
       </c>
       <c r="C20" t="str">
-        <v xml:space="preserve">2.1 </v>
+        <v>BairesDev LLC - Benito Juárez, Quintana Roo</v>
       </c>
       <c r="D20" t="str">
-        <v>No disponible</v>
+        <v>Remoto</v>
       </c>
       <c r="E20" t="str">
-        <v>No especificado</v>
+        <v>A convenir</v>
       </c>
       <c r="F20" t="str">
-        <v>Hace 3 días</v>
-      </c>
-      <c r="G20" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G20" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Node.js Junior Developer at BairesDev
+As a Node.js Junior Developer, apply your JavaScript and Node.js skills to build efficient server-side applications. This role involves developing APIs, working with server-side logic, and enhancing your backend development capabilities.
+What you will do:
+- Develop and maintain Node.js applications, focusing on creating efficient back-end functionality.
+- Work on integrating user-facing elements with server-side logic, collaborating with front-end developers.
+- Troubleshoot and debug applications, contributing to improving application performance.
+- Participate in code reviews to learn and maintain high-quality coding standards.
+- Stay updated with new trends in Node.js and related technologies, understanding their application in development projects.
+- Participate actively in team meetings and contribute ideas to enhance project development and team collaboration.
+Heres what we are looking for:
+- 1+ year of experience with Node.js.
+- Good understanding of basic algorithms and data structures.
+- Basic knowledge of version control systems, preferably Git.
+- Ability to solve problems effectively and learn new technologies quickly.
+- Advanced level of English is a plus.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
       <c r="A21" t="str">
-        <v>Work From Home Senior Engineering Manager (Node.js) / Ref. 0111</v>
+        <v>Trabajo Desde Casa Desarrollador Node.js / Ref. 0111</v>
       </c>
       <c r="B21" t="str">
         <v>BairesDev LLC</v>
       </c>
       <c r="C21" t="str">
-        <v xml:space="preserve">2.1 </v>
+        <v>BairesDev LLC - Tijuana, Baja California</v>
       </c>
       <c r="D21" t="str">
-        <v>No disponible</v>
+        <v>Remoto</v>
       </c>
       <c r="E21" t="str">
-        <v>No especificado</v>
+        <v>A convenir</v>
       </c>
       <c r="F21" t="str">
-        <v>Hace 3 días</v>
-      </c>
-      <c r="G21" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G21" t="str" xml:space="preserve">
+        <v xml:space="preserve">En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Desarrollador Node.js en BairesDev
+Como Desarrollador Node.js en BairesDev, diseñarás e implementarás aplicaciones del lado del servidor utilizando Node.js y tecnologías relacionadas. Aplicarás tu experiencia para desarrollar servicios backend escalables, optimizar el rendimiento de APIs y colaborar con equipos multifuncionales para entregar software de alta calidad que cumpla con los requisitos del negocio.
+Qué harás:
+- Diseñar, desarrollar y mantener aplicaciones Node.js, demostrando habilidades avanzadas de resolución de problemas y competencia en codificación.
+- Construir APIs RESTful y arquitecturas de microservicios para soportar aplicaciones web y móviles.
+- Implementar esquemas y consultas de bases de datos eficientes para optimizar el acceso y almacenamiento de datos.
+- Integrar servicios de terceros y APIs externas para mejorar la funcionalidad de las aplicaciones.
+- Solucionar problemas, depurar y actualizar aplicaciones del lado del servidor existentes para mejorar el rendimiento.
+- Participar en revisiones de código y discusiones técnicas para mejorar la calidad general del código.
+Qué buscamos:
+- 3+ años de experiencia con desarrollo Node.js.
+- Experiencia con tecnologías de bases de datos (SQL o NoSQL).
+- Familiaridad con desarrollo e integración de APIs.
+- Conocimiento de JavaScript y características modernas de ES6+.
+- Experiencia con sistemas de control de versiones, preferiblemente Git.
+- Nivel avanzado de inglés.
+Qué ofrecemos para que tu trabajo (y tu vida) sea más fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.
+- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.
+- Hardware y software.
+- Horarios flexibles
+- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.
+- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.
+- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
       <c r="A22" t="str">
+        <v>Work From Home Senior Engineering Manager (Node.js) / Ref. 0111</v>
+      </c>
+      <c r="B22" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C22" t="str">
+        <v>BairesDev LLC - Hermosillo, Sonora</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E22" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G22" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Senior Engineering Manager (Node.js) at BairesDev
+Join as a Senior Engineering Manager (Node.js) to drive our development team with your deep understanding of Node.js. Youll oversee project development, set technical standards, and lead the team in delivering scalable and robust server-side applications, fostering innovation in backend development.
+What you will do:
+- Oversee the technical direction of Node.js projects, aligning technical decisions with business goals.
+- Lead and mentor a development team, promoting effective collaboration, skill development, and project success.
+- Define project requirements, scope, and timelines in collaboration with stakeholders.
+- Ensure the delivery of high-quality, scalable, and efficient Node.js solutions.
+- Stay informed on industry trends and emerging technologies, assessing their application in the teams projects.
+- Facilitate communication and problem-solving within the team, ensuring efficient workflow and addressing technical challenges proactively.
+Heres what we are looking for:
+- 7+ years of experience with Node.js.
+- Proficient in Agile methodologies, ensuring efficient project delivery and team collaboration.
+- In-depth knowledge of Design Patterns.
+- Advanced IT infrastructure knowledge.
+- Strong experience in application security best practices.
+- Proven track record in developing and integrating large-scale applications.
+- Expertise in both back-end and front-end development areas.
+- Skilled in conducting code reviews and managing CI/CD pipelines.
+- Expert understanding of clients requirements, assessing potential benefits and weaknesses.
+- Advanced knowledge of the trade-offs involved in choosing specific technologies or solutions.
+- Strong experience leading client and stakeholder meetings, effectively communicating technical concepts.
+- Demonstrated leadership skills in team management, task allocation, risk identification, decision-making, task estimation, conflict resolution, and project planning.
+- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
         <v>Desarrollador Full Stack</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B23" t="str">
         <v>Transportes Castores de Baja California S.A. de C.V.</v>
       </c>
-      <c r="C22" t="str">
-        <v xml:space="preserve">4.2 </v>
-      </c>
-      <c r="D22" t="str">
-        <v>No disponible</v>
-      </c>
-      <c r="E22" t="str">
+      <c r="C23" t="str">
+        <v>Transportes Castores de Baja California S.A. de C.V. - León, Guanajuato</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E23" t="str">
         <v>$ 23,001.00 (Mensual)</v>
       </c>
-      <c r="F22" t="str">
-        <v>Hace 3 días</v>
-      </c>
-      <c r="G22" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
+      <c r="F23" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Desarrollador Full Stack
+Sueldo: $14,000 – $23,000 MXN mensuales
+Horario: Lunes a viernes de 9:00 a 18:00 hrs
+Descripción del puesto:
+Buscamos un Desarrollador Full Stack con sólida experiencia en Python y desarrollo web tanto frontend como backend. Si tienes conocimientos en Javascript, Typescript y frameworks como Angular 8 y NodeJS (Express), además de habilidades en Java (JSP), CSS y UI/UX, ¡te queremos en nuestro equipo!
+Requisitos indispensables:
+Experiencia comprobable en Python
+Desarrollo web frontend y backend
+Javascript y Typescript
+Angular 8 y Angular Material
+NodeJS con Express
+Java (JSP)
+CSS y conocimientos en UI/UX
+Despliegue de aplicaciones en servidores Linux
+Manejo de estructuras de datos
+Conocimiento en metodologías ágiles
+Ofrecemos:
+Salario competitivo desde $14,000 hasta $23,000 MXN según experiencia
+Horario fijo de lunes a viernes de 9:00 a 18:00
+Excelente ambiente laboral y oportunidad de crecimiento</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
         <v>Work From Home Node.js Senior Developer / Ref. 0111E</v>
-      </c>
-      <c r="B23" t="str">
-        <v>BairesDev LLC</v>
-      </c>
-      <c r="C23" t="str">
-        <v xml:space="preserve">2.1 </v>
-      </c>
-      <c r="D23" t="str">
-        <v>No disponible</v>
-      </c>
-      <c r="E23" t="str">
-        <v>No especificado</v>
-      </c>
-      <c r="F23" t="str">
-        <v>Hace 3 días</v>
-      </c>
-      <c r="G23" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Work From Home Technical Writer / Ref. 0623</v>
       </c>
       <c r="B24" t="str">
         <v>BairesDev LLC</v>
       </c>
       <c r="C24" t="str">
-        <v xml:space="preserve">2.1 </v>
+        <v>BairesDev LLC - Puebla, Puebla</v>
       </c>
       <c r="D24" t="str">
-        <v>No disponible</v>
+        <v>Remoto</v>
       </c>
       <c r="E24" t="str">
-        <v>No especificado</v>
+        <v>A convenir</v>
       </c>
       <c r="F24" t="str">
-        <v>Hace 3 días</v>
-      </c>
-      <c r="G24" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G24" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Node.js Senior Developer at BairesDev
+As a Node.js Senior Developer, lead the development of high-performance server-side applications. Your expertise in Node.js will guide architectural decisions, mentor junior developers, and integrate cutting-edge server technologies, ensuring high-quality software delivery.
+What you will do:
+- Lead the design and development of complex and high-performance Node.js applications, ensuring alignment with business objectives.
+- Mentor junior and semi-senior developers, fostering a culture of technical excellence and innovation.
+- Make key architectural and design decisions, contributing to the strategic planning of software projects.
+- Oversee code reviews and ensure adherence to high standards of code quality and best practices.
+- Evaluate and advocate for the adoption of new Node.js technologies and frameworks.
+- Provide technical insights and recommendations to project managers, stakeholders, and team members.
+What we are looking for:
+- 5+ years of experience with Node.js.
+- Strong understanding of best practices, such as SOLID and clean code, focusing on scalable solutions.
+- Extensive experience with code reviews, writing automated tests, and implementing CI/CD pipelines.
+- Strong expertise in unit testing, integration testing, and maintaining high code coverage.
+- Demonstrated ability to make informed technical decisions and apply the best approach for each use case.
+- IT infrastructure knowledge.
+- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
       <c r="A25" t="str">
-        <v>Work From Home Node.js Junior Developer / Ref. 0111</v>
+        <v>Work From Home Technical Writer / Ref. 0623</v>
       </c>
       <c r="B25" t="str">
         <v>BairesDev LLC</v>
       </c>
       <c r="C25" t="str">
-        <v xml:space="preserve">2.1 </v>
+        <v>BairesDev LLC - Hermosillo, Sonora</v>
       </c>
       <c r="D25" t="str">
-        <v>No disponible</v>
+        <v>Remoto</v>
       </c>
       <c r="E25" t="str">
-        <v>No especificado</v>
+        <v>A convenir</v>
       </c>
       <c r="F25" t="str">
-        <v>Hace 3 días</v>
-      </c>
-      <c r="G25" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G25" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Technical Writer at BairesDev
+As a Technical Writer, you are an integral part of an agile team that works to enhance, build, and deliver trusted market-leading technology products in a secure, stable, and scalable way. As a core technical contributor, you are responsible for conducting critical technology solutions across multiple technical areas within various business functions in support of the firms business objectives.
+What You Will Do:
+- Develop comprehensive documentation that meets organizational standards.
+- Obtain a deep understanding of products and services to translate complex product information into simple, polished, and engaging content.
+- Understand Current Architecture based on Microservices, and Chrome Browser extension.
+Heres what we are looking for:
+- Bachelors degree in a relevant technical field.
+- 4+ years of industry experience as an effective technical writer.
+- Good knowledge of Current Tech Stack: NodeJS, Chrome Browser Extension, Microservices, Datadog, AWS services (RDS, etc).
+- Proven ability to quickly learn and understand complex topics.
+- Previous experience writing documentation and procedural materials for multiple audiences.
+- Superior written and verbal communication skills, with a keen eye for detail.
+- Proven working experience in technical writing of software documentation.
+- Ability to quickly grasp complex technical concepts and make them easily understandable in text and pictures.
+- Strong working knowledge of Microsoft Office.
+- Basic familiarity with SDLC and software development.
+- Excellent / Above average written skills in English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
       <c r="A26" t="str">
         <v>Work From Home Senior Tech Lead (Node.js) / Ref. 0111</v>
       </c>
@@ -985,91 +1712,202 @@
         <v>BairesDev LLC</v>
       </c>
       <c r="C26" t="str">
-        <v xml:space="preserve">2.1 </v>
+        <v>BairesDev LLC - Ecatepec de Morelos, Estado de México</v>
       </c>
       <c r="D26" t="str">
-        <v>No disponible</v>
+        <v>Remoto</v>
       </c>
       <c r="E26" t="str">
-        <v>No especificado</v>
+        <v>A convenir</v>
       </c>
       <c r="F26" t="str">
-        <v>Hace 3 días</v>
-      </c>
-      <c r="G26" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G26" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Senior Tech Lead (Node.js) at BairesDev
+Join as a Senior Tech Lead (Node.js) to drive our development team with your deep understanding of Node.js. Youll oversee project development, set technical standards, and lead the team in delivering scalable and robust server-side applications, fostering innovation in backend development.
+What you will do:
+- Oversee the technical direction of Node.js projects, aligning technical decisions with business goals.
+- Lead and mentor a development team, promoting effective collaboration, skill development, and project success.
+- Define project requirements, scope, and timelines in collaboration with stakeholders.
+- Ensure the delivery of high-quality, scalable, and efficient Node.js solutions.
+- Stay informed on industry trends and emerging technologies, assessing their application in the teams projects.
+- Facilitate communication and problem-solving within the team, ensuring efficient workflow and addressing technical challenges proactively.
+Heres what we are looking for:
+- 7+ years of experience with Node.js.
+- Proficient in Agile methodologies, ensuring efficient project delivery and team collaboration.
+- In-depth knowledge of Design Patterns.
+- Advanced IT infrastructure knowledge.
+- Strong experience in application security best practices.
+- Proven track record in developing and integrating large-scale applications.
+- Expertise in both back-end and front-end development areas.
+- Skilled in conducting code reviews and managing CI/CD pipelines.
+- Expert understanding of clients requirements, assessing potential benefits and weaknesses.
+- Advanced knowledge of the trade-offs involved in choosing specific technologies or solutions.
+- Strong experience leading client and stakeholder meetings, effectively communicating technical concepts.
+- Demonstrated leadership skills in team management, task allocation, risk identification, decision-making, task estimation, conflict resolution, and project planning.
+- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
       <c r="A27" t="str">
-        <v>Work From Home Junior Backend Developer (Node.js) / Ref. 0111</v>
+        <v>Work From Home Node.js Junior Developer / Ref. 0111</v>
       </c>
       <c r="B27" t="str">
         <v>BairesDev LLC</v>
       </c>
       <c r="C27" t="str">
-        <v xml:space="preserve">2.1 </v>
+        <v>BairesDev LLC - Tulum, Quintana Roo</v>
       </c>
       <c r="D27" t="str">
-        <v>No disponible</v>
+        <v>Remoto</v>
       </c>
       <c r="E27" t="str">
-        <v>No especificado</v>
+        <v>A convenir</v>
       </c>
       <c r="F27" t="str">
-        <v>Hace 4 días</v>
-      </c>
-      <c r="G27" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G27" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Node.js Junior Developer at BairesDev
+As a Node.js Junior Developer, apply your JavaScript and Node.js skills to build efficient server-side applications. This role involves developing APIs, working with server-side logic, and enhancing your backend development capabilities.
+What you will do:
+- Develop and maintain Node.js applications, focusing on creating efficient back-end functionality.
+- Work on integrating user-facing elements with server-side logic, collaborating with front-end developers.
+- Troubleshoot and debug applications, contributing to improving application performance.
+- Participate in code reviews to learn and maintain high-quality coding standards.
+- Stay updated with new trends in Node.js and related technologies, understanding their application in development projects.
+- Participate actively in team meetings and contribute ideas to enhance project development and team collaboration.
+Heres what we are looking for:
+- 1+ year of experience with Node.js.
+- Good understanding of basic algorithms and data structures.
+- Basic knowledge of version control systems, preferably Git.
+- Ability to solve problems effectively and learn new technologies quickly.
+- Advanced level of English is a plus.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
       <c r="A28" t="str">
-        <v>Trabajo Desde Casa Desarrollador Junior Node.js / Ref. 0111</v>
+        <v>Work From Home Junior Backend Developer (Node.js) / Ref. 0111</v>
       </c>
       <c r="B28" t="str">
         <v>BairesDev LLC</v>
       </c>
       <c r="C28" t="str">
-        <v xml:space="preserve">2.1 </v>
+        <v>BairesDev LLC - Guadalajara, Jalisco</v>
       </c>
       <c r="D28" t="str">
-        <v>No disponible</v>
+        <v>Remoto</v>
       </c>
       <c r="E28" t="str">
-        <v>No especificado</v>
+        <v>A convenir</v>
       </c>
       <c r="F28" t="str">
-        <v>Hace 4 días</v>
-      </c>
-      <c r="G28" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G28" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Junior Backend Developer (Node.js) at BairesDev
+As a Junior Backend Developer (Node.js), apply your JavaScript and Node.js skills to build efficient server-side applications. This role involves developing APIs, working with server-side logic, and enhancing your backend development capabilities.
+What you will do:
+- Develop and maintain Node.js applications, focusing on creating efficient back-end functionality.
+- Work on integrating user-facing elements with server-side logic, collaborating with front-end developers.
+- Troubleshoot and debug applications, contributing to improving application performance.
+- Participate in code reviews to learn and maintain high-quality coding standards.
+- Stay updated with new trends in Node.js and related technologies, understanding their application in development projects.
+- Participate actively in team meetings and contribute ideas to enhance project development and team collaboration.
+Heres what we are looking for:
+- 1+ year of experience with Node.js.
+- Good understanding of basic algorithms and data structures.
+- Basic knowledge of version control systems, preferably Git.
+- Ability to solve problems effectively and learn new technologies quickly.
+- Advanced level of English is a plus.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
       <c r="A29" t="str">
-        <v>Work From Home Node.js Junior Developer / Ref. 0111</v>
+        <v>Trabajo Desde Casa Desarrollador Junior Node.js / Ref. 0111</v>
       </c>
       <c r="B29" t="str">
         <v>BairesDev LLC</v>
       </c>
       <c r="C29" t="str">
-        <v xml:space="preserve">2.1 </v>
+        <v>BairesDev LLC - Mulegé, Baja California Sur</v>
       </c>
       <c r="D29" t="str">
-        <v>No disponible</v>
+        <v>Remoto</v>
       </c>
       <c r="E29" t="str">
-        <v>No especificado</v>
+        <v>A convenir</v>
       </c>
       <c r="F29" t="str">
-        <v>Hace 3 días</v>
-      </c>
-      <c r="G29" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G29" t="str" xml:space="preserve">
+        <v xml:space="preserve">En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Desarrollador Junior Node.js en BairesDev
+Como Desarrollador Junior Node.js, aplica tus conocimientos de JavaScript y Node.js para construir aplicaciones eficientes. Este rol involucra el desarrollo de APIs, trabajo con lógica del lado del servidor y la mejora de tus capacidades de desarrollo back-end.
+Lo que harás
+- Desarrollar y mantener aplicaciones Node.js, centrándote en crear funcionalidades eficientes del back-end.
+- Trabajar en la integración de elementos orientados al usuario con la lógica del lado del servidor, colaborando con desarrolladores front-end.
+- Solucionar problemas y depurar aplicaciones, contribuyendo a la mejora del rendimiento de las aplicaciones.
+- Participar en revisiones de código para aprender y mantener estándares de programación de alta calidad.
+- Mantenerte al día con las nuevas tendencias en Node.js y tecnologías relacionadas, entendiendo su aplicación en proyectos de desarrollo.
+- Participar activamente en reuniones de equipo y contribuir con ideas para mejorar el desarrollo del proyecto y la colaboración del equipo.
+¿Qué Buscamos?
+- 1+ año de experiencia con Node.js.
+- Buen entendimiento de algoritmos básicos y estructuras de datos.
+- Conocimiento básico de sistemas de control de versiones, preferiblemente Git.
+- Capacidad para resolver problemas de manera eficaz y aprender nuevas tecnologías rápidamente.
+- Buen nivel de inglés
+Qué ofrecemos para que tu trabajo (y tu vida) sea más fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.
+- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.
+- Hardware y software.
+- Horarios flexibles
+- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.
+- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.
+- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
       <c r="A30" t="str">
         <v>Work From Home Senior Engineering Manager (Node.js) / Ref. 0111</v>
       </c>
@@ -1077,369 +1915,826 @@
         <v>BairesDev LLC</v>
       </c>
       <c r="C30" t="str">
-        <v xml:space="preserve">2.1 </v>
+        <v>BairesDev LLC - Ecatepec de Morelos, Estado de México</v>
       </c>
       <c r="D30" t="str">
-        <v>No disponible</v>
+        <v>Remoto</v>
       </c>
       <c r="E30" t="str">
-        <v>No especificado</v>
+        <v>A convenir</v>
       </c>
       <c r="F30" t="str">
-        <v>Hace 3 días</v>
-      </c>
-      <c r="G30" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G30" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Senior Engineering Manager (Node.js) at BairesDev
+Join as a Senior Engineering Manager (Node.js) to drive our development team with your deep understanding of Node.js. Youll oversee project development, set technical standards, and lead the team in delivering scalable and robust server-side applications, fostering innovation in backend development.
+What you will do:
+- Oversee the technical direction of Node.js projects, aligning technical decisions with business goals.
+- Lead and mentor a development team, promoting effective collaboration, skill development, and project success.
+- Define project requirements, scope, and timelines in collaboration with stakeholders.
+- Ensure the delivery of high-quality, scalable, and efficient Node.js solutions.
+- Stay informed on industry trends and emerging technologies, assessing their application in the teams projects.
+- Facilitate communication and problem-solving within the team, ensuring efficient workflow and addressing technical challenges proactively.
+Heres what we are looking for:
+- 7+ years of experience with Node.js.
+- Proficient in Agile methodologies, ensuring efficient project delivery and team collaboration.
+- In-depth knowledge of Design Patterns.
+- Advanced IT infrastructure knowledge.
+- Strong experience in application security best practices.
+- Proven track record in developing and integrating large-scale applications.
+- Expertise in both back-end and front-end development areas.
+- Skilled in conducting code reviews and managing CI/CD pipelines.
+- Expert understanding of clients requirements, assessing potential benefits and weaknesses.
+- Advanced knowledge of the trade-offs involved in choosing specific technologies or solutions.
+- Strong experience leading client and stakeholder meetings, effectively communicating technical concepts.
+- Demonstrated leadership skills in team management, task allocation, risk identification, decision-making, task estimation, conflict resolution, and project planning.
+- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
       <c r="A31" t="str">
-        <v>Work From Home Junior Backend Developer (Node.js) / Ref. 0111</v>
+        <v>Work From Home Node.js Junior Developer / Ref. 0111</v>
       </c>
       <c r="B31" t="str">
         <v>BairesDev LLC</v>
       </c>
       <c r="C31" t="str">
-        <v xml:space="preserve">2.1 </v>
+        <v>BairesDev LLC - Aguascalientes, Aguascalientes</v>
       </c>
       <c r="D31" t="str">
-        <v>No disponible</v>
+        <v>Remoto</v>
       </c>
       <c r="E31" t="str">
-        <v>No especificado</v>
+        <v>A convenir</v>
       </c>
       <c r="F31" t="str">
-        <v>Hace 4 días</v>
-      </c>
-      <c r="G31" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G31" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Node.js Junior Developer at BairesDev
+As a Node.js Junior Developer, apply your JavaScript and Node.js skills to build efficient server-side applications. This role involves developing APIs, working with server-side logic, and enhancing your backend development capabilities.
+What you will do:
+- Develop and maintain Node.js applications, focusing on creating efficient back-end functionality.
+- Work on integrating user-facing elements with server-side logic, collaborating with front-end developers.
+- Troubleshoot and debug applications, contributing to improving application performance.
+- Participate in code reviews to learn and maintain high-quality coding standards.
+- Stay updated with new trends in Node.js and related technologies, understanding their application in development projects.
+- Participate actively in team meetings and contribute ideas to enhance project development and team collaboration.
+Heres what we are looking for:
+- 1+ year of experience with Node.js.
+- Good understanding of basic algorithms and data structures.
+- Basic knowledge of version control systems, preferably Git.
+- Ability to solve problems effectively and learn new technologies quickly.
+- Advanced level of English is a plus.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
       <c r="A32" t="str">
-        <v>Trabajo Desde Casa Desarrollador Junior Node.js / Ref. 0111</v>
+        <v>Work From Home Junior Backend Developer (Node.js) / Ref. 0111</v>
       </c>
       <c r="B32" t="str">
         <v>BairesDev LLC</v>
       </c>
       <c r="C32" t="str">
-        <v xml:space="preserve">2.1 </v>
+        <v>BairesDev LLC - Culiacán, Sinaloa</v>
       </c>
       <c r="D32" t="str">
-        <v>No disponible</v>
+        <v>Remoto</v>
       </c>
       <c r="E32" t="str">
-        <v>No especificado</v>
+        <v>A convenir</v>
       </c>
       <c r="F32" t="str">
-        <v>Hace 4 días</v>
-      </c>
-      <c r="G32" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G32" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Junior Backend Developer (Node.js) at BairesDev
+As a Junior Backend Developer (Node.js), apply your JavaScript and Node.js skills to build efficient server-side applications. This role involves developing APIs, working with server-side logic, and enhancing your backend development capabilities.
+What you will do:
+- Develop and maintain Node.js applications, focusing on creating efficient back-end functionality.
+- Work on integrating user-facing elements with server-side logic, collaborating with front-end developers.
+- Troubleshoot and debug applications, contributing to improving application performance.
+- Participate in code reviews to learn and maintain high-quality coding standards.
+- Stay updated with new trends in Node.js and related technologies, understanding their application in development projects.
+- Participate actively in team meetings and contribute ideas to enhance project development and team collaboration.
+Heres what we are looking for:
+- 1+ year of experience with Node.js.
+- Good understanding of basic algorithms and data structures.
+- Basic knowledge of version control systems, preferably Git.
+- Ability to solve problems effectively and learn new technologies quickly.
+- Advanced level of English is a plus.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
       <c r="A33" t="str">
-        <v>Work From Home Technical Writer / Ref. 0623</v>
+        <v>Trabajo Desde Casa Desarrollador Junior Node.js / Ref. 0111</v>
       </c>
       <c r="B33" t="str">
         <v>BairesDev LLC</v>
       </c>
       <c r="C33" t="str">
-        <v xml:space="preserve">2.1 </v>
+        <v>BairesDev LLC - Chihuahua, Chihuahua</v>
       </c>
       <c r="D33" t="str">
-        <v>No disponible</v>
+        <v>Remoto</v>
       </c>
       <c r="E33" t="str">
-        <v>No especificado</v>
+        <v>A convenir</v>
       </c>
       <c r="F33" t="str">
-        <v>Hace 4 días</v>
-      </c>
-      <c r="G33" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G33" t="str" xml:space="preserve">
+        <v xml:space="preserve">En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Desarrollador Junior Node.js en BairesDev
+Como Desarrollador Junior Node.js, aplica tus conocimientos de JavaScript y Node.js para construir aplicaciones eficientes. Este rol involucra el desarrollo de APIs, trabajo con lógica del lado del servidor y la mejora de tus capacidades de desarrollo back-end.
+Lo que harás
+- Desarrollar y mantener aplicaciones Node.js, centrándote en crear funcionalidades eficientes del back-end.
+- Trabajar en la integración de elementos orientados al usuario con la lógica del lado del servidor, colaborando con desarrolladores front-end.
+- Solucionar problemas y depurar aplicaciones, contribuyendo a la mejora del rendimiento de las aplicaciones.
+- Participar en revisiones de código para aprender y mantener estándares de programación de alta calidad.
+- Mantenerte al día con las nuevas tendencias en Node.js y tecnologías relacionadas, entendiendo su aplicación en proyectos de desarrollo.
+- Participar activamente en reuniones de equipo y contribuir con ideas para mejorar el desarrollo del proyecto y la colaboración del equipo.
+¿Qué Buscamos?
+- 1+ año de experiencia con Node.js.
+- Buen entendimiento de algoritmos básicos y estructuras de datos.
+- Conocimiento básico de sistemas de control de versiones, preferiblemente Git.
+- Capacidad para resolver problemas de manera eficaz y aprender nuevas tecnologías rápidamente.
+- Buen nivel de inglés
+Qué ofrecemos para que tu trabajo (y tu vida) sea más fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.
+- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.
+- Hardware y software.
+- Horarios flexibles
+- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.
+- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.
+- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
       <c r="A34" t="str">
-        <v>Fullstack Developer JavaScript Python</v>
+        <v>Work From Home Technical Writer / Ref. 0623</v>
       </c>
       <c r="B34" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C34" t="str">
+        <v>BairesDev LLC - Tuxtla Gutiérrez, Chiapas</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E34" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G34" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Technical Writer at BairesDev
+As a Technical Writer, you are an integral part of an agile team that works to enhance, build, and deliver trusted market-leading technology products in a secure, stable, and scalable way. As a core technical contributor, you are responsible for conducting critical technology solutions across multiple technical areas within various business functions in support of the firms business objectives.
+What You Will Do:
+- Develop comprehensive documentation that meets organizational standards.
+- Obtain a deep understanding of products and services to translate complex product information into simple, polished, and engaging content.
+- Understand Current Architecture based on Microservices, and Chrome Browser extension.
+Heres what we are looking for:
+- Bachelors degree in a relevant technical field.
+- 4+ years of industry experience as an effective technical writer.
+- Good knowledge of Current Tech Stack: NodeJS, Chrome Browser Extension, Microservices, Datadog, AWS services (RDS, etc).
+- Proven ability to quickly learn and understand complex topics.
+- Previous experience writing documentation and procedural materials for multiple audiences.
+- Superior written and verbal communication skills, with a keen eye for detail.
+- Proven working experience in technical writing of software documentation.
+- Ability to quickly grasp complex technical concepts and make them easily understandable in text and pictures.
+- Strong working knowledge of Microsoft Office.
+- Basic familiarity with SDLC and software development.
+- Excellent / Above average written skills in English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str">
+        <v>Fullstack Developer JavaScript Python - Hibrido CDMX</v>
+      </c>
+      <c r="B35" t="str">
         <v>CORUS</v>
       </c>
-      <c r="C34" t="str">
-        <v>Benito Juárez, Ciudad de México DF</v>
-      </c>
-      <c r="D34" t="str">
+      <c r="C35" t="str">
+        <v>CORUS - Benito Juárez, Ciudad de México DF</v>
+      </c>
+      <c r="D35" t="str">
         <v>Presencial y remoto</v>
       </c>
-      <c r="E34" t="str">
+      <c r="E35" t="str">
         <v>$ 31,500.00 (Mensual)</v>
       </c>
-      <c r="F34" t="str">
-        <v>Hace 5 días</v>
-      </c>
-      <c r="G34" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>Work From Home Senior Engineering Manager (Node.js) / Ref. 0111</v>
-      </c>
-      <c r="B35" t="str">
-        <v>BairesDev LLC</v>
-      </c>
-      <c r="C35" t="str">
-        <v xml:space="preserve">2.1 </v>
-      </c>
-      <c r="D35" t="str">
-        <v>No disponible</v>
-      </c>
-      <c r="E35" t="str">
-        <v>No especificado</v>
-      </c>
       <c r="F35" t="str">
-        <v>Hace 4 días</v>
-      </c>
-      <c r="G35" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>Hace 5 días (actualizada)</v>
+      </c>
+      <c r="G35" t="str" xml:space="preserve">
+        <v xml:space="preserve">Corus Systems &amp; Consulting Inc es una empresa líder en el sector de tecnologías de la información, especializada en sistemas y desarrollo de software. Nos enorgullecemos de ofrecer un ambiente de trabajo dinámico y colaborativo, donde la innovación y el crecimiento profesional son fundamentales. Ubicación: La vacante es en Ciudad de México.
+Requisitos del puesto
+Estudios mínimos de Universitario de Ingeniería
+Programación orientada a objetos
+Angular
+Integración de servicios
+Microservicios
+Alto conocimiento en javascript y typescript
+Kubernetes
+Bases de datos
+APIS
+NodeJS
+Decorators
+Components
+Directives
+Inyección de dependencias
+Services
+Pipes
+Interceptors
+Guards
+Routing
+Template forms and reactive forms
+http client, HTML5, CSS3, Angular material
+Google Cloud Platform, Devops, python
+Responsabilidades del puesto
+Recibir y entender los requerimientos de negocio para poder desarrollarlos con tecnología Angular
+Desarrollar nuevos módulos principalmente, así como realizar el consumo de servicios de un backend en Python.
+Entendimiento de microservicios rest
+Manejo de bases de datos.
+Prestaciones y beneficios adicionales
+Salario mensual de 28,000 a 32,000 pesos.
+Contratación temporal a tiempo completo.
+Modalidad de trabajo híbrido, combinando trabajo remoto y presencial.
+Oportunidades de capacitación y desarrollo profesional.
+Ambiente de trabajo colaborativo y dinámico.</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
       <c r="A36" t="str">
-        <v>Desarrollador/a</v>
+        <v>Desarrollador/a - Node.js y react</v>
       </c>
       <c r="B36" t="str">
         <v>Blackcore ®</v>
       </c>
       <c r="C36" t="str">
-        <v xml:space="preserve">4.2 </v>
+        <v>Blackcore ® - León, Guanajuato</v>
       </c>
       <c r="D36" t="str">
-        <v>No disponible</v>
+        <v>Tiempo Completo</v>
       </c>
       <c r="E36" t="str">
         <v>$ 20,000.00 (Mensual)</v>
       </c>
       <c r="F36" t="str">
-        <v>Hace 6 días</v>
-      </c>
-      <c r="G36" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>Hace 6 días (actualizada)</v>
+      </c>
+      <c r="G36" t="str" xml:space="preserve">
+        <v xml:space="preserve">Sobre la empresa:
+Blackcore es una compañía líder en tecnología para el sector inmobiliario, ofreciendo soluciones SaaS innovadoras para la gestión del proceso de crédito inmobiliario. Contamos con presencia en México y LATAM, ayudando al sector bancario, unidades de valuación, despachos y agentes a optimizar sus procesos. Buscamos un perfil apasionado por desarrollar nuevas herramientas y aplicaciones para mejorar la vida del usuario.
+HABILIDADES Y ACTITUDES:
+- Gusto por el trabajo en equipo.
+- Trabajo bajo presión.
+- Proactivo.
+- Autodidacta.
+- Actitud de servicio.
+- Orientado a resultados.
+EXPERIENCIA LABORAL
+-Experiencia comprobable desarrollando las actividades y habilidades del puesto y/o similares.
+- Diseño responsivo y desarrollo.
+- Consumo de Web Services y API’s.
+FORMACIÓN ACADÉMICA:
+- Licenciatura, especialidad o superior. Matemáticas aplicadas y computación, Matemáticas, Actuaría, sistemas o afín.
+RESPONSABILIDADES DEL PUESTO:
+- Analizar y desarrollar nuevas funciones/aplicaciones para el usuario y negocio.
+- Optimización constante de código y consultas.
+- Proponer, innovar y actualizarse en nuevas tecnologías de desarrollo.
+- Documentar todo lo relacionado a los proyectos y API's.
+- Definir nuevas funcionalidades para el usuario y negocio.
+- Aterrizar peticiones y dar seguimiento a incidencias y entregas.
+- Dar seguimiento a resolución de errores y funcionalidades.
+- Mejorar la calidad y la satisfacción de los clientes.
+- Definir y aplicar las mejores prácticas en la calidad del software.
+CONOCIMIENTOS:
+- NODE. JS
+- REACT
+- MongoDB y MySQL
+- RESTful API usando Postman
+- Diseño responsivo: Móvil, Escritorio, Tableta
+- HTML5
+- CSS
+- Javascript
+- Control de versionamiento (Git)
+-React Native
+-PostgreSQL
+-Diseño responsivo
+- JS
+OTROS REQUISITOS:
+- Inglés básico.
+- PHP Deseable.
+- VUEJS Deseable.
+- Frameworks (Codeigniter, Laravel o similares) Deseable.
+OFRECEMOS:
+- $20,000 mensuales bruto (A convenir según experiencia y competencias)
+- Prestaciones de Ley
+- Vales de Despensa
+- Excelente ambiente laboral
+-Oportunidad de aprendizaje y crecimiento en una empresa en plena expansión en LATAM.
+-Acceso a capacitaciones y certificaciones especializadas (AWS).
+-Cultura de innovación y tecnología en el sector inmobiliario y bancario.
+-Estabilidad laboral y ambiente profesional.
+-Capacitación y desarrollo constante.
+La vacante es 100% Presencial ¡Postúlate y únete al equipo de Blackcore!</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
       <c r="A37" t="str">
-        <v>Programador de Software Senior</v>
+        <v>Work From Home Senior Engineering Manager (Node.js) / Ref. 0111</v>
       </c>
       <c r="B37" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C37" t="str">
+        <v>BairesDev LLC - Ensenada, Baja California</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E37" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G37" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Senior Engineering Manager (Node.js) at BairesDev
+Join as a Senior Engineering Manager (Node.js) to drive our development team with your deep understanding of Node.js. Youll oversee project development, set technical standards, and lead the team in delivering scalable and robust server-side applications, fostering innovation in backend development.
+What you will do:
+- Oversee the technical direction of Node.js projects, aligning technical decisions with business goals.
+- Lead and mentor a development team, promoting effective collaboration, skill development, and project success.
+- Define project requirements, scope, and timelines in collaboration with stakeholders.
+- Ensure the delivery of high-quality, scalable, and efficient Node.js solutions.
+- Stay informed on industry trends and emerging technologies, assessing their application in the teams projects.
+- Facilitate communication and problem-solving within the team, ensuring efficient workflow and addressing technical challenges proactively.
+Heres what we are looking for:
+- 7+ years of experience with Node.js.
+- Proficient in Agile methodologies, ensuring efficient project delivery and team collaboration.
+- In-depth knowledge of Design Patterns.
+- Advanced IT infrastructure knowledge.
+- Strong experience in application security best practices.
+- Proven track record in developing and integrating large-scale applications.
+- Expertise in both back-end and front-end development areas.
+- Skilled in conducting code reviews and managing CI/CD pipelines.
+- Expert understanding of clients requirements, assessing potential benefits and weaknesses.
+- Advanced knowledge of the trade-offs involved in choosing specific technologies or solutions.
+- Strong experience leading client and stakeholder meetings, effectively communicating technical concepts.
+- Demonstrated leadership skills in team management, task allocation, risk identification, decision-making, task estimation, conflict resolution, and project planning.
+- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>Programador de Software Senior - Con Experiencia</v>
+      </c>
+      <c r="B38" t="str">
         <v>DUEÑO DEL MAR WOODWARD GROUP INTERNATIONAL LOGISTIC SERVICES THINK GLOBAL SA DE CV</v>
       </c>
-      <c r="C37" t="str">
-        <v>Manzanillo, Colima</v>
-      </c>
-      <c r="D37" t="str">
-        <v>No disponible</v>
-      </c>
-      <c r="E37" t="str">
-        <v>No especificado</v>
-      </c>
-      <c r="F37" t="str">
-        <v>Hace 6 días</v>
-      </c>
-      <c r="G37" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
+      <c r="C38" t="str">
+        <v>DUEÑO DEL MAR WOODWARD GROUP INTERNATIONAL LOGISTIC SERVICES THINK GLOBAL SA DE CV - Manzanillo, Colima</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E38" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Hace 7 días (actualizada)</v>
+      </c>
+      <c r="G38" t="str" xml:space="preserve">
+        <v xml:space="preserve">En Manzanillo, Colima.
+Escolaridad: Ingeniería en Desarrollo de Software o afín.
+Experiencia mínima: 5 años como programador de aplicaciones web.
+Actividades: Mantener la plataforma actual, desarrollar nuevas funcionalidades e innovar.
+Objetivo del Puesto: Es el responsable por el desarrollo de las piezas de software. Deberá programar, adaptar e integrar funcionalidades (módulos, pantallas, programas en general) conforme especificaciones (funcionales y técnicas) y ajustándose a tiempos y estándares de calidad y trabajo de la organización y del proyecto.
+Requisitos Técnicos (Indispensables):
+° Dominio en PHP (mínimo 5 años de experiencia)
+° Experiencia con bases de datos MSSQL (consultas avanzadas, procedimientos almacenados, optimización)
+° Dominio de JavaScript
+° Uso de herramientas de control de versiones (Git)
+Conocimientos Deseables:
+° Experiencia con tecnologías Microsoft como .NET / .NET Core
+° Familiaridad con frameworks como React
+° Conocimientos en desarrollo backend con NodeJS
+° Experiencia en integración de APIs REST y SOAP
+Idiomas:
+Español: Nativo o fluido
+Inglés: Intermedio-avanzado (capacidad para leer documentación técnica y participar en reuniones)
+Habilidades Blandas:
+° Pensamiento analítico y orientación a la resolución de problemas
+° Autonomía y responsabilidad en el cumplimiento de objetivos
+° Capacidad para trabajar en equipo
+° Buena comunicación y organización
+Experiencia trabajando en equipos con Scrum, Kanban o enfoques híbridos.
+Participación activa en: daily stand-up, planning, retros.
+Habilidad para escribir documentación clara de código, APIs y procesos técnicos.
+Capacidad para liderar técnicamente módulos o proyectos completos.
+Conocimiento sólido de principios SOLID, patrones de diseño, y arquitectura limpia.
+Ofrecemos: Nómina catorcenal, prestaciones superiores a las de ley, vales de despensa, oportunidad de crecimiento, buen ambiente laboral.</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
         <v>Desarrollador FrontEnd (Híbrido, CDMX)</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B39" t="str">
         <v>IDS Comercial, S.A. de C.V.</v>
       </c>
-      <c r="C38" t="str">
-        <v xml:space="preserve">4.3 </v>
-      </c>
-      <c r="D38" t="str">
-        <v>Presencial y remoto</v>
-      </c>
-      <c r="E38" t="str">
-        <v>No especificado</v>
-      </c>
-      <c r="F38" t="str">
-        <v>Hace 7 días</v>
-      </c>
-      <c r="G38" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>Desarrollador Fullstack Angular</v>
-      </c>
-      <c r="B39" t="str">
-        <v>CORUS</v>
-      </c>
       <c r="C39" t="str">
-        <v>Benito Juárez, Ciudad de México DF</v>
+        <v>IDS Comercial, S.A. de C.V. - Benito Juárez, Ciudad de México DF</v>
       </c>
       <c r="D39" t="str">
         <v>Presencial y remoto</v>
       </c>
       <c r="E39" t="str">
-        <v>$ 28,000.00 (Mensual)</v>
+        <v>A convenir</v>
       </c>
       <c r="F39" t="str">
-        <v>Hace 7 días</v>
-      </c>
-      <c r="G39" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>Hace 7 días (actualizada)</v>
+      </c>
+      <c r="G39" t="str" xml:space="preserve">
+        <v xml:space="preserve">ids Comercial es una empresa 100% mexicana dedicada a TI con más de 40 años de experiencia y presencia en México, Latinoamérica y EEUU. Más de 1500 consultores trabajan con un gran número de proyectos dentro de los sectores financiero, comercial, manufacturero, telecomunicaciones, servicios, gobierno, entre otros.
+Estamos acreditados en el Nivel 5 de CMMI (Capability Maturity Model Integration), modelo de calidad establecido por el Software Engineering Institute (SEI). Certificados por parte de ISO en la norma ISO/IEC 27001:2013.
+Contamos con distintivo de Empresa Socialmente Responsable (ESR).
+¡Únete a nuestro equipo de trabajo! En ids contamos con la siguiente vacante:
+Desarrollador FrontEnd
+Experiencia de al menos 2 años en:
+JavaScript
+TypeScript
+Angular (conocimientos básicos)
+NodeJS (conocimientos básicos)
+Deseable:
+SASS
+Karma
+Jasmine
+NodeJS
+Modalidad de trabajo: Híbrida
+Zona de trabajo: Benito Juárez, C.P. 03930, CDMX.
+¿Qué te ofrecemos al colaborar con nosotros?
+Prestaciones de ley y superiores
+Caja de Ahorro
+Meetups y webinars
+Capacitaciones
+Apoyo psicológico gratuito
+Convenios Comerciales
+Convenios Educativos
+Entre otros
+Somos una empresa incluyente y libre de cualquier tipo de discriminación, donde las oportunidades son para quien muestra actitud y talento. No solicitamos certificados médicos de no embarazo y Virus de Inmunodeficiencia Humana (VIH) como requisitos para que formes parte de nuestra gran familia de trabajo y puedas acceder a las mismas oportunidades de crecimiento.</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
       <c r="A40" t="str">
-        <v>Líder técnico arquitecto Net y Java</v>
+        <v>Desarrollador Fullstack Angular - Hibrido</v>
       </c>
       <c r="B40" t="str">
-        <v>BRENDCAR Soluciones en Informática, S.A. de C.V.</v>
+        <v>CORUS</v>
       </c>
       <c r="C40" t="str">
-        <v xml:space="preserve">4.7 </v>
+        <v>CORUS - Benito Juárez, Ciudad de México DF</v>
       </c>
       <c r="D40" t="str">
         <v>Presencial y remoto</v>
       </c>
       <c r="E40" t="str">
-        <v>No especificado</v>
+        <v>$ 28,000.00 (Mensual)</v>
       </c>
       <c r="F40" t="str">
-        <v>Hace 7 días</v>
-      </c>
-      <c r="G40" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>Hace 7 días (actualizada)</v>
+      </c>
+      <c r="G40" t="str" xml:space="preserve">
+        <v xml:space="preserve">Corus Consulting somos una consultora con más de 15 años de experiencia con diferentes clientes a nivel mundial; tenemos presencia en Europa, Estados Unidos, Asia y México.
+Nos encontramos en búsqueda de tu talento para laborar como:
+Desarrollador Fullstack
+Experiencia:
+• Experiencia como desarrollador Fullstack de 4 años o más
+• Experiencia con herramientas de programación: Orientada a objetos, Angular, integración de servicios, microservicios.
+• Conocimientos en: Javascript, Typescript, Kubernetes, bases de datos, APIS, NodeJS, Inyección de dependencias, HTML5, CSS3,
+• Conocimientos deseables: Google Cloud Platform, Devops y Python
+Actividades a realizar:
+• Recibir y entender los requerimientos de negocio para poder desarrollarlos con tecnología Angular
+• Desarrollar nuevos módulos principalmente el consumo de servicios de un backend en Python.
+• Entendimiento de microservicios rest
+• Manejo de bases de datos
+Modalidad de trabajo:
+• Hibrido (2 a 3 días por semana de asistencia a oficinas)
+• Zona: México
+• Horario: lunes a viernes
+Ofrecemos:
+• Esquema 100% nomina
+• Sueldo $28,000 netos según experiencia
+• Prestaciones de ley: (12 días de vacaciones en el 1er año, 15 días de aguinaldo, 25% prima vacacional, Seguro social)
+• Prestaciones superiores a las de la ley
+• Cursos y/o certificaciones
+• Pago de PTU
+• Plan de carrera.</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
       <c r="A41" t="str">
-        <v>Desarrollador/a o Técnico en Sistemas</v>
+        <v>Líder técnico arquitecto Net y Java</v>
       </c>
       <c r="B41" t="str">
-        <v>ACPOS</v>
+        <v>BRENDCAR Soluciones en Informática, S.A. de C.V.</v>
       </c>
       <c r="C41" t="str">
-        <v>Mérida, Yucatán</v>
+        <v>BRENDCAR Soluciones en Informática, S.A. de C.V. - Benito Juárez, Ciudad de México DF</v>
       </c>
       <c r="D41" t="str">
         <v>Presencial y remoto</v>
       </c>
       <c r="E41" t="str">
-        <v>No especificado</v>
+        <v>A convenir</v>
       </c>
       <c r="F41" t="str">
-        <v>13 de junio</v>
-      </c>
-      <c r="G41" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>Hace 7 días (actualizada)</v>
+      </c>
+      <c r="G41" t="str" xml:space="preserve">
+        <v xml:space="preserve">Licenciado en Informática, Sistemas o carrera a Fin
+- Conocimiento en implementación de integraciones entre sistemas legacy y SaaS
+- Conocimiento en preparación de diagramas de arquitectura, componentes y documentación necesaria para representar las integraciones
+- Conocimiento en desarrollo de aplicaciones Web, APIs, Servicios Web, implementación de Middlewares
+- Conocimiento en implementación de SSOs entrantes y salientes
+- Conocimiento de especificación técnica y documentación del requerimiento de desarrollo para la fábrica de software
+- Conocimiento de documentación y despliegue a servidores QA y Producción
+- Conocimiento de integraciones de código en controlador de versiones
+- Conocimiento en mejores prácticas de desarrollo de software y seguridad de aplicaciones
+- Seguimiento a fábrica de software, acompañamiento en pruebas y revisión de entregables
+- Conocimiento de:
+-- Java y NodeJS
+-- .Net, .Net Core, C#
+-- API REST, Web Services, Windows Comunication Foundation
+-- Angular, HTML, CSS, Javascript, jQuery
+-- SQL Server 2016
+-- Microsoft Azure, AWS
+-- GitHub, Azure DevOps
+-- Windows
+-- Software de ofimática, Visio, Project</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
       <c r="A42" t="str">
+        <v>Desarrollador/a o Técnico en Sistemas - Proyectos Freelance por Horas</v>
+      </c>
+      <c r="B42" t="str">
+        <v>ACPOS</v>
+      </c>
+      <c r="C42" t="str">
+        <v>ACPOS - Mérida, Yucatán</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Presencial y remoto</v>
+      </c>
+      <c r="E42" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F42" t="str">
+        <v>13 de junio (actualizada)</v>
+      </c>
+      <c r="G42" t="str" xml:space="preserve">
+        <v xml:space="preserve">En ACPOS Ingeniería y Desarrollo estamos buscando talento freelance para sumarse a nuestra bolsa de trabajo por proyectos por horas. Participa en soluciones tecnológicas que impactan directamente en empresas reales del sector restaurantero, hotelero y retail.
+Buscamos perfiles con experiencia en una o más de las siguientes tecnologías:
+Frontend y Backend: HTML, CSS, JavaScript, React, Angular, Vue, NodeJS, C#, Java, PHP
+Bases de Datos: MySQL, SQL Server, PostgreSQL
+Frameworks y APIs: Django, .NET, Slim3, API REST
+Herramientas y DevOps: Git, GitHub, Postman, AWS
+Mobile &amp; UI: Android, Swift, WPF, Electron, Figma
+Integraciones: Aloha Connect</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str">
         <v>Programador php</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B43" t="str">
         <v>Versatilidad Internacional de Cooperación Oportuna</v>
       </c>
-      <c r="C42" t="str">
-        <v>Benito Juárez, Ciudad de México DF</v>
-      </c>
-      <c r="D42" t="str">
-        <v>No disponible</v>
-      </c>
-      <c r="E42" t="str">
+      <c r="C43" t="str">
+        <v>Versatilidad Internacional de Cooperación Oportuna - Benito Juárez, Ciudad de México DF</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E43" t="str">
         <v>$ 18,000.00 (Mensual)</v>
       </c>
-      <c r="F42" t="str">
-        <v>12 de junio</v>
-      </c>
-      <c r="G42" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>Desarrollador php</v>
-      </c>
-      <c r="B43" t="str">
+      <c r="F43" t="str">
+        <v>12 de junio (actualizada)</v>
+      </c>
+      <c r="G43" t="str" xml:space="preserve">
+        <v xml:space="preserve">Importante grupo, líder en América Latina, solicita "Programador (a)"
+Perfil profesional:
+Licenciatura o ingeniería concluida en ciencias de la computación, informática o a fin.
+Experiencia mínima de 3 años en desarrollo e integraciones
+La principal función el desarrollo FullStack en diferentes lenguajes de programación
+Conocimientos:
+Dominio de lenguajes de programación PHP, JAVA, NodeJS,Android Studio, Python, CSS, , Javascript, canvas html5,Bootstrap, JSON, XM, Entre otros, Base de datos MariaDB, MySQL, Postgrest, SQL, DJango, entre otros. FTP, SSH, Navicat, PGAdmin, Moodle, desarollo de plugin para Moodle y , Wordpress y Woocomerce. Wordpress, integración entre aplicaciones por Api, o Webhons, ChatGPT, ChatBots. entre otros LLM de AI, Desarrollo y consumo de API y Web service.
+Ofrecemos
+Salario base de $18,000 neto
+Prestaciones de Ley
+Horario: lunes a viernes 9:00 - 18:00 horas</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str">
+        <v>Desarrollador php - Con experiencia Laravel 2 años</v>
+      </c>
+      <c r="B44" t="str">
         <v>TOOSOLUTION</v>
       </c>
-      <c r="C43" t="str">
-        <v>Aguascalientes, Aguascalientes</v>
-      </c>
-      <c r="D43" t="str">
-        <v>No disponible</v>
-      </c>
-      <c r="E43" t="str">
+      <c r="C44" t="str">
+        <v>TOOSOLUTION - Aguascalientes, Aguascalientes</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E44" t="str">
         <v>$ 12,000.00 (Mensual)</v>
       </c>
-      <c r="F43" t="str">
-        <v>10 de junio</v>
-      </c>
-      <c r="G43" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>Desarrollador/a de software</v>
-      </c>
-      <c r="B44" t="str">
+      <c r="F44" t="str">
+        <v>10 de junio (actualizada)</v>
+      </c>
+      <c r="G44" t="str" xml:space="preserve">
+        <v xml:space="preserve">TOOSOLUTION DE MEXICO somos una empresa 100% mexicana comprometida hacia sus clientes, con una excelente atención personal. Brindamos a las micro y medianas empresas la competitividad y productividad necesarias brindándoles las herramientas tecnológicas que necesitan.
+Cualidades de la persona: • Responsable • Trabajo en Equipo • Proactivo • Facilidad de aprendizaje • Autodidacta • Liderazgo • Trabajo bajo presión • Disponibilidad de viajar • Disponibilidad de cambio de residencia
+Un año mínimo de experiencia con las siguientes Skills puede ser experiencia como freelance pero que sea comprobable.
+Idioma: • Español nativo • Ingles básico
+BackEnd: • PHP • NodeJS • Laravel
+FrontEnd: • JavaScript • Tailwind • Bootstrap • CSS • HTML
+Bases de Datos: • MySql • PostgreSql
+Software: • VS Code • HeidiSql • Git • Laragon • Note++
+Ofrecemos:
+Salario de acorde a Conocimiento a partir de $12,000.00
+Prestaciones de Ley.
+Oportunidad de crecimiento.
+Aprendizaje y crecimiento profesional.</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str">
+        <v>Desarrollador/a de software - con experiencia</v>
+      </c>
+      <c r="B45" t="str">
         <v>ADH GUARDIAN MEXICO</v>
       </c>
-      <c r="C44" t="str">
-        <v>Hermosillo, Sonora</v>
-      </c>
-      <c r="D44" t="str">
-        <v>No disponible</v>
-      </c>
-      <c r="E44" t="str">
-        <v>No especificado</v>
-      </c>
-      <c r="F44" t="str">
-        <v>Más de 30 días</v>
-      </c>
-      <c r="G44" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>Desarrollador Front End</v>
-      </c>
-      <c r="B45" t="str">
+      <c r="C45" t="str">
+        <v>ADH GUARDIAN MEXICO - Hermosillo, Sonora</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E45" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Hace más de 30 días</v>
+      </c>
+      <c r="G45" t="str" xml:space="preserve">
+        <v xml:space="preserve">Programador FullStack:
+o Conocimientos solidos en cualquiera de
+las siguientes áreas:
+§ Programador móvil:Android en Java, iOS en Swift y StoryBoard
+§ Programación Backend:PHP, JavaScript con NodeJs, Base de datos relacionales
+§ DevOps (No indispensable):AWS, Servidores Apache, Linux
+§ Con preferencias de dominio de Inglés</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str">
+        <v>Desarrollador Front End - Desarrollar y optimizar interfaces web y móviles</v>
+      </c>
+      <c r="B46" t="str">
         <v>SB Soluciones</v>
       </c>
-      <c r="C45" t="str">
-        <v>Mérida, Yucatán</v>
-      </c>
-      <c r="D45" t="str">
-        <v>No disponible</v>
-      </c>
-      <c r="E45" t="str">
+      <c r="C46" t="str">
+        <v>SB Soluciones - Mérida, Yucatán</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E46" t="str">
         <v>$ 28,000.00 (Mensual)</v>
       </c>
-      <c r="F45" t="str">
-        <v>Más de 30 días</v>
-      </c>
-      <c r="G45" t="str">
-        <v>No disponible</v>
+      <c r="F46" t="str">
+        <v>Hace más de 30 días</v>
+      </c>
+      <c r="G46" t="str" xml:space="preserve">
+        <v xml:space="preserve">Desarrollador Front End
+Desarrollar y optimizar interfaces web y móviles
+Experiencia en desarrollo de aplicaciones web
+Desarrollar interfaces de usuario intuitivas, responsivas y eficientes para aplicaciones web y móviles.
+Crear y mantener componentes reutilizables que aseguren escalabilidad y consistencia en los proyectos.
+Integrar el frontend con servicios y APIs para garantizar una comunicación fluida entre cliente y servidor.
+Garantizar la calidad del código mediante pruebas, buenas prácticas y optimización del rendimiento.
+Colaborar con el equipo de diseño y producto para transformar requerimientos en experiencias de usuario efectivas.
+Seguir metodologías ágiles de desarrollo y participar en la mejora continua de procesos.
+Mantener y actualizar aplicaciones existentes, asegurando su estabilidad y evolución.
+Investigar y proponer nuevas herramientas y tecnologías para mejorar el desarrollo y la experiencia de usuario.
+Documentar código, decisiones técnicas y procesos de desarrollo, facilitando la comprensión y mantenimiento de las soluciones.
+Participar en revisiones de código y compartir conocimientos con el equipo para fomentar el aprendizaje continuo.
+Participar en reuniones diarias y planificación de sprints en metodologías ágiles (Scrum/Kanban).
+Estimar tiempos de desarrollo y dar seguimiento a tareas asignadas en Jira u otras herramientas de gestión.
+Colaborar en retrospectivas para mejorar procesos de desarrollo dentro del equipo.
+Competencias Técnicas
+Jira
+Git/GitHub/GitLab
+Figma (Deseable)
+Slack (o herramienta de comunicación similar)
+Confluence (o herramienta de documentación interna)
+Cypress o Jasmine (para pruebas)
+Docker (Deseable) A P T I T U D E S T É C N I C A S T A C T I C A S
+Visual Studio Code (o editor de código similar)
+Postman (para pruebas de API) (no necesario)
+Desarrollo de frontend basado en NodeJS. x X
+Experiencia en Angular v17+ para desarrollo de aplicaciones web.
+Manejo de aplicaciones Cliente-Servidor.
+Uso de TypeScript para desarrollo seguro y tipado fuerte.
+CSS/SCSS para estilización avanzada y diseño responsivo.
+Consumo de APIs REST y GraphQL. � � Manejo de frameworks como React.
+Conocimientos básicos en bases de datos relacionales y no relacionales.
+Experiencia en desarrollo de aplicaciones móviles (Ionic, React Native).
+Familiaridad con herramientas de diseño como Figma
+Nuestra oferta
+Sueldo competitivo
+Capacitación constante
+Prestaciones de Ley
+Desarrollo personal
+Disponibilidad de horario</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G46"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output/resultadosCompuTrabajo.xlsx
+++ b/output/resultadosCompuTrabajo.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,45 +427,48 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>Barrendero - Central de abastos cdmx (iztapalapa)</v>
+        <v>Desarrollador NodeJS - 6 meses</v>
       </c>
       <c r="B2" t="str">
-        <v>Idea Market Solutions</v>
+        <v>Grupo TI de Mexico y Comercio Electronico SA de CV</v>
       </c>
       <c r="C2" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>Grupo TI de Mexico y Comercio Electronico SA de CV - Apodaca, Nuevo León</v>
       </c>
       <c r="D2" t="str">
-        <v>Tiempo Completo</v>
+        <v>Presencial y remoto</v>
       </c>
       <c r="E2" t="str">
-        <v>A convenir</v>
+        <v>$ 23,000.00 (Mensual)</v>
       </c>
       <c r="F2" t="str">
-        <v>Hace 15 minutos (actualizada)</v>
+        <v>Hace 15 horas (actualizada)</v>
       </c>
       <c r="G2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Se solicita para Central de Abastos:
-Contratación inmediata
-- Barrendero Nocturno
-Horario 5 pm a 5 am
-Sueldo: 10 mil pesos mensuales
-- Barrenderos Vespertino
-Horario de 10 am a 7:00 pm
-Sueldo: 8000 pesos mensuales
-Barrido de patios de la central
-Documentos: Acta, INE, CURP, NSS, Constancia SAT, comprobante domicilio, estado de cuenta bancario</v>
+        <v xml:space="preserve">Estamos en búsqueda de un Desarrollador de Software de TI
+Requerimientos Mínimos de Operación
+Operación en organizaciones de Sistemas de Información
+Desarrollo Node JS
+Desarrollo de API con NodeJs
+Integración con diferentes patrones (WSDL, API)
+Conexión con REST y con la infraestructura de AWS
+Operación de seguridad de datos
+Postman
+Laravel Framework
+Patrones de arquitectura
+DevOps
+Asignación durante 6 meses</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>Barrendero con o sin experiencia / Nocturno y Vespertino - Zona Central de abastos Iztapalapa</v>
+        <v>Desarrollador Full Stack - React y React Native</v>
       </c>
       <c r="B3" t="str">
-        <v>No disponible</v>
+        <v>GRUPO TRUPER</v>
       </c>
       <c r="C3" t="str">
-        <v>Importante empresa del sector - Iztapalapa, Ciudad de México DF</v>
+        <v>GRUPO TRUPER - Miguel Hidalgo, Ciudad de México DF</v>
       </c>
       <c r="D3" t="str">
         <v>Tiempo Completo</v>
@@ -474,96 +477,136 @@
         <v>A convenir</v>
       </c>
       <c r="F3" t="str">
-        <v>Hace 41 minutos (actualizada)</v>
+        <v>Ayer (actualizada)</v>
       </c>
       <c r="G3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Se busca barrendero para turnos nocturnos y vespertinos.
-Buscamos a una persona responsable, con experiencia en limpieza y mantenimiento de espacios comunes.
-El trabajo requiere desplazamientos cortos y uso de herramientas básicas de limpieza.
-Se valorará experiencia previa en limpieza, aunque no es imprescindible.
-Se ofrece contrato temporal con posibilidad de renovación.
-Se requiere disponibilidad para trabajar en horarios nocturnos y vespertinos.
-Se busca un perfil con actitud positiva y compromiso con el trabajo bien hecho.
-Se requiere puntualidad y capacidad para trabajar en equipo.
-Se ofrece ambiente de trabajo agradable y posibilidad de formación continua.
-Si tienes interés en mantener espacios limpios y cuidando los detalles, esta oportunidad puede ser para ti.
-Envía tu currículum con tus datos y experiencia previa en limpieza.
-Buscas un trabajo estable y con oportunidades de crecimiento profesional.
-Únete a nuestro equipo y contribuye a mantener nuestros entornos limpios y ordenados.</v>
+        <v xml:space="preserve">En GRUPO TRUPER estamos en búsqueda de un Desarrollador Full Stack con experiencia sólida en React, Vuejs, React Native y Nodejs, para integrarse a nuestro equipo de tecnología. Si te apasiona el desarrollo web y móvil, y estás buscando nuevos retos en una empresa innovadora y en constante crecimiento, ¡esta oportunidad es para ti!
+Requisitos del puesto
+Al menos 4 años de experiencia como desarrollador full stack.
+Licenciatura concluida en Ingeniería en Sistemas, Informática, Computación o afín (mínimo 100% de créditos comprobables).
+Dominio de Reactjs y Vuejs para desarrollo frontend.
+Experiencia en React Native para desarrollo móvil.
+Conocimiento sólido en Nodejs para backend.
+Conocimientos deseables en Java.
+Manejo de APIs RESTful.
+Bases de datos relacionales y no relacionales (MySQL, MongoDB, etc.).
+Control de versiones con Git.
+Conocimiento de metodologías ágiles (Scrum, Kanban).
+Conocimiento de herramientas de integración continua y buenas prácticas de desarrollo.
+Responsabilidades del puesto
+Desarrollar aplicaciones web y móviles escalables, eficientes y de alto rendimiento.
+Diseñar e implementar funcionalidades tanto del lado cliente como del lado servidor.
+Integrar servicios de terceros y APIs RESTful.
+Participar en decisiones técnicas, arquitectónicas y de diseño.
+Colaborar con equipos multidisciplinarios para garantizar entregables de calidad.
+Realizar mantenimiento, mejoras y soporte a soluciones existentes.
+Participar en revisiones de código y documentación técnica.
+Beneficios
+Sueldo base competitivo
+Prestaciones de ley
+Prestaciones superiores a la ley
+Estabilidad laboral
+Oportunidades de desarrollo profesional en un entorno de innovación constante</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>Barrendero/A - Turno Nocturno o Vespertino</v>
+        <v>Practicantes para Sistemas</v>
       </c>
       <c r="B4" t="str">
-        <v>Idea Market Solutions</v>
+        <v>No disponible</v>
       </c>
       <c r="C4" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>Importante empresa del sector - Culiacán, Sinaloa</v>
       </c>
       <c r="D4" t="str">
-        <v>Tiempo Completo</v>
+        <v>Beca/prácticas</v>
       </c>
       <c r="E4" t="str">
         <v>A convenir</v>
       </c>
       <c r="F4" t="str">
-        <v>Hace 2 horas (actualizada)</v>
+        <v>Hace 2 días (actualizada)</v>
       </c>
       <c r="G4" t="str" xml:space="preserve">
-        <v xml:space="preserve">Buscamos tu talento como Barrendero/a para turno Nocturno o Vespertino:
-Zona de trabajo: Central de abastos Iztapalapa
-Barrenderos Nocturno (Horario 5 pm a 5 am)
-Barrenderos Vespertino (Horario de 10 am a 7:00 pm)
-Lunes a domingo descanso entre semana
-*Contratacion inmediata*
-Contar con documentacion (Acta de nacimiento, Comprobante de clabe interbancaria es decir cuenta de banco, nss, curp, ine, constancia de situacion fiscal y comprobante de domicilo)
-Agenda hoy mismo comunicate al 5 5 796 9 59 09</v>
+        <v xml:space="preserve">SE SOLICITA PRACTICANTES EN LA CARRERA DE ING EN SISTEMAS COMPUTACIONALES, LICENCIADO EN INFORMÁTICA
+Sexo: Indistinto
+Horarios: 8:00 a.m. 2:00 P.M
+11:00 a.m. A 5:00 P.M.
+Conocimientos mínimos en algunos de éstos 2 lenguajes de programación
+Python
+React
+Nodejs
+Express
+Github
+Postgresql
+Linux
+SE OFRECE APOYO PARA TRANSPORTE
+INTERESADOS ENVIAR CV</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str">
-        <v>Barrenderos matutino y nocturno con o sin experiencia</v>
+        <v>Desarrollador/a FullStack</v>
       </c>
       <c r="B5" t="str">
-        <v>Idea Market Solutions</v>
+        <v>Holcim Apasco</v>
       </c>
       <c r="C5" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>Holcim Apasco - San Pedro Tlaquepaque, Jalisco</v>
       </c>
       <c r="D5" t="str">
-        <v>Tiempo Completo</v>
+        <v>Presencial y remoto</v>
       </c>
       <c r="E5" t="str">
-        <v>$ 8,000.00 (Mensual)</v>
+        <v>$ 20,000.00 (Mensual)</v>
       </c>
       <c r="F5" t="str">
-        <v>Hace 2 días (actualizada)</v>
+        <v>Hace 4 días (actualizada)</v>
       </c>
       <c r="G5" t="str" xml:space="preserve">
-        <v xml:space="preserve">Unete al mejor equipo de trabajo como BARRENDER@
-TURNOS DISPONIBLES
-matutino: 9:00 am - 6:00 pm
-nocturno: 6pm - 6 am
-Lunes a Sábado a Domingo descanso rolado entre semana
-Salario: $2,000 semanales ( $2,500 NOCTURNO)
-+ prestaciones+uniformes
-Sexo indistinto
-No necesitas experiencia
-Contratación inmediata
-Zona de trabajo: Central de Abastos CDMX ( IZTAPALAPA)</v>
+        <v xml:space="preserve">¿QUIÉN ES HOLCIM?
+Somos el líder mundial en soluciones innovadoras y sostenibles para la construcción mediante cuatro segmentos de negocio: cemento, concreto/hormigón premezclado, agregados, soluciones y productos.
+Nuestro objetivo es impulsar la construcción circular para construir más con menos. Gracias a nuestro enfoque en la reducción de emisiones de CO2, cuidado al medio ambiente, apoyo a las comunidades y desarrollo de nuestra gente, hemos logrado que nuestros 70.000 colaboradores y colaboradoras en todo el mundo sienten una gran pasión por construir progreso para las personas y el planeta, creando mejores soluciones y experiencias para sus clientes, comunidades y equipos.
+¡TRABAJA CON NOSOTROS!
+Tendrás la oportunidad de compartir la pasión que tenemos por nuestro planeta, aportar perspectivas innovadoras, dentro de un entorno dinámico y retador, que promueve la diversidad e inclusión.
+Porque solo si trabajamos juntos en una cultura en la que todos prosperamos, podremos construir el mundo en el que todos queremos vivir.
+TE ESTAMOS BUSCANDO: Desarrollador/a FullStack!
+Serás responsable de diseñar, desarrollar y mantener aplicaciones web completas (frontend y backend), asegurando interfaces atractivas, usabilidad, seguridad y alto rendimiento.
+Tus principales retos serán:
+Crear interfaces de usuario modernas, responsivas y funcionales.
+Desarrollar APIs robustas e integraciones con servicios externos.
+Implementar y administrar bases de datos relacionales y no relacionales.
+Asegurar la autenticación y seguridad de las aplicaciones.
+Integrar plataformas de pago y otros servicios de terceros.
+Colaborar con equipos multidisciplinarios en entornos ágiles.
+Lugar de trabajo: Carretera a Tlaquepaque Jalisco, San Martin de las flores.
+Requisitos indispensables:
+Licenciatura o ingeniería en sistemas, desarrollo de software o afín.
+Experiencia comprobable en desarrollo Full Stack.
+Dominio de HTML, CSS, JavaScript y frameworks como React, Angular o Vuejs
+Conocimientos en backend con Nodejs, Python o Java.
+Manejo de bases de datos relacionales (SQL Server, PostgreSQL) y no relacionales (MongoDB, Firebase).
+Experiencia con integración de APIs REST y GraphQL.
+Uso de servicios en la nube (AWS, GCP) y control de versiones con Git/GitHub.
+Inglés B2.
+Requisitos deseados:
+Experiencia en entornos de retail, e commerce o mayoristas (B2B/B2C).
+Familiaridad con plataformas de pago.
+Conocimientos en backend con Nodejs, Python o Java.
+¡NO TE PIERDAS LA OPORTUNIDAD DE SER PARTE DE NUESTRO EQUIPO!
+¡CONSTRUYE PROGRESO CON NOSOTROS!</v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str">
-        <v>Barrenderos / $2,000 a la semana Central de Abastos CDMX</v>
+        <v>Desarrollador</v>
       </c>
       <c r="B6" t="str">
-        <v>Idea Market Solutions</v>
+        <v>CT Internacional del Noroeste</v>
       </c>
       <c r="C6" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>CT Internacional del Noroeste - Hermosillo, Sonora</v>
       </c>
       <c r="D6" t="str">
         <v>Tiempo Completo</v>
@@ -572,135 +615,2121 @@
         <v>A convenir</v>
       </c>
       <c r="F6" t="str">
-        <v>8 de julio (actualizada)</v>
+        <v>Hace 6 días (actualizada)</v>
       </c>
       <c r="G6" t="str" xml:space="preserve">
-        <v xml:space="preserve">SOLICITAMOS POR EXPANSION: BARRENDEROS
-ZONA: IZTAPALAPA (CENTRAL DE ABASTOS)
-SUELDO $2,000 semanales libres
-Pagos semanales
-Contarás con Prestaciones de Ley
-Horario: 9:00 am a 6:00 pm
-Lunes a Domingo, 1 día de descanso entre semana</v>
+        <v xml:space="preserve">¿Quieres pertenecer a la empresa mayorista líder en la distribución de tecnología de información en México?
+Estamos buscando talento con deseos de crecer y desarrollarse en una empresa con gran proyección, para nuestra posición de: Desarrollador
+TRABAJO 100% PRESENCIAL HERMOSILLO, SONORA.
+Perfil
+Buscamos un Desarrollador Node.js responsable de gestionar el intercambio de datos entre el servidor y los usuarios.
+Su enfoque principal será el desarrollo de toda la lógica del lado del servidor, la definición y el mantenimiento de la base de datos y garantizar un alto rendimiento y capacidad de respuesta a las solicitudes del Front-End.
+Capaz integrar los elementos frontales creados por sus compañeros de trabajo en la aplicación. Por lo tanto, también es necesaria una comprensión básica de las tecnologías Front-End.
+Requisitos
+Buen dominio de JavaScript
+Experiencia con Nodejs / Express
+Conocimiento en SQL.
+MongoDB (Deseable)
+Alguna de las siguientes tecnologías: HTLM5, CSS3, Angular 4, Angular js.
+Deseable conocimiento de administración en Linux.
+Experiencia mínima de 1 año en puesto similar.
+Funciones
+Participar en el diseño de software de los sistemas, diseño de las bases de datos, programación, documentación de sistemas terminados control de calidad, mantenimiento a sistemas desarrollados y revisión de requerimientos.
+a. Desarrollar e implementar nuevas funcionalidades en el API.
+b. Corregir e identificar posibles incidencias en el API.
+c. Despliegue y publicación del API.
+d. Reingeniería de procesos y reestructuración código.
+e. Consumo de APIs e integración con servicios de terceros, aliados y proveedores.
+f. Análisis de requerimientos funcionales y técnicos.
+Habilidades
+Responsable
+Autodidacta
+Buen comunicador
+Organizado
+Analítico
+Disponibilidad de Tiempo
+Orientado a resultados</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
       <c r="A7" t="str">
-        <v>Auxiliar de Limpieza sin Experiencia para Iztapalapa Turno Intermedio - $8000 mensual Contratación el mismo dia</v>
+        <v>Desarrollador – Diseño de Software de Sistemas</v>
       </c>
       <c r="B7" t="str">
-        <v>Idea Market Solutions</v>
+        <v>CT Internacional del Noroeste</v>
       </c>
       <c r="C7" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>CT Internacional del Noroeste - Hermosillo, Sonora</v>
       </c>
       <c r="D7" t="str">
         <v>Tiempo Completo</v>
       </c>
       <c r="E7" t="str">
-        <v>$ 8,000.00 (Mensual)</v>
+        <v>A convenir</v>
       </c>
       <c r="F7" t="str">
-        <v>Hace 4 horas (actualizada)</v>
+        <v>Hace 6 días (actualizada)</v>
       </c>
       <c r="G7" t="str" xml:space="preserve">
-        <v xml:space="preserve">"Importante marca de Limpieza está en busca de tu talento"
-Solicita Axiliar de limpieza (Barrendero) sin Experiencia
+        <v xml:space="preserve">Estamos buscando talento con deseos de crecer y desarrollarse en una empresa con gran proyección, para nuestra posición de: Desarrollador
+TRABAJO 100% PRESENCIAL HERMOSILLO, SONORA.
+Horario de Lunes a jueves 8:00 a.m. a 6:00 p.m. viernes de 8:00 a.m. a 3:00 p.m.
+Perfil:
+Buscamos un Desarrollador Node.js responsable de gestionar el intercambio de datos entre el servidor y los usuarios.
+Su enfoque principal será el desarrollo de toda la lógica del lado del servidor, la definición y el mantenimiento de la base de datos y garantizar un alto rendimiento y capacidad de respuesta a las solicitudes del Front-End.
+Capaz integrar los elementos frontales creados por sus compañeros de trabajo en la aplicación. Por lo tanto, también es necesaria una comprensión básica de las tecnologías Front-End.
 Requisitos:
-Tener disponibilidad de Horario
-Buena Actitud
-Lunes a Domingo con descanso entre semana 10 am a 7pm
-Edad: entre 18 a 55 años
-No contar con Infonavit de preferencia
-Sin tatuajes o perforaciones de preferencia
-Zona de trabajo: Iztapalapa
-OFRECEMOS:
-Sueldo base Neto semanal $2000 semanal
-Intermedio 10am a 7pm $2000 semanales
-Pago Semanal
-Vacante Fija
-Si estas interesada/o postúlate con tu CV actualizado</v>
+Buen dominio de JavaScript
+Experiencia con Nodejs / Express
+Conocimiento en SQL.
+MongoDB (Deseable)
+Alguna de las siguientes tecnologías: HTLM5, CSS3, Angular 4, Angular js.
+Deseable conocimiento de administración en Linux.
+Experiencia mínima de 1 año en puesto similar.
+Funciones:
+Participar en el diseño de software de los sistemas, diseño de las bases de datos, programación, documentación de sistemas terminados control de calidad, mantenimiento a sistemas desarrollados y revisión de requerimientos.
+a. Desarrollar e implementar nuevas funcionalidades en el API.
+b. Corregir e identificar posibles incidencias en el API.
+c. Despliegue y publicación del API.
+d. Reingeniería de procesos y reestructuración código.
+e. Consumo de APIs e integración con servicios de terceros, aliados y proveedores.
+f. Análisis de requerimientos funcionales y técnicos.
+Habilidades:
+Responsable
+Autodidacta
+Buen comunicador
+Organizado
+Analítico
+Disponibilidad de Tiempo
+Orientado a resultados</v>
       </c>
     </row>
     <row r="8" xml:space="preserve">
       <c r="A8" t="str">
-        <v>Auxiliar de Limpieza sin Experiencia para Iztapalapa Turno Nocturno - $10,000 mensual Contratación el mismo dia</v>
+        <v>Programador/a</v>
       </c>
       <c r="B8" t="str">
-        <v>Idea Market Solutions</v>
+        <v>PROMOTORES DE GESTORIA NOTARIAL DE OAXACA</v>
       </c>
       <c r="C8" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>PROMOTORES DE GESTORIA NOTARIAL DE OAXACA - Oaxaca de Juárez, Oaxaca</v>
       </c>
       <c r="D8" t="str">
         <v>Tiempo Completo</v>
       </c>
       <c r="E8" t="str">
-        <v>$ 10,000.00 (Mensual)</v>
+        <v>$ 14,000.00 (Mensual)</v>
       </c>
       <c r="F8" t="str">
-        <v>Hace 4 horas (actualizada)</v>
+        <v>Hace más de 30 días</v>
       </c>
       <c r="G8" t="str" xml:space="preserve">
-        <v xml:space="preserve">"Importante marca de Limpieza está en busca de tu talento"
-Solicita Axiliar de limpieza (Barrendero) sin Experiencia
+        <v xml:space="preserve">Conocimientos:
+- En reactjs, Nextjs, Python, Nodejs, TypeScript.
+- Bases de datos relacionales y no relacionales como MongoDB, SqlServer.
+Funciones:
+-Desarrollar o modificar módulos de sistemas existentes o en desarrollo en reactjs.
+Codificar las interfaces gráficas de acuerdo con los diseños y funcionalidades proporcionados.
+-Probar sistemas en desarrollo o producción para validar la calidad y funcionalidad de los sistemas
+-Apoyar a las diferentes actividades del área.
+Periodo a prueba: 1 mes
+Perfil : Licenciatura en sistemas computacionales , informatica o afin.</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Programador/a - Administrador de servidor</v>
+      </c>
+      <c r="B9" t="str">
+        <v>SOLVENCIAINFORMATICA</v>
+      </c>
+      <c r="C9" t="str">
+        <v>SOLVENCIAINFORMATICA - Culiacán, Sinaloa</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Presencial y remoto</v>
+      </c>
+      <c r="E9" t="str">
+        <v>$ 12,000.00 (Mensual)</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Hace más de 30 días</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Experiencia c# javascrip, nodejs,php,html y mysql, administrar las actualizaciones de desarorrollo y mantenimiento de base de datos en servidores IBM SOFTLAYER</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Analista programador - administrador de servidor</v>
+      </c>
+      <c r="B10" t="str">
+        <v>SOLVENCIAINFORMATICA</v>
+      </c>
+      <c r="C10" t="str">
+        <v>SOLVENCIAINFORMATICA - Culiacán, Sinaloa</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Presencial y remoto</v>
+      </c>
+      <c r="E10" t="str">
+        <v>$ 12,000.00 (Mensual)</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Hace más de 30 días</v>
+      </c>
+      <c r="G10" t="str">
+        <v>ANALISTA-PROGRAMADOR-MANEJADOR BASE DE DATOS, ANALIZAR Y MODULAR REQUERIMIENTOS DEL CLIENTE, PROGRAMAR Y ADMINISTRAR SERVIDOR WEB,DESARROLLO-TESTEO-IMPLEMENTACION DEL DESARROLLO,CONOCIMIENTOS C#,JAVASCRIP,PHP.HTML,NODEJS Y MYSQL</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>Desarrollador Full Stack Jr</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Joyerías Bizzarro</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Joyerías Bizzarro - Naucalpan de Juárez, Estado de México</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E11" t="str">
+        <v>$ 20,000.00 (Mensual)</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Ayer (actualizada)</v>
+      </c>
+      <c r="G11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Únete a la marca #1 de Joyería como Programador Full Stack Jr.
+Requisitos y experiencia:
+• Ing. en informática, Ing en sistemas.
+• 1 año de experiencia en el puesto.
+• Programación para Backend (NodeJs, Java, PHP, Python, etc.)
+• Programación para Frontend (HTML, JavaScript, React, Vue, etc.)
+• Manejo de base de datos.
+• Métodos de transferencia de datos (servicios API, BATCH).
+• Análisis de procesos de negocio.
+Funciones:
+• Detectar y reportar las áreas de oportunidad en las aplicaciones.
+• Desarrollar nuevas funcionalidades en aplicaciones existentes y mejoras en funcionalidades existentes.
+• Gestionar las incidencias generadas por los usuarios, cumpliendo con el tiempo de respuesta establecido.
+• Desarrollar documentación técnica para desarrollo de proyectos.
+• Dar seguimiento a los desarrollos generados por proveedores.
+• Realizar pruebas sobre desarrollos generados.
+• Comunicar avances, riesgos y retrasos en los proyectos administrados.
+Ofrecemos:
+• Sueldo Base Mensual Bruto: $20,000
+• Prestaciones de ley y superiores.
+• Cotización al 100%
+• Caja de Ahorro.
+• Vales de despensa.
+• Días Flex.
+• Plan de crecimiento.
+• Capacitación constante e integral.
+• Descuento de la marca.
+• Beneficios en distintas marcas.
+• Día de cumpleaños.
+• Servicio de apoyo PAE (Emocional, Médica, Nutricional, Veterinaria, Legal y Economía personal).
+• Seguro de vida.
+TODOS LOS PROCESOS DE SELECCION Y CONTRATACIÓN SON GRATUITOS, JOYERIAS BIZARRO NO SOLICITA DEPOSITOS NI TRANSFERENCIAS PARA CONCLUIRLOS.</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>Fullstack Developer JavaScript Python - Hibrido CDMX</v>
+      </c>
+      <c r="B12" t="str">
+        <v>CORUS</v>
+      </c>
+      <c r="C12" t="str">
+        <v>CORUS - Benito Juárez, Ciudad de México DF</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Presencial y remoto</v>
+      </c>
+      <c r="E12" t="str">
+        <v>$ 31,500.00 (Mensual)</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Ayer (actualizada)</v>
+      </c>
+      <c r="G12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Corus Systems &amp; Consulting Inc es una empresa líder en el sector de tecnologías de la información, especializada en sistemas y desarrollo de software. Nos enorgullecemos de ofrecer un ambiente de trabajo dinámico y colaborativo, donde la innovación y el crecimiento profesional son fundamentales. Ubicación: La vacante es en Ciudad de México.
+Requisitos del puesto
+Estudios mínimos de Universitario de Ingeniería
+Programación orientada a objetos
+Angular
+Integración de servicios
+Microservicios
+Alto conocimiento en javascript y typescript
+Kubernetes
+Bases de datos
+APIS
+NodeJS
+Decorators
+Components
+Directives
+Inyección de dependencias
+Services
+Pipes
+Interceptors
+Guards
+Routing
+Template forms and reactive forms
+http client, HTML5, CSS3, Angular material
+Google Cloud Platform, Devops, python
+Responsabilidades del puesto
+Recibir y entender los requerimientos de negocio para poder desarrollarlos con tecnología Angular
+Desarrollar nuevos módulos principalmente, así como realizar el consumo de servicios de un backend en Python.
+Entendimiento de microservicios rest
+Manejo de bases de datos.
+Prestaciones y beneficios adicionales
+Salario mensual de 28,000 a 32,000 pesos.
+Contratación temporal a tiempo completo.
+Modalidad de trabajo híbrido, combinando trabajo remoto y presencial.
+Oportunidades de capacitación y desarrollo profesional.
+Ambiente de trabajo colaborativo y dinámico.</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>Trabajo Desde Casa Desarrollador Junior Node.js / Ref. 0111</v>
+      </c>
+      <c r="B13" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C13" t="str">
+        <v>BairesDev LLC - Chihuahua, Chihuahua</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E13" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Hace 2 días (actualizada)</v>
+      </c>
+      <c r="G13" t="str" xml:space="preserve">
+        <v xml:space="preserve">En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Desarrollador Junior Node.js en BairesDev
+Como Desarrollador Junior Node.js, aplica tus conocimientos de JavaScript y Node.js para construir aplicaciones eficientes. Este rol involucra el desarrollo de APIs, trabajo con lógica del lado del servidor y la mejora de tus capacidades de desarrollo back-end.
+Lo que harás
+- Desarrollar y mantener aplicaciones Node.js, centrándote en crear funcionalidades eficientes del back-end.
+- Trabajar en la integración de elementos orientados al usuario con la lógica del lado del servidor, colaborando con desarrolladores front-end.
+- Solucionar problemas y depurar aplicaciones, contribuyendo a la mejora del rendimiento de las aplicaciones.
+- Participar en revisiones de código para aprender y mantener estándares de programación de alta calidad.
+- Mantenerte al día con las nuevas tendencias en Node.js y tecnologías relacionadas, entendiendo su aplicación en proyectos de desarrollo.
+- Participar activamente en reuniones de equipo y contribuir con ideas para mejorar el desarrollo del proyecto y la colaboración del equipo.
+¿Qué Buscamos?
+- 1+ año de experiencia con Node.js.
+- Buen entendimiento de algoritmos básicos y estructuras de datos.
+- Conocimiento básico de sistemas de control de versiones, preferiblemente Git.
+- Capacidad para resolver problemas de manera eficaz y aprender nuevas tecnologías rápidamente.
+- Buen nivel de inglés
+Qué ofrecemos para que tu trabajo (y tu vida) sea más fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.
+- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.
+- Hardware y software.
+- Horarios flexibles
+- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.
+- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.
+- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>Work From Home Technical Writer / Ref. 0623</v>
+      </c>
+      <c r="B14" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C14" t="str">
+        <v>BairesDev LLC - Tuxtla Gutiérrez, Chiapas</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E14" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Hace 2 días (actualizada)</v>
+      </c>
+      <c r="G14" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Technical Writer at BairesDev
+As a Technical Writer, you are an integral part of an agile team that works to enhance, build, and deliver trusted market-leading technology products in a secure, stable, and scalable way. As a core technical contributor, you are responsible for conducting critical technology solutions across multiple technical areas within various business functions in support of the firms business objectives.
+What You Will Do:
+- Develop comprehensive documentation that meets organizational standards.
+- Obtain a deep understanding of products and services to translate complex product information into simple, polished, and engaging content.
+- Understand Current Architecture based on Microservices, and Chrome Browser extension.
+Heres what we are looking for:
+- Bachelors degree in a relevant technical field.
+- 4+ years of industry experience as an effective technical writer.
+- Good knowledge of Current Tech Stack: NodeJS, Chrome Browser Extension, Microservices, Datadog, AWS services (RDS, etc).
+- Proven ability to quickly learn and understand complex topics.
+- Previous experience writing documentation and procedural materials for multiple audiences.
+- Superior written and verbal communication skills, with a keen eye for detail.
+- Proven working experience in technical writing of software documentation.
+- Ability to quickly grasp complex technical concepts and make them easily understandable in text and pictures.
+- Strong working knowledge of Microsoft Office.
+- Basic familiarity with SDLC and software development.
+- Excellent / Above average written skills in English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>Programador/a - Temporal</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Caja Morelia Valladolid</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Caja Morelia Valladolid - Morelia, Michoacán</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E15" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Hace 2 días (actualizada)</v>
+      </c>
+      <c r="G15" t="str" xml:space="preserve">
+        <v xml:space="preserve">Empresa Mexicana dedicada al servicio Financiero con 59 años de historia y presencia nacional, Caja Morelia Valladolid solicita personal.
+PROGRAMADOR TEMPORAL
+OFECEMOS:
+-Sueldo base.
+-Prestaciones superiores a las de Ley.
+-Vales de despensa 8% del sueldo bruto mensual.
+-Fondo de ahorro del 13% del sueldo bruto mensual.
+-Seguro de vida.
+-Prima vacacional 100%.
+-30 días de aguinaldo desde el primer año.
+-Uniformes.
+-Opciones a becas.
+- Y mucho más...
+REQUISITOS:
+•Licenciatura o ingeniería Titulado en Informática, Sistemas Computacionales, TIC’s a fines.
+•Dominio de bases de datos SQL SERVER
+•Dominio de .NET C# o JAVA
+•Dominio Programación web (Html5, Maquetado CSS, Javascript, ECMAScript 2015+, VueJS2)
+•Dominio API Rest y SOAP (Net Core, nodeJS)
+•Dominio Programación móvil (Android, IOS, híbrido o nativo)
+•Manejo de Control de Versiones GIT.
+•Manejo de Plataforma JIRA &amp; Confluence
+•Deseable Delphi 6
+Horario de trabajo: Lunes a Viernes de 8:30 am a 5 pm y Sábados de 8:30 am a 2 pm
+Interesados postularse por este medio</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>Work From Home Senior Tech Lead (Node.js) / Ref. 0111</v>
+      </c>
+      <c r="B16" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C16" t="str">
+        <v>BairesDev LLC - Ecatepec de Morelos, Estado de México</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E16" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Hace 2 días (actualizada)</v>
+      </c>
+      <c r="G16" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Senior Tech Lead (Node.js) at BairesDev
+Join as a Senior Tech Lead (Node.js) to drive our development team with your deep understanding of Node.js. Youll oversee project development, set technical standards, and lead the team in delivering scalable and robust server-side applications, fostering innovation in backend development.
+What you will do:
+- Oversee the technical direction of Node.js projects, aligning technical decisions with business goals.
+- Lead and mentor a development team, promoting effective collaboration, skill development, and project success.
+- Define project requirements, scope, and timelines in collaboration with stakeholders.
+- Ensure the delivery of high-quality, scalable, and efficient Node.js solutions.
+- Stay informed on industry trends and emerging technologies, assessing their application in the teams projects.
+- Facilitate communication and problem-solving within the team, ensuring efficient workflow and addressing technical challenges proactively.
+Heres what we are looking for:
+- 7+ years of experience with Node.js.
+- Proficient in Agile methodologies, ensuring efficient project delivery and team collaboration.
+- In-depth knowledge of Design Patterns.
+- Advanced IT infrastructure knowledge.
+- Strong experience in application security best practices.
+- Proven track record in developing and integrating large-scale applications.
+- Expertise in both back-end and front-end development areas.
+- Skilled in conducting code reviews and managing CI/CD pipelines.
+- Expert understanding of clients requirements, assessing potential benefits and weaknesses.
+- Advanced knowledge of the trade-offs involved in choosing specific technologies or solutions.
+- Strong experience leading client and stakeholder meetings, effectively communicating technical concepts.
+- Demonstrated leadership skills in team management, task allocation, risk identification, decision-making, task estimation, conflict resolution, and project planning.
+- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>Work From Home Semi Senior Node.js Developer / Ref. 0111</v>
+      </c>
+      <c r="B17" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C17" t="str">
+        <v>BairesDev LLC - Puebla, Puebla</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E17" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Hace 2 días (actualizada)</v>
+      </c>
+      <c r="G17" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Semi Senior Node.js Developer at BairesDev
+Step into the Semi Senior Node.js Developer role, leveraging your experience in Node.js to build and optimize complex backend systems. Youll play a key role in improving application performance and implementing advanced server-side features.
+What you will do:
+- Design and develop more complex applications using Node.js, demonstrating strong problem-solving and coding skills.
+- Lead smaller project teams or modules, mentoring junior developers and meeting project goals and timelines.
+- Conduct in-depth code reviews, promoting best practices for maintainable and efficient code.
+- Stay current with advanced Node.js features and best practices, mentoring junior team members in these areas.
+- Collaborate effectively with cross-functional teams, translating technical and business requirements into robust solutions.
+- Play a significant role in project planning and execution, ensuring timely and quality delivery of software solutions.
+What we are looking for:
+- 3+ years of experience with Node.js.
+- Proven experience with APIs and Web Services.
+- Experience with database technologies.
+- Advanced knowledge of algorithms and data structures.
+- Basic IT infrastructure knowledge.
+- Experience in designing and implementing software modules for real-world applications.
+- Proficient in writing and implementing unit tests.
+- Familiarity with CI/CD pipelines.
+- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>Work From Home Junior Backend Developer (Node.js) / Ref. 0111</v>
+      </c>
+      <c r="B18" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C18" t="str">
+        <v>BairesDev LLC - Culiacán, Sinaloa</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E18" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Hace 2 días (actualizada)</v>
+      </c>
+      <c r="G18" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Junior Backend Developer (Node.js) at BairesDev
+As a Junior Backend Developer (Node.js), apply your JavaScript and Node.js skills to build efficient server-side applications. This role involves developing APIs, working with server-side logic, and enhancing your backend development capabilities.
+What you will do:
+- Develop and maintain Node.js applications, focusing on creating efficient back-end functionality.
+- Work on integrating user-facing elements with server-side logic, collaborating with front-end developers.
+- Troubleshoot and debug applications, contributing to improving application performance.
+- Participate in code reviews to learn and maintain high-quality coding standards.
+- Stay updated with new trends in Node.js and related technologies, understanding their application in development projects.
+- Participate actively in team meetings and contribute ideas to enhance project development and team collaboration.
+Heres what we are looking for:
+- 1+ year of experience with Node.js.
+- Good understanding of basic algorithms and data structures.
+- Basic knowledge of version control systems, preferably Git.
+- Ability to solve problems effectively and learn new technologies quickly.
+- Advanced level of English is a plus.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>Desarrollador/a - Node.js y react</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Blackcore ®</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Blackcore ® - León, Guanajuato</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E19" t="str">
+        <v>$ 20,000.00 (Mensual)</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Hace 2 días (actualizada)</v>
+      </c>
+      <c r="G19" t="str" xml:space="preserve">
+        <v xml:space="preserve">Sobre la empresa:
+Blackcore es una compañía líder en tecnología para el sector inmobiliario, ofreciendo soluciones SaaS innovadoras para la gestión del proceso de crédito inmobiliario. Contamos con presencia en México y LATAM, ayudando al sector bancario, unidades de valuación, despachos y agentes a optimizar sus procesos. Buscamos un perfil apasionado por desarrollar nuevas herramientas y aplicaciones para mejorar la vida del usuario.
+HABILIDADES Y ACTITUDES:
+- Gusto por el trabajo en equipo.
+- Trabajo bajo presión.
+- Proactivo.
+- Autodidacta.
+- Actitud de servicio.
+- Orientado a resultados.
+EXPERIENCIA LABORAL
+-Experiencia comprobable desarrollando las actividades y habilidades del puesto y/o similares.
+- Diseño responsivo y desarrollo.
+- Consumo de Web Services y API’s.
+FORMACIÓN ACADÉMICA:
+- Licenciatura, especialidad o superior. Matemáticas aplicadas y computación, Matemáticas, Actuaría, sistemas o afín.
+RESPONSABILIDADES DEL PUESTO:
+- Analizar y desarrollar nuevas funciones/aplicaciones para el usuario y negocio.
+- Optimización constante de código y consultas.
+- Proponer, innovar y actualizarse en nuevas tecnologías de desarrollo.
+- Documentar todo lo relacionado a los proyectos y API's.
+- Definir nuevas funcionalidades para el usuario y negocio.
+- Aterrizar peticiones y dar seguimiento a incidencias y entregas.
+- Dar seguimiento a resolución de errores y funcionalidades.
+- Mejorar la calidad y la satisfacción de los clientes.
+- Definir y aplicar las mejores prácticas en la calidad del software.
+CONOCIMIENTOS:
+- NODE. JS
+- REACT
+- MongoDB y MySQL
+- RESTful API usando Postman
+- Diseño responsivo: Móvil, Escritorio, Tableta
+- HTML5
+- CSS
+- Javascript
+- Control de versionamiento (Git)
+-React Native
+-PostgreSQL
+-Diseño responsivo
+- JS
+OTROS REQUISITOS:
+- Inglés básico.
+- PHP Deseable.
+- VUEJS Deseable.
+- Frameworks (Codeigniter, Laravel o similares) Deseable.
+OFRECEMOS:
+- $20,000 mensuales bruto (A convenir según experiencia y competencias)
+- Prestaciones de Ley
+- Vales de Despensa
+- Excelente ambiente laboral
+-Oportunidad de aprendizaje y crecimiento en una empresa en plena expansión en LATAM.
+-Acceso a capacitaciones y certificaciones especializadas (AWS).
+-Cultura de innovación y tecnología en el sector inmobiliario y bancario.
+-Estabilidad laboral y ambiente profesional.
+-Capacitación y desarrollo constante.
+La vacante es 100% Presencial ¡Postúlate y únete al equipo de Blackcore!</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>Programador Jr.</v>
+      </c>
+      <c r="B20" t="str">
+        <v>No disponible</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Importante empresa del sector - Tlalnepantla de Baz, Estado de México</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E20" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Hace 2 días (actualizada)</v>
+      </c>
+      <c r="G20" t="str" xml:space="preserve">
+        <v xml:space="preserve">Importante empresa del sector manufacturero.
+Busca talento de: Programador
 Requisitos:
-Tener disponibilidad de Horario
-Buena Actitud
-Lunes a Domingo con descanso entre semana
-Edad: entre 18 a 55 años
-No contar con Infonavit de preferencia
-Sin tatuajes o perforaciones de preferencia
-Zona de trabajo: Iztapalapa
+Escolaridad: Licenciatura en Sistemas.
+Experiencia: Mínimo un año en programación o en el área de TI.
+Conocimientos:
+*Lenguajes de programación VB6, VB .NET, JavaScript, NodeJs, ReactJs,
+Transact-SQL.
+*Entornos Scrum.
+*Implementación de funcionalidades back-end y front-end.
+*Desarrollo de API Rest full manejando bases de datos relacionales.
+*Capacidad de análisis de requerimientos, problemas y diseño de soluciones.
+*Aplicación de mejores prácticas, calidad del software y mejora continua.
+*Uso de estándares de codificación.
+*Conocimiento y uso de Hooks.
+*Uso de control de versiones GI.T
+*Uso de Reporteadores Crystal Reports, Reports de VB.
+*Office Intermedio (Word, Excel, Power Point, Outlook).
+Ofrecemos:
+Prestaciones de ley y superiores a las de ley.
+Contratación directa por la empresa.
+Beneficios para ti y tu familia.
+Interesados:
+Postularse por este medio con cv actualizado y fotografía.</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>Trabajo Desde Casa Desarrollador Junior Node.js / Ref. 0111</v>
+      </c>
+      <c r="B21" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C21" t="str">
+        <v>BairesDev LLC - Mulegé, Baja California Sur</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E21" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Hace 2 días (actualizada)</v>
+      </c>
+      <c r="G21" t="str" xml:space="preserve">
+        <v xml:space="preserve">En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Desarrollador Junior Node.js en BairesDev
+Como Desarrollador Junior Node.js, aplica tus conocimientos de JavaScript y Node.js para construir aplicaciones eficientes. Este rol involucra el desarrollo de APIs, trabajo con lógica del lado del servidor y la mejora de tus capacidades de desarrollo back-end.
+Lo que harás
+- Desarrollar y mantener aplicaciones Node.js, centrándote en crear funcionalidades eficientes del back-end.
+- Trabajar en la integración de elementos orientados al usuario con la lógica del lado del servidor, colaborando con desarrolladores front-end.
+- Solucionar problemas y depurar aplicaciones, contribuyendo a la mejora del rendimiento de las aplicaciones.
+- Participar en revisiones de código para aprender y mantener estándares de programación de alta calidad.
+- Mantenerte al día con las nuevas tendencias en Node.js y tecnologías relacionadas, entendiendo su aplicación en proyectos de desarrollo.
+- Participar activamente en reuniones de equipo y contribuir con ideas para mejorar el desarrollo del proyecto y la colaboración del equipo.
+¿Qué Buscamos?
+- 1+ año de experiencia con Node.js.
+- Buen entendimiento de algoritmos básicos y estructuras de datos.
+- Conocimiento básico de sistemas de control de versiones, preferiblemente Git.
+- Capacidad para resolver problemas de manera eficaz y aprender nuevas tecnologías rápidamente.
+- Buen nivel de inglés
+Qué ofrecemos para que tu trabajo (y tu vida) sea más fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.
+- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.
+- Hardware y software.
+- Horarios flexibles
+- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.
+- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.
+- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>Work From Home Technical Writer / Ref. 0623</v>
+      </c>
+      <c r="B22" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C22" t="str">
+        <v>BairesDev LLC - Hermosillo, Sonora</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E22" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Hace 2 días (actualizada)</v>
+      </c>
+      <c r="G22" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Technical Writer at BairesDev
+As a Technical Writer, you are an integral part of an agile team that works to enhance, build, and deliver trusted market-leading technology products in a secure, stable, and scalable way. As a core technical contributor, you are responsible for conducting critical technology solutions across multiple technical areas within various business functions in support of the firms business objectives.
+What You Will Do:
+- Develop comprehensive documentation that meets organizational standards.
+- Obtain a deep understanding of products and services to translate complex product information into simple, polished, and engaging content.
+- Understand Current Architecture based on Microservices, and Chrome Browser extension.
+Heres what we are looking for:
+- Bachelors degree in a relevant technical field.
+- 4+ years of industry experience as an effective technical writer.
+- Good knowledge of Current Tech Stack: NodeJS, Chrome Browser Extension, Microservices, Datadog, AWS services (RDS, etc).
+- Proven ability to quickly learn and understand complex topics.
+- Previous experience writing documentation and procedural materials for multiple audiences.
+- Superior written and verbal communication skills, with a keen eye for detail.
+- Proven working experience in technical writing of software documentation.
+- Ability to quickly grasp complex technical concepts and make them easily understandable in text and pictures.
+- Strong working knowledge of Microsoft Office.
+- Basic familiarity with SDLC and software development.
+- Excellent / Above average written skills in English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>Work From Home Junior Backend Developer (Node.js) / Ref. 0111</v>
+      </c>
+      <c r="B23" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C23" t="str">
+        <v>BairesDev LLC - Guadalajara, Jalisco</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E23" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Hace 2 días (actualizada)</v>
+      </c>
+      <c r="G23" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Junior Backend Developer (Node.js) at BairesDev
+As a Junior Backend Developer (Node.js), apply your JavaScript and Node.js skills to build efficient server-side applications. This role involves developing APIs, working with server-side logic, and enhancing your backend development capabilities.
+What you will do:
+- Develop and maintain Node.js applications, focusing on creating efficient back-end functionality.
+- Work on integrating user-facing elements with server-side logic, collaborating with front-end developers.
+- Troubleshoot and debug applications, contributing to improving application performance.
+- Participate in code reviews to learn and maintain high-quality coding standards.
+- Stay updated with new trends in Node.js and related technologies, understanding their application in development projects.
+- Participate actively in team meetings and contribute ideas to enhance project development and team collaboration.
+Heres what we are looking for:
+- 1+ year of experience with Node.js.
+- Good understanding of basic algorithms and data structures.
+- Basic knowledge of version control systems, preferably Git.
+- Ability to solve problems effectively and learn new technologies quickly.
+- Advanced level of English is a plus.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>Work From Home Node.js Junior Developer / Ref. 0111</v>
+      </c>
+      <c r="B24" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C24" t="str">
+        <v>BairesDev LLC - Aguascalientes, Aguascalientes</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E24" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G24" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Node.js Junior Developer at BairesDev
+As a Node.js Junior Developer, apply your JavaScript and Node.js skills to build efficient server-side applications. This role involves developing APIs, working with server-side logic, and enhancing your backend development capabilities.
+What you will do:
+- Develop and maintain Node.js applications, focusing on creating efficient back-end functionality.
+- Work on integrating user-facing elements with server-side logic, collaborating with front-end developers.
+- Troubleshoot and debug applications, contributing to improving application performance.
+- Participate in code reviews to learn and maintain high-quality coding standards.
+- Stay updated with new trends in Node.js and related technologies, understanding their application in development projects.
+- Participate actively in team meetings and contribute ideas to enhance project development and team collaboration.
+Heres what we are looking for:
+- 1+ year of experience with Node.js.
+- Good understanding of basic algorithms and data structures.
+- Basic knowledge of version control systems, preferably Git.
+- Ability to solve problems effectively and learn new technologies quickly.
+- Advanced level of English is a plus.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>Trabajo Desde Casa Node.js Senior Tech Lead / Ref. 0111</v>
+      </c>
+      <c r="B25" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C25" t="str">
+        <v>BairesDev LLC - Guadalajara, Jalisco</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E25" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G25" t="str" xml:space="preserve">
+        <v xml:space="preserve">En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Node.js Senior Tech Lead en BairesDev
+Únete como Node.js Senior Tech Lead para impulsar a nuestro equipo de desarrollo con tu amplio conocimiento de Node.js. Supervisarás el desarrollo de proyectos, establecerás estándares técnicos y liderarás al equipo en la entrega de aplicaciones escalables y robustas del lado del servidor, fomentando la innovación en el desarrollo back-end.
+Lo que harás
+- Supervisar la dirección técnica de proyectos Node.js, alineando las decisiones técnicas con los objetivos comerciales.
+- Liderar y orientar a un equipo de desarrollo, promoviendo la colaboración efectiva y el éxito del proyecto.
+- Definir los requisitos, el alcance y los plazos del proyecto en colaboración con las partes interesadas.
+- Garantizar la entrega de soluciones Node.js de alta calidad, escalables y eficientes.
+- Mantenerte al día con las tendencias de la industria y las nuevas tecnologías, evaluando su aplicación en los proyectos del equipo.
+- Facilitar la comunicación y la resolución de problemas dentro del equipo, garantizando un flujo de trabajo eficiente y abordando los desafíos técnicos de manera proactiva.
+¿Qué Buscamos?
+- 7+ años de experiencia con Node.js.
+- Experto en metodologías Agile, asegurando la entrega eficiente del proyecto y la colaboración del equipo.
+- Dominio profundo de Patrones de Diseño.
+- Conocimiento avanzado de infraestructura IT.
+- Sólida experiencia en las mejores prácticas de seguridad de aplicaciones.
+- Historial comprobado en el desarrollo e integración de aplicaciones a gran escala.
+- Experiencia en ambas áreas de desarrollo, front-end y back-end.
+- Habilidad para realizar revisiones de código y administrar pipelines de CI/CD.
+- Comprensión clara de los requisitos del cliente, evaluando los beneficios y debilidades potenciales.
+- Conocimiento avanzado de las ventajas y desventajas de elegir tecnologías o soluciones específicas.
+- Amplia experiencia en liderar reuniones con clientes y partes interesadas, comunicando efectivamente conceptos técnicos.
+- Habilidades de liderazgo demostradas en la gestión de equipos, asignación y estimación de tareas, identificación de riesgos, toma de decisiones, resolución de conflictos y planificación de proyectos.
+- Inglés avanzado.
+Qué ofrecemos para que tu trabajo (y tu vida) sea más fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.
+- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.
+- Hardware y software.
+- Horarios flexibles
+- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.
+- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.
+- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>Work From Home Senior Engineering Manager (Node.js) / Ref. 0111</v>
+      </c>
+      <c r="B26" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C26" t="str">
+        <v>BairesDev LLC - Ensenada, Baja California</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E26" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G26" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Senior Engineering Manager (Node.js) at BairesDev
+Join as a Senior Engineering Manager (Node.js) to drive our development team with your deep understanding of Node.js. Youll oversee project development, set technical standards, and lead the team in delivering scalable and robust server-side applications, fostering innovation in backend development.
+What you will do:
+- Oversee the technical direction of Node.js projects, aligning technical decisions with business goals.
+- Lead and mentor a development team, promoting effective collaboration, skill development, and project success.
+- Define project requirements, scope, and timelines in collaboration with stakeholders.
+- Ensure the delivery of high-quality, scalable, and efficient Node.js solutions.
+- Stay informed on industry trends and emerging technologies, assessing their application in the teams projects.
+- Facilitate communication and problem-solving within the team, ensuring efficient workflow and addressing technical challenges proactively.
+Heres what we are looking for:
+- 7+ years of experience with Node.js.
+- Proficient in Agile methodologies, ensuring efficient project delivery and team collaboration.
+- In-depth knowledge of Design Patterns.
+- Advanced IT infrastructure knowledge.
+- Strong experience in application security best practices.
+- Proven track record in developing and integrating large-scale applications.
+- Expertise in both back-end and front-end development areas.
+- Skilled in conducting code reviews and managing CI/CD pipelines.
+- Expert understanding of clients requirements, assessing potential benefits and weaknesses.
+- Advanced knowledge of the trade-offs involved in choosing specific technologies or solutions.
+- Strong experience leading client and stakeholder meetings, effectively communicating technical concepts.
+- Demonstrated leadership skills in team management, task allocation, risk identification, decision-making, task estimation, conflict resolution, and project planning.
+- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>Trabajo Desde Casa Desarrollador Node.js / Ref. 0111</v>
+      </c>
+      <c r="B27" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C27" t="str">
+        <v>BairesDev LLC - Tijuana, Baja California</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E27" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G27" t="str" xml:space="preserve">
+        <v xml:space="preserve">En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Desarrollador Node.js en BairesDev
+Como Desarrollador Node.js en BairesDev, diseñarás e implementarás aplicaciones del lado del servidor utilizando Node.js y tecnologías relacionadas. Aplicarás tu experiencia para desarrollar servicios backend escalables, optimizar el rendimiento de APIs y colaborar con equipos multifuncionales para entregar software de alta calidad que cumpla con los requisitos del negocio.
+Qué harás:
+- Diseñar, desarrollar y mantener aplicaciones Node.js, demostrando habilidades avanzadas de resolución de problemas y competencia en codificación.
+- Construir APIs RESTful y arquitecturas de microservicios para soportar aplicaciones web y móviles.
+- Implementar esquemas y consultas de bases de datos eficientes para optimizar el acceso y almacenamiento de datos.
+- Integrar servicios de terceros y APIs externas para mejorar la funcionalidad de las aplicaciones.
+- Solucionar problemas, depurar y actualizar aplicaciones del lado del servidor existentes para mejorar el rendimiento.
+- Participar en revisiones de código y discusiones técnicas para mejorar la calidad general del código.
+Qué buscamos:
+- 3+ años de experiencia con desarrollo Node.js.
+- Experiencia con tecnologías de bases de datos (SQL o NoSQL).
+- Familiaridad con desarrollo e integración de APIs.
+- Conocimiento de JavaScript y características modernas de ES6+.
+- Experiencia con sistemas de control de versiones, preferiblemente Git.
+- Nivel avanzado de inglés.
+Qué ofrecemos para que tu trabajo (y tu vida) sea más fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.
+- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.
+- Hardware y software.
+- Horarios flexibles
+- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.
+- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.
+- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>Work From Home Node.js Junior Engineer / Ref. 0111</v>
+      </c>
+      <c r="B28" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C28" t="str">
+        <v>BairesDev LLC - Chilcuautla, Hidalgo</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E28" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G28" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Node.js Junior Engineer at BairesDev
+As a Node.js Junior Engineer, apply your JavaScript and Node.js skills to build efficient server-side applications. This role involves developing APIs, working with server-side logic, and enhancing your backend development capabilities.
+What you will do:
+- Develop and maintain Node.js applications, focusing on creating efficient back-end functionality.
+- Work on integrating user-facing elements with server-side logic, collaborating with front-end developers.
+- Troubleshoot and debug applications, contributing to improving application performance.
+- Participate in code reviews to learn and maintain high-quality coding standards.
+- Stay updated with new trends in Node.js and related technologies, understanding their application in development projects.
+- Participate actively in team meetings and contribute ideas to enhance project development and team collaboration.
+Heres what we are looking for:
+- 1+ year of experience with Node.js.
+- Good understanding of basic algorithms and data structures.
+- Basic knowledge of version control systems, preferably Git.
+- Ability to solve problems effectively and learn new technologies quickly.
+- Advanced level of English is a plus.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>Programador de Software Senior - Con Experiencia</v>
+      </c>
+      <c r="B29" t="str">
+        <v>DUEÑO DEL MAR WOODWARD GROUP INTERNATIONAL LOGISTIC SERVICES THINK GLOBAL SA DE CV</v>
+      </c>
+      <c r="C29" t="str">
+        <v>DUEÑO DEL MAR WOODWARD GROUP INTERNATIONAL LOGISTIC SERVICES THINK GLOBAL SA DE CV - Manzanillo, Colima</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E29" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G29" t="str" xml:space="preserve">
+        <v xml:space="preserve">En Manzanillo, Colima.
+Escolaridad: Ingeniería en Desarrollo de Software o afín.
+Experiencia mínima: 5 años como programador de aplicaciones web.
+Actividades: Mantener la plataforma actual, desarrollar nuevas funcionalidades e innovar.
+Objetivo del Puesto: Es el responsable por el desarrollo de las piezas de software. Deberá programar, adaptar e integrar funcionalidades (módulos, pantallas, programas en general) conforme especificaciones (funcionales y técnicas) y ajustándose a tiempos y estándares de calidad y trabajo de la organización y del proyecto.
+Requisitos Técnicos (Indispensables):
+° Dominio en PHP (mínimo 5 años de experiencia)
+° Experiencia con bases de datos MSSQL (consultas avanzadas, procedimientos almacenados, optimización)
+° Dominio de JavaScript
+° Uso de herramientas de control de versiones (Git)
+Conocimientos Deseables:
+° Experiencia con tecnologías Microsoft como .NET / .NET Core
+° Familiaridad con frameworks como React
+° Conocimientos en desarrollo backend con NodeJS
+° Experiencia en integración de APIs REST y SOAP
+Idiomas:
+Español: Nativo o fluido
+Inglés: Intermedio-avanzado (capacidad para leer documentación técnica y participar en reuniones)
+Habilidades Blandas:
+° Pensamiento analítico y orientación a la resolución de problemas
+° Autonomía y responsabilidad en el cumplimiento de objetivos
+° Capacidad para trabajar en equipo
+° Buena comunicación y organización
+Experiencia trabajando en equipos con Scrum, Kanban o enfoques híbridos.
+Participación activa en: daily stand-up, planning, retros.
+Habilidad para escribir documentación clara de código, APIs y procesos técnicos.
+Capacidad para liderar técnicamente módulos o proyectos completos.
+Conocimiento sólido de principios SOLID, patrones de diseño, y arquitectura limpia.
+Ofrecemos: Nómina catorcenal, prestaciones superiores a las de ley, vales de despensa, oportunidad de crecimiento, buen ambiente laboral.</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>Desarrollador Fullstack Angular - Hibrido</v>
+      </c>
+      <c r="B30" t="str">
+        <v>CORUS</v>
+      </c>
+      <c r="C30" t="str">
+        <v>CORUS - Benito Juárez, Ciudad de México DF</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Presencial y remoto</v>
+      </c>
+      <c r="E30" t="str">
+        <v>$ 28,000.00 (Mensual)</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G30" t="str" xml:space="preserve">
+        <v xml:space="preserve">Corus Consulting somos una consultora con más de 15 años de experiencia con diferentes clientes a nivel mundial; tenemos presencia en Europa, Estados Unidos, Asia y México.
+Nos encontramos en búsqueda de tu talento para laborar como:
+Desarrollador Fullstack
+Experiencia:
+• Experiencia como desarrollador Fullstack de 4 años o más
+• Experiencia con herramientas de programación: Orientada a objetos, Angular, integración de servicios, microservicios.
+• Conocimientos en: Javascript, Typescript, Kubernetes, bases de datos, APIS, NodeJS, Inyección de dependencias, HTML5, CSS3,
+• Conocimientos deseables: Google Cloud Platform, Devops y Python
+Actividades a realizar:
+• Recibir y entender los requerimientos de negocio para poder desarrollarlos con tecnología Angular
+• Desarrollar nuevos módulos principalmente el consumo de servicios de un backend en Python.
+• Entendimiento de microservicios rest
+• Manejo de bases de datos
+Modalidad de trabajo:
+• Hibrido (2 a 3 días por semana de asistencia a oficinas)
+• Zona: México
+• Horario: lunes a viernes
+Ofrecemos:
+• Esquema 100% nomina
+• Sueldo $28,000 netos según experiencia
+• Prestaciones de ley: (12 días de vacaciones en el 1er año, 15 días de aguinaldo, 25% prima vacacional, Seguro social)
+• Prestaciones superiores a las de la ley
+• Cursos y/o certificaciones
+• Pago de PTU
+• Plan de carrera.</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>Líder técnico arquitecto Net y Java</v>
+      </c>
+      <c r="B31" t="str">
+        <v>BRENDCAR Soluciones en Informática, S.A. de C.V.</v>
+      </c>
+      <c r="C31" t="str">
+        <v>BRENDCAR Soluciones en Informática, S.A. de C.V. - Benito Juárez, Ciudad de México DF</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Presencial y remoto</v>
+      </c>
+      <c r="E31" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G31" t="str" xml:space="preserve">
+        <v xml:space="preserve">Licenciado en Informática, Sistemas o carrera a Fin
+- Conocimiento en implementación de integraciones entre sistemas legacy y SaaS
+- Conocimiento en preparación de diagramas de arquitectura, componentes y documentación necesaria para representar las integraciones
+- Conocimiento en desarrollo de aplicaciones Web, APIs, Servicios Web, implementación de Middlewares
+- Conocimiento en implementación de SSOs entrantes y salientes
+- Conocimiento de especificación técnica y documentación del requerimiento de desarrollo para la fábrica de software
+- Conocimiento de documentación y despliegue a servidores QA y Producción
+- Conocimiento de integraciones de código en controlador de versiones
+- Conocimiento en mejores prácticas de desarrollo de software y seguridad de aplicaciones
+- Seguimiento a fábrica de software, acompañamiento en pruebas y revisión de entregables
+- Conocimiento de:
+-- Java y NodeJS
+-- .Net, .Net Core, C#
+-- API REST, Web Services, Windows Comunication Foundation
+-- Angular, HTML, CSS, Javascript, jQuery
+-- SQL Server 2016
+-- Microsoft Azure, AWS
+-- GitHub, Azure DevOps
+-- Windows
+-- Software de ofimática, Visio, Project</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>Work From Home Senior Engineering Manager (Node.js) / Ref. 0111</v>
+      </c>
+      <c r="B32" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C32" t="str">
+        <v>BairesDev LLC - Ecatepec de Morelos, Estado de México</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E32" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G32" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Senior Engineering Manager (Node.js) at BairesDev
+Join as a Senior Engineering Manager (Node.js) to drive our development team with your deep understanding of Node.js. Youll oversee project development, set technical standards, and lead the team in delivering scalable and robust server-side applications, fostering innovation in backend development.
+What you will do:
+- Oversee the technical direction of Node.js projects, aligning technical decisions with business goals.
+- Lead and mentor a development team, promoting effective collaboration, skill development, and project success.
+- Define project requirements, scope, and timelines in collaboration with stakeholders.
+- Ensure the delivery of high-quality, scalable, and efficient Node.js solutions.
+- Stay informed on industry trends and emerging technologies, assessing their application in the teams projects.
+- Facilitate communication and problem-solving within the team, ensuring efficient workflow and addressing technical challenges proactively.
+Heres what we are looking for:
+- 7+ years of experience with Node.js.
+- Proficient in Agile methodologies, ensuring efficient project delivery and team collaboration.
+- In-depth knowledge of Design Patterns.
+- Advanced IT infrastructure knowledge.
+- Strong experience in application security best practices.
+- Proven track record in developing and integrating large-scale applications.
+- Expertise in both back-end and front-end development areas.
+- Skilled in conducting code reviews and managing CI/CD pipelines.
+- Expert understanding of clients requirements, assessing potential benefits and weaknesses.
+- Advanced knowledge of the trade-offs involved in choosing specific technologies or solutions.
+- Strong experience leading client and stakeholder meetings, effectively communicating technical concepts.
+- Demonstrated leadership skills in team management, task allocation, risk identification, decision-making, task estimation, conflict resolution, and project planning.
+- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>Work From Home Node.js Junior Developer / Ref. 0111</v>
+      </c>
+      <c r="B33" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C33" t="str">
+        <v>BairesDev LLC - Tulum, Quintana Roo</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E33" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G33" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Node.js Junior Developer at BairesDev
+As a Node.js Junior Developer, apply your JavaScript and Node.js skills to build efficient server-side applications. This role involves developing APIs, working with server-side logic, and enhancing your backend development capabilities.
+What you will do:
+- Develop and maintain Node.js applications, focusing on creating efficient back-end functionality.
+- Work on integrating user-facing elements with server-side logic, collaborating with front-end developers.
+- Troubleshoot and debug applications, contributing to improving application performance.
+- Participate in code reviews to learn and maintain high-quality coding standards.
+- Stay updated with new trends in Node.js and related technologies, understanding their application in development projects.
+- Participate actively in team meetings and contribute ideas to enhance project development and team collaboration.
+Heres what we are looking for:
+- 1+ year of experience with Node.js.
+- Good understanding of basic algorithms and data structures.
+- Basic knowledge of version control systems, preferably Git.
+- Ability to solve problems effectively and learn new technologies quickly.
+- Advanced level of English is a plus.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
+        <v>Becario Tester - Backend</v>
+      </c>
+      <c r="B34" t="str">
+        <v>No disponible</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Importante empresa del sector - Miguel Hidalgo, Ciudad de México DF</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Presencial y remoto</v>
+      </c>
+      <c r="E34" t="str">
+        <v>$ 8,000.00 (Mensual)</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G34" t="str" xml:space="preserve">
+        <v xml:space="preserve">BECARIO (A) TESTER BACKEND
+Escolaridad:
+Licenciatura Curso Ing. Sistemas Computacionales, Computación, Informática, Ingeniería de Software o afín en curso.
+Conocimientos Solidos:
+Javascript - Intermedio
+NodeJS - Intermedio
+TypeScript - Básico
+Base de datos SQL/Nosql
+Control de versiones (Git)
+Funcionamiento básico de APIS
+PRUEBAS DE SOFTWARE A NIVEL USUARIO
+Pruebas Caja Blanca
+Pruebas Caja Negra
+Requisitos:
+-Ser estudiante de los últimos semestres de la ingeniería
+-6to semestre en adelante
+-No egresados ni pasantes.
+-No estar a menos de 6 meses de concluir tus estudios universitarios.
+-Disponibilidad para cubrir 30h semanales (seis horas diarias lunes a viernes)
+Responsabilidades:
+Colaborar en la planificación y ejecución de pruebas de software
+Identificar, reportar y dar seguimiento a defectos o errores en el sistema
+Desarrollar y ejecutar pruebas automatizadas para servicios backend
+Ayudar en la documentación de los procesos de prueba y resultados
+Habilidades
+-Iniciativa, Proactivo, Análisis, integración a equipos de trabajo, trabajo bajo presión.
+Ofrecemos:
+-Beca económica mensual de $8,000 (libres)
+-Zona de trabajo Polanco,
+-Modalidad hibrida 3 dias presenciales, 2 dias home office
+-Indispensable vivir en CDMX o Municipios cercanos a la CDMX, no mas de 1 hr de Polanco
+Si te interesa la vacante envía tu CV por este medio.</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str">
+        <v>Desarrollador Fullstack (React + Node.js) - Presencial, tiempo completo</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Evolve Interactive SA de CV</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Evolve Interactive SA de CV - Benito Juárez, Ciudad de México DF</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E35" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G35" t="str" xml:space="preserve">
+        <v xml:space="preserve">Vacante: Desarrollador Fullstack (React + Node.js)
+Ubicación: División del Norte, CDMX
+Modalidad: Presencial, tiempo completo
+Industria: Tecnología / Startups
+Rango salarial: Negociable, según experiencia
+Tecnologías clave requeridas:
+Frontend: React (JavaScript o TypeScript), consumo de APIs REST
+Backend: Node.js con Express u otro framework similar
+Bases de datos: MongoDB y MySQL (modelado, consultas, mantenimiento)
+Web Scraping: Experiencia con herramientas como Puppeteer, Cheerio o similares
+Infraestructura: Conocimientos en servicios de AWS (EC2, S3, Lambda, RDS, etc.)
+Deseables:
+Control de versiones con Git (GitHub)
+Experiencia con Docker
+Familiaridad con herramientas de gestión (Trello, Jira, etc.)
+Conocimientos básicos en despliegue o monitoreo de servicios web
+Sobre el rol:
+Serás parte de un equipo de desarrollo ágil, enfocado tanto en tomar proyectos ya avanzados como en iniciar nuevas soluciones dentro de la empresa. Trabajarás de la mano con un líder de equipo técnico y colaborarás con un equipo pequeño y enfocado.
+¿Qué ofrecemos?
+Proyecto desafiante con enfoque en innovación y escalabilidad
+Cultura de colaboración, autonomía y mejora continua
+Crecimiento profesional dentro de un entorno de startups
+Prestaciones de ley y ambiente dinámico / Vales de despensa, comedor.
+Sueldo negociable de acuerdo a experiencia.</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str">
+        <v>Work From Home Senior Engineering Manager (Node.js) / Ref. 0111</v>
+      </c>
+      <c r="B36" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C36" t="str">
+        <v>BairesDev LLC - Hermosillo, Sonora</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E36" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G36" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Senior Engineering Manager (Node.js) at BairesDev
+Join as a Senior Engineering Manager (Node.js) to drive our development team with your deep understanding of Node.js. Youll oversee project development, set technical standards, and lead the team in delivering scalable and robust server-side applications, fostering innovation in backend development.
+What you will do:
+- Oversee the technical direction of Node.js projects, aligning technical decisions with business goals.
+- Lead and mentor a development team, promoting effective collaboration, skill development, and project success.
+- Define project requirements, scope, and timelines in collaboration with stakeholders.
+- Ensure the delivery of high-quality, scalable, and efficient Node.js solutions.
+- Stay informed on industry trends and emerging technologies, assessing their application in the teams projects.
+- Facilitate communication and problem-solving within the team, ensuring efficient workflow and addressing technical challenges proactively.
+Heres what we are looking for:
+- 7+ years of experience with Node.js.
+- Proficient in Agile methodologies, ensuring efficient project delivery and team collaboration.
+- In-depth knowledge of Design Patterns.
+- Advanced IT infrastructure knowledge.
+- Strong experience in application security best practices.
+- Proven track record in developing and integrating large-scale applications.
+- Expertise in both back-end and front-end development areas.
+- Skilled in conducting code reviews and managing CI/CD pipelines.
+- Expert understanding of clients requirements, assessing potential benefits and weaknesses.
+- Advanced knowledge of the trade-offs involved in choosing specific technologies or solutions.
+- Strong experience leading client and stakeholder meetings, effectively communicating technical concepts.
+- Demonstrated leadership skills in team management, task allocation, risk identification, decision-making, task estimation, conflict resolution, and project planning.
+- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str">
+        <v>Work From Home Node.js Junior Developer / Ref. 0111</v>
+      </c>
+      <c r="B37" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C37" t="str">
+        <v>BairesDev LLC - Benito Juárez, Quintana Roo</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E37" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G37" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Node.js Junior Developer at BairesDev
+As a Node.js Junior Developer, apply your JavaScript and Node.js skills to build efficient server-side applications. This role involves developing APIs, working with server-side logic, and enhancing your backend development capabilities.
+What you will do:
+- Develop and maintain Node.js applications, focusing on creating efficient back-end functionality.
+- Work on integrating user-facing elements with server-side logic, collaborating with front-end developers.
+- Troubleshoot and debug applications, contributing to improving application performance.
+- Participate in code reviews to learn and maintain high-quality coding standards.
+- Stay updated with new trends in Node.js and related technologies, understanding their application in development projects.
+- Participate actively in team meetings and contribute ideas to enhance project development and team collaboration.
+Heres what we are looking for:
+- 1+ year of experience with Node.js.
+- Good understanding of basic algorithms and data structures.
+- Basic knowledge of version control systems, preferably Git.
+- Ability to solve problems effectively and learn new technologies quickly.
+- Advanced level of English is a plus.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>Desarrollador Web - Front End/Back End/Full Stack</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Grupo seguridad integral</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Grupo seguridad integral - Venustiano Carranza, Ciudad de México DF</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Presencial y remoto</v>
+      </c>
+      <c r="E38" t="str">
+        <v>$ 20,000.00 (Mensual)</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Hace 5 días (actualizada)</v>
+      </c>
+      <c r="G38" t="str" xml:space="preserve">
+        <v xml:space="preserve">GRUPO SEGURIDAD INTEGRAL
+Líderes en traslado de valores y seguridad privada conformados por más de 50 empresas como: Cometra, Sepsa, Seguritec, Tecnoval, Tameme, Grumer, etc... Te invita a formar parte de su equipo de trabajo.
+REQUISITOS:
+- Licenciatura o Ingeniería en sistemas o similares.
+- Ingles: Básico - Intermedio
+CONOCIMIENTOS:
+- JavaScrip
+- NodeJs
+- React Jsa
+- Python
+- Base de datos SQL y No SQL
+- Mongo DB, My SQL, JWT
+- RESTful SOAP Services
+- Herramientas de seguimiento de proyectos (Jira, Notion y similares)
+- Controlador de versiones (Git, github)
+- Metodologías de desarrollo ágil (Scrum)
+- Windows, Linux
+FUNCIONES:
+- Desarrollo de nuevos proyectos, orientados a la web y aplicaciones de escritorio, así como mantenimiento y mejora a los ya existentes.
+- Integración de tecnologías innovadoras.
+- Resolución de problemas y atención a incidencias.
+- Control y monitoreo de proyectos.
+- Cumplimiento eficaz de tareas asignadas.
+- Desarrollo de módulos para lógica de negocios.
+- Maqueado y desarrollo de vistas basadas en UI/UX, etc.
 OFRECEMOS:
-Sueldo base Neto semana $2500 semanal
-Nocturno 5pm a 5am $2500 semanales
-Pago Semanal
-Vacante Fija
-Si estas interesada/o postúlate con tu CV actualizado</v>
-      </c>
-    </row>
-    <row r="9" xml:space="preserve">
-      <c r="A9" t="str">
-        <v>Auxiliares de limpieza contratación inmediata - Iztapalapa Central de abastos</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Idea Market Solutions</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
-      </c>
-      <c r="D9" t="str">
+- Sueldo de 18 mil a 22 mil según habilidades.
+- Prestaciones de Ley: IMSS desde el primer día, aguinaldo, vacaciones, prima vacacional.
+- Home office y presencial (oficinas en la Alcaldía Venustiano Carranza)
+Si te encuentras interesado(a) en la vacante favor de postularse por este medio y nos pondremos en contacto contigo.</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>Full Stack WordPress Developer</v>
+      </c>
+      <c r="B39" t="str">
+        <v>HAPPIEST MINDS INC</v>
+      </c>
+      <c r="C39" t="str">
+        <v>HAPPIEST MINDS INC - Gustavo A. Madero, Ciudad de México DF</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E39" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Hace 5 días (actualizada)</v>
+      </c>
+      <c r="G39" t="str" xml:space="preserve">
+        <v xml:space="preserve">Job Description
+Full Stack WordPress Developer - will work with a talented team to bridge the gap between graphical design and technical implementation.
+Responsible for maintaining and enhancing the organization’s custom WordPress technology stack, developing scalable solutions, and ensuring best practices in performance, security, and accessibility.
+Main Responsibilities
+• Construct new websites using a custom WordPress technology stack
+• Produce marketing assets to support new partners and programs
+• Migrate legacy websites into Client's standard custom WordPress stack
+• Maintain websites via production tickets and ad hoc projects
+• Implement new features/enhancements to site platform
+• Create custom modules for content entry and publishing automation
+• Optimize code bases via page speed diagnostics to improve browser efficiency and search rankings
+• Quality assurance reviews of other developers’ work
+• Troubleshoot errors by reviewing logs and browser consoles
+• Assist with feature documentation
+• Ensure the technical feasibility of UI/UX designs for responsive page development; strong understanding of responsive design best practices
+• Ensure accessibility compliancy via WCAG 2.0 A and AA standards
+• Collaborate with other team members and stakeholders
+Job Requirements
+• Bachelor’s degree in related field or equivalent work experience preferred
+• 5+ years full stack development experience
+• 3+ years WordPress development experience
+• Familiarity with WordPress database schema, ability to write and execute WordPress database queries, updates
+• Familiarity with WordPress wp-cli command line utility
+• Proficient understanding of front-end technologies including HTML5, CSS3, SASS, JS and jQuery. Experience with ReactJS, BootStrap, Vue is a plus
+• Experience working with A/B testing frameworks such as Webflow Intellimize
+• Advanced knowledge of PHP (5+ years) and MySQL (3+ years)
+• Experience implementing and consuming JSON RESTful APIs; experience with NodeJS is a plus
+• Experience working with Pantheon hosting platform (including Pantheon Terminus utility) is a plus
+• Worpress Plugin Development Experience
+• Experience working with Azure DevOps
+• Familiarity with Elementor visual designer experience
+• Experience with Tealium customer data platform is a plus
+• Experience Conversion Rate Optimization strategies, implementing A/B testing (using tools such as Intellimize), is a strong plus
+• Understanding of custom post type development and implementation via visual designers
+• Understanding of standard web performance benchmarks such as Google Core Web Vitals
+• Experience with CMS parent and child theme development
+• Experience with GIT version control tools and local development
+• Ability to interpret Figma designs into code
+• Strong understanding of best practices in software design and implementation
+• Strong understanding of data architecture
+• Experience with code security standards, such as using PHPCS, Sonar Cube code scanning utilities nice to have
+• Experience performing code reviews in collaborative team environment
+• Demonstrated ability to effectively and indepently work within a mid-sized development team using formal SDLC methodologies such as Scrum. Proven ability to assess, estimate and deliver solutions that meet requirements and timelines.
+• Knowledge of schema markup and code optimization for search rankings
+• Analytical mindset with strong quantitative and problem-solving skills
+• Effective communication and documentation skills</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>Programador/a - Temporal</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Caja Morelia Valladolid</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Caja Morelia Valladolid - Morelia, Michoacán</v>
+      </c>
+      <c r="D40" t="str">
         <v>Tiempo Completo</v>
       </c>
-      <c r="E9" t="str">
-        <v>$ 10,000.00 (Mensual)</v>
-      </c>
-      <c r="F9" t="str">
-        <v>6 de julio (actualizada)</v>
-      </c>
-      <c r="G9" t="str" xml:space="preserve">
-        <v xml:space="preserve">Importante empresa de residuos está en busca de tu talento
-Solicitamos personal de limpieza (diversas áreas)
-Barrenderos
-Auxiliares de limpieza de pasillos
-Lavadores de camiones
-ZONA IZTAPALAPA
-OFRECEMOS:
-Sueldo semanal (dependiendo de la posición)
-Horario dependiendo de la operación
-Pagos semanales
-Requisitos:
-Disponibilidad de horario
-Experiencia no necesaria o mínima
-Zona de trabajo
-CENTRAL DE ABASTOS IZTAPALAPA
-Si estas interesada/o postúlate con tu CV actualizado o marca al 5580109495</v>
+      <c r="E40" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Hace 5 días (actualizada)</v>
+      </c>
+      <c r="G40" t="str" xml:space="preserve">
+        <v xml:space="preserve">Empresa Mexicana dedicada al servicio Financiero con 59 años de historia y presencia nacional, Caja Morelia Valladolid solicita personal.
+PROGRAMADOR TEMPORAL
+OFECEMOS:
+-Sueldo base.
+-Prestaciones superiores a las de Ley.
+-Vales de despensa 8% del sueldo bruto mensual.
+-Fondo de ahorro del 13% del sueldo bruto mensual.
+-Seguro de vida.
+-Prima vacacional 100%.
+-30 días de aguinaldo desde el primer año.
+-Uniformes.
+-Opciones a becas.
+- Y mucho más...
+REQUISITOS:
+•Licenciatura o ingeniería Titulado en Informática, Sistemas Computacionales, TIC’s a fines.
+•Dominio de bases de datos SQL SERVER
+•Dominio de .NET C# o JAVA
+•Dominio Programación web (Html5, Maquetado CSS, Javascript, ECMAScript 2015+, VueJS2)
+•Dominio API Rest y SOAP (Net Core, nodeJS)
+•Dominio Programación móvil (Android, IOS, híbrido o nativo)
+•Manejo de Control de Versiones GIT.
+•Manejo de Plataforma JIRA &amp; Confluence
+•Deseable Delphi 6
+Horario de trabajo: Lunes a Viernes de 8:30 am a 5 pm y Sábados de 8:30 am a 2 pm
+Interesados postularse por este medio</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>Java Fullstack React - Backend or Frontend Engineers</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Adecco</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Adecco - Benito Juárez, Ciudad de México DF</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E41" t="str">
+        <v>$ 60,000.00 (Mensual)</v>
+      </c>
+      <c r="F41" t="str">
+        <v>25 de junio (actualizada)</v>
+      </c>
+      <c r="G41" t="str" xml:space="preserve">
+        <v xml:space="preserve">Roles: Java, Java React, Java Back End, Java Front End Engineers
+Requirements and Offer Job
+Education: Bachelor’s Degree in Information Technologies or related.
+Languages: High level of proficiency in English (speaking, reading, writing) Level: B2, C1, C2, Fluent
+Modality: Home Office 100 %
+Location: Mexico
+Workday: Monday - Friday
+Gross Salary: $60,000 MXN /Month
+Hiring: 100 % Payroll
+Benefits: Social Insurance (IMSS), 12 Vacation days per year, 15 Days of Christmas Bonus, 25 % Vacation Bonus, Life Insurance.
+Plus Benefits: Online Technical Trainings and Access to Academies and Certifications.
+Job Stability and Professional Development
+Role: Java Engineer
+Design, develop, and maintain advanced software systems while adhering to high standards for code quality, testing, and automation.
+Collaborate with cross-functional teams to deliver scalable solutions, mentor junior developers, and support DevOps practices, including CI/CD pipelines and cloud infrastructure.
++ 7 years of hands-on experience in software development, with expertise in system design, architecture, and building enterprise-level applications.
+Software Development Languages: Proficiency: Java (required)
+Frameworks: Spring Boot
+RESTful architecture and microservices
+Messaging technologies (e.g., Kafka, SQS
+Cloud platforms (AWS preferred)
+Kubernetes, Lambda (preferred)
+CI/CD pipelines (e.g., GitLab CI/CD, Terraform)
+Test automation (Unit, Integration, Regression, Load)
+Familiarity with relational databases
+Logging and monitoring tools (e.g., New Relic, Splunk)
+Role: Java React
+Engineer with strong UI experience with full stack experience.
+Expectation is the candidates are strong on React based web UI development.
+They are also open and willing to do backend development as per project needs.
+Engineer with full stack development experience and stronger backend development experience.
+Again, they should be able to do UI development as needed but focus would be more on backend development.
+Design, Development, Testing, Documentation, Data analysis, On-call support during working hours.
+Design, develop, and maintain advanced software systems while adhering to high standards for code quality, testing, and automation.
+Collaborate with cross-functional teams to deliver scalable solutions, mentor junior developers, and support DevOps practices, including CI/CD pipelines and cloud infrastructure.
+Software Engineer with + 5 years of hands-on experience in software development, with expertise in system design, architecture, and building enterprise-level applications.
+Proficiency: Java (required)
+Frameworks: Spring Boot
+RESTful architecture and microservices
+Messaging technologies (e.g., Kafka, SQS)
+Cloud platforms (AWS preferred)
+Kubernetes, Lambda (preferred)
+CI/CD pipelines (e.g., GitLab CI/CD, Terraform)
+Test automation (Unit, Integration, Regression, Load)
+Familiarity with relational databases
+Logging and monitoring tools (e.g., New Relic, Splunk)
+Role: Java BackEnd
+Have experience on the entire tech stack - frontend, backend, data engineering, devops, support.
+Be an expert in backend development, proficient in k8s, Kafka, AWS ecosystems, comfortable designing and implementing Rest / GraphQL services on Java / Springboot.
+Have exposure to system design, be able to think comprehensively about integrations with other components and / or systems
+Master CS fundamentals - time / space complexity analysis in context of data structures and algorithms.
+Leads and works with other software engineers on design best practices and conducts code reviews.
+Drive end user experience goals and initiatives for on-going end user productivity improvements
+Facilitates cross functional troubleshooting, root cause analysis and engages others when needed.
+Responsible for creating, evaluating, and contributing to feature detailed designs.
+Design, develop, and implement software utilizing an agile project cycle.
+Mentor others on the team and raise the bar for technical knowledge across a wide spectrum.
+Demonstrates thorough knowledge of information technology concepts issues, trends and best practices as they relate to Cloud technologies and system integrations.
+Apply and share knowledge of security coding practices and secure system fundamentals.
+Experience with cloud-based services such as AWS.
+Familiarity with Continuous Integration and Continuous Delivery methodologies and tooling.
+A deep proficiency of an OOP language.
+Role: Java FrontEnd
+Design, code, devops, incident engagement during office hours
+Have experience on the entire tech stack - frontend, backend, data engineering, devops, support.
+Be an expert in frontend development, proficient in ReactJS ecosystem, comfortable designing and implementing Rest / GraphQL services on NodeJS / Typescript.
+Have exposure to system design, be able to think comprehensively about integrations with other components and / or systems
+Master CS fundamentals – time / space complexity analysis in context of data structures and algorithms.
+Leads and works with other software engineers on design best practices and conducts code reviews.
+Facilitates cross functional troubleshooting, root cause analysis and engages others when needed.
+Responsible for creating, evaluating, and contributing to feature detailed designs.
+Design, develop, and implement software utilizing an agile project cycle.
+Mentor others on the team and raise the bar for technical knowledge across a wide spectrum.
+Demonstrates thorough knowledge of information technology concepts issues, trends and best practices as they relate to Cloud technologies and system integrations.
+Apply and share knowledge of security coding practices and secure system fundamentals.
+Experience with cloud-based services such as AWS.
+Familiarity with Continuous Integration and Continuous Delivery methodologies and tooling.
+A deep proficiency of an OOP language.</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str">
+        <v>Desarrollador iOS</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Adecco</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Adecco - Cuauhtémoc, Ciudad de México DF</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E42" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F42" t="str">
+        <v>24 de junio (actualizada)</v>
+      </c>
+      <c r="G42" t="str" xml:space="preserve">
+        <v xml:space="preserve">Conocimientos Técnicos:
+Conocimientos robustos en aplicaciones móviles, principalmente iOS
+Responsable de diseñar, programar y estabilizar las aplicaciones o sistemas mediante diferentes lenguajes de programación o manejadores de bases de datos para proveer a los usuarios de negocio nuevas funcionalidades y estabilidad en las aplicaciones, asegurando entrega en tiempo, calidad y apegándose a los estándares y metodologías definidos.
+Participa en los diseños técnicos y funcionales.
+Cumple con los estándares de desarrollo, diseño, arquitectura, seguridad y Configuration Management.
+Define en conjunto con Arquitectura y Seguridad de la información estándares de desarrollo.
+Documenta las aplicaciones y comparte el conocimiento técnico siendo una referencia para acompañar a sus compañeros mediante capacitación técnica.
+Lidera grupos de trabajo en la resolución de problemas.
+Responsable de documentación del proceso de liberación, apoya en su presentación en foros para su aprobación.
+Responsable de validar la liberación, obtención de vobos y seguimiento al periodo de garantía.
+Soporte hacia la línea de Negocio para entendimiento de las reglas de negocio, funcionalidades y comportamiento de los aplicativos para la definición de la operación.
+Ejecuta y documenta pruebas unitarias.
+Tecnologías:
+Apache Tomcat, Jenkins, Github, SonarQube o similar.
+Construcción de código JavaScript (NodeJs) utilizando Maven
+Docker
+Kubernetes
+BBDD relacionales y no relacionales.
+Conocimientos básicos Nube pública, preferentemente Azure (Resource groups, Blob Storage, Functions, Application gateway, App Service, Azure DevOps).
+Conocimientos Funcionales:
+Responsable de dirigir, alinear e implementar soluciones tecnológicas que evolucionen y provean estabilidad a las aplicaciones asignadas a su célula de Transformación.
+Acompañar al equipo de Arquitectura en los diseños de solución técnica.
+Comunica rápida y oportunamente información relativa a las aplicaciones, riesgos existentes y vulnerabilidades a su líder de célula para la toma oportuna de decisiones.</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str">
+        <v>Desarrollador Full Stack</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Transportes Castores de Baja California S.A. de C.V.</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Transportes Castores de Baja California S.A. de C.V. - León, Guanajuato</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E43" t="str">
+        <v>$ 23,001.00 (Mensual)</v>
+      </c>
+      <c r="F43" t="str">
+        <v>23 de junio (actualizada)</v>
+      </c>
+      <c r="G43" t="str" xml:space="preserve">
+        <v xml:space="preserve">Desarrollador Full Stack
+Sueldo: $14,000 – $23,000 MXN mensuales
+Horario: Lunes a viernes de 9:00 a 18:00 hrs
+Descripción del puesto:
+Buscamos un Desarrollador Full Stack con sólida experiencia en Python y desarrollo web tanto frontend como backend. Si tienes conocimientos en Javascript, Typescript y frameworks como Angular 8 y NodeJS (Express), además de habilidades en Java (JSP), CSS y UI/UX, ¡te queremos en nuestro equipo!
+Requisitos indispensables:
+Experiencia comprobable en Python
+Desarrollo web frontend y backend
+Javascript y Typescript
+Angular 8 y Angular Material
+NodeJS con Express
+Java (JSP)
+CSS y conocimientos en UI/UX
+Despliegue de aplicaciones en servidores Linux
+Manejo de estructuras de datos
+Conocimiento en metodologías ágiles
+Ofrecemos:
+Salario competitivo desde $14,000 hasta $23,000 MXN según experiencia
+Horario fijo de lunes a viernes de 9:00 a 18:00
+Excelente ambiente laboral y oportunidad de crecimiento</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str">
+        <v>Desarrollador/a o Técnico en Sistemas - Proyectos Freelance por Horas</v>
+      </c>
+      <c r="B44" t="str">
+        <v>ACPOS</v>
+      </c>
+      <c r="C44" t="str">
+        <v>ACPOS - Mérida, Yucatán</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Presencial y remoto</v>
+      </c>
+      <c r="E44" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Hace más de 30 días</v>
+      </c>
+      <c r="G44" t="str" xml:space="preserve">
+        <v xml:space="preserve">En ACPOS Ingeniería y Desarrollo estamos buscando talento freelance para sumarse a nuestra bolsa de trabajo por proyectos por horas. Participa en soluciones tecnológicas que impactan directamente en empresas reales del sector restaurantero, hotelero y retail.
+Buscamos perfiles con experiencia en una o más de las siguientes tecnologías:
+Frontend y Backend: HTML, CSS, JavaScript, React, Angular, Vue, NodeJS, C#, Java, PHP
+Bases de Datos: MySQL, SQL Server, PostgreSQL
+Frameworks y APIs: Django, .NET, Slim3, API REST
+Herramientas y DevOps: Git, GitHub, Postman, AWS
+Mobile &amp; UI: Android, Swift, WPF, Electron, Figma
+Integraciones: Aloha Connect</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str">
+        <v>Programador php</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Versatilidad Internacional de Cooperación Oportuna</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Versatilidad Internacional de Cooperación Oportuna - Benito Juárez, Ciudad de México DF</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E45" t="str">
+        <v>$ 18,000.00 (Mensual)</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Hace más de 30 días</v>
+      </c>
+      <c r="G45" t="str" xml:space="preserve">
+        <v xml:space="preserve">Importante grupo, líder en América Latina, solicita "Programador (a)"
+Perfil profesional:
+Licenciatura o ingeniería concluida en ciencias de la computación, informática o a fin.
+Experiencia mínima de 3 años en desarrollo e integraciones
+La principal función el desarrollo FullStack en diferentes lenguajes de programación
+Conocimientos:
+Dominio de lenguajes de programación PHP, JAVA, NodeJS,Android Studio, Python, CSS, , Javascript, canvas html5,Bootstrap, JSON, XM, Entre otros, Base de datos MariaDB, MySQL, Postgrest, SQL, DJango, entre otros. FTP, SSH, Navicat, PGAdmin, Moodle, desarollo de plugin para Moodle y , Wordpress y Woocomerce. Wordpress, integración entre aplicaciones por Api, o Webhons, ChatGPT, ChatBots. entre otros LLM de AI, Desarrollo y consumo de API y Web service.
+Ofrecemos
+Salario base de $18,000 neto
+Prestaciones de Ley
+Horario: lunes a viernes 9:00 - 18:00 horas</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str">
+        <v>Desarrollador php - Con experiencia Laravel 2 años</v>
+      </c>
+      <c r="B46" t="str">
+        <v>TOOSOLUTION</v>
+      </c>
+      <c r="C46" t="str">
+        <v>TOOSOLUTION - Aguascalientes, Aguascalientes</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E46" t="str">
+        <v>$ 12,000.00 (Mensual)</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Hace más de 30 días</v>
+      </c>
+      <c r="G46" t="str" xml:space="preserve">
+        <v xml:space="preserve">TOOSOLUTION DE MEXICO somos una empresa 100% mexicana comprometida hacia sus clientes, con una excelente atención personal. Brindamos a las micro y medianas empresas la competitividad y productividad necesarias brindándoles las herramientas tecnológicas que necesitan.
+Cualidades de la persona: • Responsable • Trabajo en Equipo • Proactivo • Facilidad de aprendizaje • Autodidacta • Liderazgo • Trabajo bajo presión • Disponibilidad de viajar • Disponibilidad de cambio de residencia
+Un año mínimo de experiencia con las siguientes Skills puede ser experiencia como freelance pero que sea comprobable.
+Idioma: • Español nativo • Ingles básico
+BackEnd: • PHP • NodeJS • Laravel
+FrontEnd: • JavaScript • Tailwind • Bootstrap • CSS • HTML
+Bases de Datos: • MySql • PostgreSql
+Software: • VS Code • HeidiSql • Git • Laragon • Note++
+Ofrecemos:
+Salario de acorde a Conocimiento a partir de $12,000.00
+Prestaciones de Ley.
+Oportunidad de crecimiento.
+Aprendizaje y crecimiento profesional.</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str">
+        <v>Desarrollador/a de software - con experiencia</v>
+      </c>
+      <c r="B47" t="str">
+        <v>ADH GUARDIAN MEXICO</v>
+      </c>
+      <c r="C47" t="str">
+        <v>ADH GUARDIAN MEXICO - Hermosillo, Sonora</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E47" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Hace más de 30 días</v>
+      </c>
+      <c r="G47" t="str" xml:space="preserve">
+        <v xml:space="preserve">Programador FullStack:
+o Conocimientos solidos en cualquiera de
+las siguientes áreas:
+§ Programador móvil:Android en Java, iOS en Swift y StoryBoard
+§ Programación Backend:PHP, JavaScript con NodeJs, Base de datos relacionales
+§ DevOps (No indispensable):AWS, Servidores Apache, Linux
+§ Con preferencias de dominio de Inglés</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="A48" t="str">
+        <v>Desarrollador Front End - Desarrollar y optimizar interfaces web y móviles</v>
+      </c>
+      <c r="B48" t="str">
+        <v>SB Soluciones</v>
+      </c>
+      <c r="C48" t="str">
+        <v>SB Soluciones - Mérida, Yucatán</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E48" t="str">
+        <v>$ 28,000.00 (Mensual)</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Hace más de 30 días</v>
+      </c>
+      <c r="G48" t="str" xml:space="preserve">
+        <v xml:space="preserve">Desarrollador Front End
+Desarrollar y optimizar interfaces web y móviles
+Experiencia en desarrollo de aplicaciones web
+Desarrollar interfaces de usuario intuitivas, responsivas y eficientes para aplicaciones web y móviles.
+Crear y mantener componentes reutilizables que aseguren escalabilidad y consistencia en los proyectos.
+Integrar el frontend con servicios y APIs para garantizar una comunicación fluida entre cliente y servidor.
+Garantizar la calidad del código mediante pruebas, buenas prácticas y optimización del rendimiento.
+Colaborar con el equipo de diseño y producto para transformar requerimientos en experiencias de usuario efectivas.
+Seguir metodologías ágiles de desarrollo y participar en la mejora continua de procesos.
+Mantener y actualizar aplicaciones existentes, asegurando su estabilidad y evolución.
+Investigar y proponer nuevas herramientas y tecnologías para mejorar el desarrollo y la experiencia de usuario.
+Documentar código, decisiones técnicas y procesos de desarrollo, facilitando la comprensión y mantenimiento de las soluciones.
+Participar en revisiones de código y compartir conocimientos con el equipo para fomentar el aprendizaje continuo.
+Participar en reuniones diarias y planificación de sprints en metodologías ágiles (Scrum/Kanban).
+Estimar tiempos de desarrollo y dar seguimiento a tareas asignadas en Jira u otras herramientas de gestión.
+Colaborar en retrospectivas para mejorar procesos de desarrollo dentro del equipo.
+Competencias Técnicas
+Jira
+Git/GitHub/GitLab
+Figma (Deseable)
+Slack (o herramienta de comunicación similar)
+Confluence (o herramienta de documentación interna)
+Cypress o Jasmine (para pruebas)
+Docker (Deseable) A P T I T U D E S T É C N I C A S T A C T I C A S
+Visual Studio Code (o editor de código similar)
+Postman (para pruebas de API) (no necesario)
+Desarrollo de frontend basado en NodeJS. x X
+Experiencia en Angular v17+ para desarrollo de aplicaciones web.
+Manejo de aplicaciones Cliente-Servidor.
+Uso de TypeScript para desarrollo seguro y tipado fuerte.
+CSS/SCSS para estilización avanzada y diseño responsivo.
+Consumo de APIs REST y GraphQL. � � Manejo de frameworks como React.
+Conocimientos básicos en bases de datos relacionales y no relacionales.
+Experiencia en desarrollo de aplicaciones móviles (Ionic, React Native).
+Familiaridad con herramientas de diseño como Figma
+Nuestra oferta
+Sueldo competitivo
+Capacitación constante
+Prestaciones de Ley
+Desarrollo personal
+Disponibilidad de horario</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G48"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output/resultadosCompuTrabajo.xlsx
+++ b/output/resultadosCompuTrabajo.xlsx
@@ -442,7 +442,7 @@
         <v>A convenir</v>
       </c>
       <c r="F2" t="str">
-        <v>Hace 28 minutos (actualizada)</v>
+        <v>Hace 47 minutos (actualizada)</v>
       </c>
       <c r="G2" t="str" xml:space="preserve">
         <v xml:space="preserve">Buscamos un barrendero para tareas de limpieza y mantenimiento de áreas comunes.
@@ -474,7 +474,7 @@
         <v>$ 10,000.00 (Mensual)</v>
       </c>
       <c r="F3" t="str">
-        <v>Hace 8 horas (actualizada)</v>
+        <v>Hace 9 horas (actualizada)</v>
       </c>
       <c r="G3" t="str" xml:space="preserve">
         <v xml:space="preserve">Importante mercado está en busca de tu talento
@@ -582,7 +582,7 @@
         <v>A convenir</v>
       </c>
       <c r="F6" t="str">
-        <v>Hace 23 horas (actualizada)</v>
+        <v>Ayer (actualizada)</v>
       </c>
       <c r="G6" t="str" xml:space="preserve">
         <v xml:space="preserve">Se solicita para Central de Abastos:

--- a/output/resultadosCompuTrabajo.xlsx
+++ b/output/resultadosCompuTrabajo.xlsx
@@ -442,7 +442,7 @@
         <v>A convenir</v>
       </c>
       <c r="F2" t="str">
-        <v>Hace 47 minutos (actualizada)</v>
+        <v>Hace 57 minutos (actualizada)</v>
       </c>
       <c r="G2" t="str" xml:space="preserve">
         <v xml:space="preserve">Buscamos un barrendero para tareas de limpieza y mantenimiento de áreas comunes.

--- a/output/resultadosCompuTrabajo.xlsx
+++ b/output/resultadosCompuTrabajo.xlsx
@@ -442,7 +442,7 @@
         <v>A convenir</v>
       </c>
       <c r="F2" t="str">
-        <v>Hace 57 minutos (actualizada)</v>
+        <v>Hace 1 hora (actualizada)</v>
       </c>
       <c r="G2" t="str" xml:space="preserve">
         <v xml:space="preserve">Buscamos un barrendero para tareas de limpieza y mantenimiento de áreas comunes.
@@ -512,7 +512,7 @@
         <v>$ 10,000.00 (Mensual)</v>
       </c>
       <c r="F4" t="str">
-        <v>Hace 21 horas (actualizada)</v>
+        <v>Hace 22 horas (actualizada)</v>
       </c>
       <c r="G4" t="str" xml:space="preserve">
         <v xml:space="preserve">Importante empresa de MANTENIMIENTO está en busca de tu talento
@@ -547,7 +547,7 @@
         <v>$ 8,000.00 (Mensual)</v>
       </c>
       <c r="F5" t="str">
-        <v>Hace 21 horas (actualizada)</v>
+        <v>Hace 22 horas (actualizada)</v>
       </c>
       <c r="G5" t="str" xml:space="preserve">
         <v xml:space="preserve">Importante empresa de MANTENIMIENTO está en busca de tu talento

--- a/output/resultadosCompuTrabajo.xlsx
+++ b/output/resultadosCompuTrabajo.xlsx
@@ -442,7 +442,7 @@
         <v>A convenir</v>
       </c>
       <c r="F2" t="str">
-        <v>Hace 1 hora (actualizada)</v>
+        <v>Hace 2 horas (actualizada)</v>
       </c>
       <c r="G2" t="str" xml:space="preserve">
         <v xml:space="preserve">Buscamos un barrendero para tareas de limpieza y mantenimiento de áreas comunes.
@@ -474,7 +474,7 @@
         <v>$ 10,000.00 (Mensual)</v>
       </c>
       <c r="F3" t="str">
-        <v>Hace 9 horas (actualizada)</v>
+        <v>Hace 10 horas (actualizada)</v>
       </c>
       <c r="G3" t="str" xml:space="preserve">
         <v xml:space="preserve">Importante mercado está en busca de tu talento

--- a/output/resultadosCompuTrabajo.xlsx
+++ b/output/resultadosCompuTrabajo.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,56 +427,303 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>Barrendero con o sin experiencia - Zona Central de abastos / Iztapalapa</v>
+        <v>EG Barrendero Nocturno Central de Abastos</v>
       </c>
       <c r="B2" t="str">
-        <v>No disponible</v>
+        <v>Idea Market Solutions</v>
       </c>
       <c r="C2" t="str">
-        <v>Importante empresa del sector - Iztapalapa, Ciudad de México DF</v>
+        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
       </c>
       <c r="D2" t="str">
         <v>Tiempo Completo</v>
       </c>
       <c r="E2" t="str">
-        <v>A convenir</v>
+        <v>$ 10,000.00 (Mensual)</v>
       </c>
       <c r="F2" t="str">
-        <v>Hace 2 horas (actualizada)</v>
+        <v>Hace 11 minutos (actualizada)</v>
       </c>
       <c r="G2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Buscamos un barrendero para tareas de limpieza y mantenimiento de áreas comunes.
-El candidato seleccionado se encargará de limpiar y organizar espacios, garantizando un ambiente seguro y agradable.
-Se requiere responsabilidad, puntualidad y capacidad para trabajar en equipo.
-Se valorará experiencia previa en limpieza, aunque no es imprescindible.
-El trabajo es de tipo presencial y se realizará en horarios flexibles según las necesidades del equipo.
-Ofrecemos un ambiente de trabajo colaborativo y un salario competitivo acorde a la experiencia.
-Si tienes interés en mantener un entorno limpio y ordenado, esta oportunidad es para ti.
-Envía tu currículum con tus habilidades y experiencia relevante.
-Buscamos alguien comprometido con la excelencia en limpieza y con un enfoque positivo hacia el trabajo en equipo.
-Si tienes pasión por el mantenimiento y la limpieza, esta posición podría ser ideal para ti.</v>
+        <v xml:space="preserve">Importante empresa de MANTENIMIENTO está en busca de tu talento
+Solicita: BARRENDERO NOCTURNO
+OFRECEMOS:
+• Sueldo de hasta $10,000
+• Prestaciones de ley
+• PAGO SEMANAL
+REQUISITOS:
+• SIN EXPERIENCIA
+• Escolaridad mínima
+• L a D
+• Horario fijo
+ZONA DE TRABAJO: CENTRAL DE ABASTOS, IZTAPALAPA, CDMX
+Si estas interesada/o postúlate con tu CV actualizado</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
+        <v>EG Barrendero Vespertino Central de Abastos</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Idea Market Solutions</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E3" t="str">
+        <v>$ 8,000.00 (Mensual)</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Hace 11 minutos (actualizada)</v>
+      </c>
+      <c r="G3" t="str" xml:space="preserve">
+        <v xml:space="preserve">Importante empresa de MANTENIMIENTO está en busca de tu talento
+Solicita: BARRENDERO VESPERTINO
+OFRECEMOS:
+• Sueldo de hasta $8,000
+• Prestaciones de ley
+• PAGO SEMANAL
+REQUISITOS:
+• SIN EXPERIENCIA
+• Escolaridad mínima
+• L a D
+• Horario fijo
+ZONA DE TRABAJO: CENTRAL DE ABASTOS, IZTAPALAPA, CDMX
+Si estas interesada/o postúlate con tu CV actualizado</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>EG Barrendero Vespertino Central de Abastos</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Idea Market Solutions</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E4" t="str">
+        <v>$ 8,000.00 (Mensual)</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Hace 7 días (actualizada)</v>
+      </c>
+      <c r="G4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Importante empresa de MANTENIMIENTO está en busca de tu talento
+Solicita: BARRENDERO VESPERTINO
+OFRECEMOS:
+• Sueldo de hasta $8,000
+• Prestaciones de ley
+• PAGO SEMANAL
+REQUISITOS:
+• SIN EXPERIENCIA
+• Escolaridad mínima
+• L a D
+• Horario fijo
+ZONA DE TRABAJO: CENTRAL DE ABASTOS, IZTAPALAPA, CDMX
+Si estas interesada/o postúlate con tu CV actualizado</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>EG Barrendero Nocturno Central de Abastos</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Idea Market Solutions</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E5" t="str">
+        <v>$ 10,000.00 (Mensual)</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Hace 5 horas (actualizada)</v>
+      </c>
+      <c r="G5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Importante empresa de MANTENIMIENTO está en busca de tu talento
+Solicita: BARRENDERO NOCTURNO
+OFRECEMOS:
+• Sueldo de hasta $10,000
+• Prestaciones de ley
+• PAGO SEMANAL
+REQUISITOS:
+• SIN EXPERIENCIA
+• Escolaridad mínima
+• L a D
+• Horario fijo
+ZONA DE TRABAJO: CENTRAL DE ABASTOS, IZTAPALAPA, CDMX
+Si estas interesada/o postúlate con tu CV actualizado</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>Barrenderos matutino y nocturno con o sin experiencia</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Idea Market Solutions</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E6" t="str">
+        <v>$ 8,000.00 (Mensual)</v>
+      </c>
+      <c r="F6" t="str">
+        <v>14 de julio (actualizada)</v>
+      </c>
+      <c r="G6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Unete al mejor equipo de trabajo como BARRENDER@
+TURNOS DISPONIBLES
+matutino: 9:00 am - 6:00 pm
+nocturno: 6pm - 6 am
+Lunes a Sábado a Domingo descanso rolado entre semana
+Salario: $2,000 semanales ( $2,500 NOCTURNO)
++ prestaciones+uniformes
+Sexo indistinto
+No necesitas experiencia
+Contratación inmediata
+Zona de trabajo: Central de Abastos CDMX ( IZTAPALAPA)</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>Barrendero - Central de abastos cdmx (iztapalapa)</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Idea Market Solutions</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E7" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Hace 15 horas (actualizada)</v>
+      </c>
+      <c r="G7" t="str" xml:space="preserve">
+        <v xml:space="preserve">Se solicita para Central de Abastos:
+Contratación inmediata
+- Barrenderos Nocturno
+Horario 5 pm a 5 am
+Sueldo: 10 mil pesos mensuales
+- Barrenderos Vespertino
+Horario de 10 am a 7:00 pm
+Sueldo: 8000 pesos mensuales
+Barrido de patios de la central
+Documentos: Acta, ine, curp, nss, constancia sat, comprobante domicilio, estado de cuenta bancario</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v>Barrendero con turno fijo en la tarde - En Central de Abastos Iztapalapa</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Idea Market Solutions</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E8" t="str">
+        <v>$ 10,000.00 (Mensual)</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Hace 15 horas (actualizada)</v>
+      </c>
+      <c r="G8" t="str" xml:space="preserve">
+        <v xml:space="preserve">Importante empresa dedicada al sector limpieza solicita Barrendero.
+Requisitos:
+- Mayor de 18 años
+- Experiencia no necesaria
+Ofrecemos:
+- $8,000 mensuales netos (Pago semanal)
+- Prestaciones de ley
+- Trabajo de Lunes a Domingo con 1 descanso en la semana
+- Horario de 10:00 am a 7:00 pm
+Zona de trabajo: Central de Abastos Iztapalapa.
+Actividades : acompañamiento de camiones
+Levantar basura de cajones de tolva
+Levantar basura que cae de los camiones al momento de la carga
+Levantar basura al paso del recorrido
+Interesados que cuenten con documentos (Acta de nacimiento, Cuenta de Banco, Comprobante de domicilio, INE, CURP, IMSS, RFC) postularse por éste medio, y un ejecutivo te contactará por whatsapp.</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v>Barrendero Nocturno - En Central de Abastos Iztapalapa</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Idea Market Solutions</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E9" t="str">
+        <v>$ 10,000.00 (Mensual)</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Hace 15 horas (actualizada)</v>
+      </c>
+      <c r="G9" t="str" xml:space="preserve">
+        <v xml:space="preserve">Importante empresa dedicada al sector limpieza solicita Barrendero para el turno Nocturno.
+Requisitos:
+- Mayor de 18 años
+- Experiencia no necesaria
+Ofrecemos:
+- $10,000 mensuales netos (Pago semanal)
+- Prestaciones de ley
+- Trabajo de Lunes a Domingo con 1 descanso en la semana
+- Horario de 5:00 pm a 5:00 am
+Zona de trabajo: Central de Abastos Iztapalapa.
+Actividades : acompañamiento de camiones
+Levantar basura de cajones de tolva
+Levantar basura que cae de los camiones al momento de la carga
+Levantar basura al paso del recorrido
+Interesados que cuenten con documentos (Acta de nacimiento, Cuenta de Banco, Comprobante de domicilio, INE, CURP, IMSS, RFC) postularse por éste medio, y un ejecutivo te contactará por whatsapp.</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
         <v>Barrendero Central de Abastos - Iztapalapa</v>
       </c>
-      <c r="B3" t="str">
-        <v>Idea Market Solutions</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Tiempo Completo</v>
-      </c>
-      <c r="E3" t="str">
+      <c r="B10" t="str">
+        <v>Idea Market Solutions</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E10" t="str">
         <v>$ 10,000.00 (Mensual)</v>
       </c>
-      <c r="F3" t="str">
-        <v>Hace 10 horas (actualizada)</v>
-      </c>
-      <c r="G3" t="str" xml:space="preserve">
+      <c r="F10" t="str">
+        <v>Hace 7 días (actualizada)</v>
+      </c>
+      <c r="G10" t="str" xml:space="preserve">
         <v xml:space="preserve">Importante mercado está en busca de tu talento
 SOLICITA BARRENDERO MATUTINO O NOCTURNO
 OFRECEMOS:
@@ -495,128 +742,26 @@
 Si estas interesada/o postúlate con tu CV actualizado</v>
       </c>
     </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4" t="str">
-        <v>EG Barrendero Nocturno Central de Abastos</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Idea Market Solutions</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Tiempo Completo</v>
-      </c>
-      <c r="E4" t="str">
-        <v>$ 10,000.00 (Mensual)</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Hace 22 horas (actualizada)</v>
-      </c>
-      <c r="G4" t="str" xml:space="preserve">
-        <v xml:space="preserve">Importante empresa de MANTENIMIENTO está en busca de tu talento
-Solicita: BARRENDERO NOCTURNO
-OFRECEMOS:
-• Sueldo de hasta $10,000
-• Prestaciones de ley
-• PAGO SEMANAL
-REQUISITOS:
-• SIN EXPERIENCIA
-• Escolaridad mínima
-• L a D
-• Horario fijo
-ZONA DE TRABAJO: CENTRAL DE ABASTOS, IZTAPALAPA, CDMX
-Si estas interesada/o postúlate con tu CV actualizado</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str">
-        <v>EG Barrendero Vespertino Central de Abastos</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Idea Market Solutions</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Tiempo Completo</v>
-      </c>
-      <c r="E5" t="str">
-        <v>$ 8,000.00 (Mensual)</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Hace 22 horas (actualizada)</v>
-      </c>
-      <c r="G5" t="str" xml:space="preserve">
-        <v xml:space="preserve">Importante empresa de MANTENIMIENTO está en busca de tu talento
-Solicita: BARRENDERO VESPERTINO
-OFRECEMOS:
-• Sueldo de hasta $8,000
-• Prestaciones de ley
-• PAGO SEMANAL
-REQUISITOS:
-• SIN EXPERIENCIA
-• Escolaridad mínima
-• L a D
-• Horario fijo
-ZONA DE TRABAJO: CENTRAL DE ABASTOS, IZTAPALAPA, CDMX
-Si estas interesada/o postúlate con tu CV actualizado</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
-        <v>Barrendero - Central de abastos cdmx (iztapalapa)</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Idea Market Solutions</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Tiempo Completo</v>
-      </c>
-      <c r="E6" t="str">
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>Barrendero con o sin experiencia / Nocturno y Vespertino - Zona Central de abastos Iztapalapa</v>
+      </c>
+      <c r="B11" t="str">
+        <v>No disponible</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Importante empresa del sector - Iztapalapa, Ciudad de México DF</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E11" t="str">
         <v>A convenir</v>
       </c>
-      <c r="F6" t="str">
-        <v>Ayer (actualizada)</v>
-      </c>
-      <c r="G6" t="str" xml:space="preserve">
-        <v xml:space="preserve">Se solicita para Central de Abastos:
-Contratación inmediata
-- Barrendero Nocturno
-Horario 5 pm a 5 am
-Sueldo: 10 mil pesos mensuales
-- Barrenderos Vespertino
-Horario de 10 am a 7:00 pm
-Sueldo: 8000 pesos mensuales
-Barrido de patios de la central
-Documentos: Acta, INE, CURP, NSS, Constancia SAT, comprobante domicilio, estado de cuenta bancario</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
-      <c r="A7" t="str">
-        <v>Barrendero con o sin experiencia / Nocturno y Vespertino - Zona Central de abastos Iztapalapa</v>
-      </c>
-      <c r="B7" t="str">
-        <v>No disponible</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Importante empresa del sector - Iztapalapa, Ciudad de México DF</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Tiempo Completo</v>
-      </c>
-      <c r="E7" t="str">
-        <v>A convenir</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Ayer (actualizada)</v>
-      </c>
-      <c r="G7" t="str" xml:space="preserve">
+      <c r="F11" t="str">
+        <v>Hace 1 hora (actualizada)</v>
+      </c>
+      <c r="G11" t="str" xml:space="preserve">
         <v xml:space="preserve">Se busca barrendero para turnos nocturnos y vespertinos.
 Buscamos a una persona responsable, con experiencia en limpieza y mantenimiento de espacios comunes.
 El trabajo requiere desplazamientos cortos y uso de herramientas básicas de limpieza.
@@ -632,26 +777,26 @@
 Únete a nuestro equipo y contribuye a mantener nuestros entornos limpios y ordenados.</v>
       </c>
     </row>
-    <row r="8" xml:space="preserve">
-      <c r="A8" t="str">
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
         <v>Barrendero/A - Turno Nocturno o Vespertino</v>
       </c>
-      <c r="B8" t="str">
-        <v>Idea Market Solutions</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Tiempo Completo</v>
-      </c>
-      <c r="E8" t="str">
+      <c r="B12" t="str">
+        <v>Idea Market Solutions</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E12" t="str">
         <v>A convenir</v>
       </c>
-      <c r="F8" t="str">
-        <v>Ayer (actualizada)</v>
-      </c>
-      <c r="G8" t="str" xml:space="preserve">
+      <c r="F12" t="str">
+        <v>Hace 7 días (actualizada)</v>
+      </c>
+      <c r="G12" t="str" xml:space="preserve">
         <v xml:space="preserve">Buscamos tu talento como Barrendero/a para turno Nocturno o Vespertino:
 Zona de trabajo: Central de abastos Iztapalapa
 Barrenderos Nocturno (Horario 5 pm a 5 am)
@@ -662,59 +807,26 @@
 Agenda hoy mismo comunicate al 5 5 796 9 59 09</v>
       </c>
     </row>
-    <row r="9" xml:space="preserve">
-      <c r="A9" t="str">
-        <v>Barrenderos matutino y nocturno con o sin experiencia</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Idea Market Solutions</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Tiempo Completo</v>
-      </c>
-      <c r="E9" t="str">
-        <v>$ 8,000.00 (Mensual)</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Hace 3 días (actualizada)</v>
-      </c>
-      <c r="G9" t="str" xml:space="preserve">
-        <v xml:space="preserve">Unete al mejor equipo de trabajo como BARRENDER@
-TURNOS DISPONIBLES
-matutino: 9:00 am - 6:00 pm
-nocturno: 6pm - 6 am
-Lunes a Sábado a Domingo descanso rolado entre semana
-Salario: $2,000 semanales ( $2,500 NOCTURNO)
-+ prestaciones+uniformes
-Sexo indistinto
-No necesitas experiencia
-Contratación inmediata
-Zona de trabajo: Central de Abastos CDMX ( IZTAPALAPA)</v>
-      </c>
-    </row>
-    <row r="10" xml:space="preserve">
-      <c r="A10" t="str">
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
         <v>Barrenderos / $2,000 a la semana Central de Abastos CDMX</v>
       </c>
-      <c r="B10" t="str">
-        <v>Idea Market Solutions</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Tiempo Completo</v>
-      </c>
-      <c r="E10" t="str">
+      <c r="B13" t="str">
+        <v>Idea Market Solutions</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E13" t="str">
         <v>A convenir</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F13" t="str">
         <v>8 de julio (actualizada)</v>
       </c>
-      <c r="G10" t="str" xml:space="preserve">
+      <c r="G13" t="str" xml:space="preserve">
         <v xml:space="preserve">SOLICITAMOS POR EXPANSION: BARRENDEROS
 ZONA: IZTAPALAPA (CENTRAL DE ABASTOS)
 SUELDO $2,000 semanales libres
@@ -724,26 +836,58 @@
 Lunes a Domingo, 1 día de descanso entre semana</v>
       </c>
     </row>
-    <row r="11" xml:space="preserve">
-      <c r="A11" t="str">
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>Auxiliar limpieza - Central de Abastos</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Idea Market Solutions</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E14" t="str">
+        <v>$ 8,000.00 (Mensual)</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Estamos en búsqueda de tu talento como:
+TENEMOS DISPONIBLES 2 VACANTES DE AUXILIAR DE LIMPIEZA:
+BARRENDERO
+Turno: Nocturno (De 6:00PM a 6:00AM)
+Sueldo: $10,000 mensuales
+BARRENDERO
+Turno: Vespertino (De 10:00AM a 7:00AM)
+Sueldo: $8,000 mensuales
+¡NO NECESITAS EXPERIENCIA! - INGRESO INMEDIATO
+Si estas interesada/o postúlate con tu CV actualizado</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
         <v>Auxiliar de Limpieza sin Experiencia para Iztapalapa Turno Nocturno - $10,000 mensual Contratación el mismo dia</v>
       </c>
-      <c r="B11" t="str">
-        <v>Idea Market Solutions</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Tiempo Completo</v>
-      </c>
-      <c r="E11" t="str">
+      <c r="B15" t="str">
+        <v>Idea Market Solutions</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E15" t="str">
         <v>$ 10,000.00 (Mensual)</v>
       </c>
-      <c r="F11" t="str">
-        <v>Ayer (actualizada)</v>
-      </c>
-      <c r="G11" t="str" xml:space="preserve">
+      <c r="F15" t="str">
+        <v>Hace 7 días (actualizada)</v>
+      </c>
+      <c r="G15" t="str" xml:space="preserve">
         <v xml:space="preserve">"Importante marca de Limpieza está en busca de tu talento"
 Solicita Axiliar de limpieza (Barrendero) sin Experiencia
 Requisitos:
@@ -762,26 +906,26 @@
 Si estas interesada/o postúlate con tu CV actualizado</v>
       </c>
     </row>
-    <row r="12" xml:space="preserve">
-      <c r="A12" t="str">
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
         <v>Auxiliar de Limpieza sin Experiencia para Iztapalapa Turno Intermedio - $8000 mensual Contratación el mismo dia</v>
       </c>
-      <c r="B12" t="str">
-        <v>Idea Market Solutions</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Tiempo Completo</v>
-      </c>
-      <c r="E12" t="str">
+      <c r="B16" t="str">
+        <v>Idea Market Solutions</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E16" t="str">
         <v>$ 8,000.00 (Mensual)</v>
       </c>
-      <c r="F12" t="str">
-        <v>Ayer (actualizada)</v>
-      </c>
-      <c r="G12" t="str" xml:space="preserve">
+      <c r="F16" t="str">
+        <v>Hace 7 días (actualizada)</v>
+      </c>
+      <c r="G16" t="str" xml:space="preserve">
         <v xml:space="preserve">"Importante marca de Limpieza está en busca de tu talento"
 Solicita Axiliar de limpieza (Barrendero) sin Experiencia
 Requisitos:
@@ -800,26 +944,26 @@
 Si estas interesada/o postúlate con tu CV actualizado</v>
       </c>
     </row>
-    <row r="13" xml:space="preserve">
-      <c r="A13" t="str">
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
         <v>Auxiliares de limpieza contratación inmediata - Iztapalapa Central de abastos</v>
       </c>
-      <c r="B13" t="str">
-        <v>Idea Market Solutions</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Tiempo Completo</v>
-      </c>
-      <c r="E13" t="str">
+      <c r="B17" t="str">
+        <v>Idea Market Solutions</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E17" t="str">
         <v>$ 10,000.00 (Mensual)</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F17" t="str">
         <v>6 de julio (actualizada)</v>
       </c>
-      <c r="G13" t="str" xml:space="preserve">
+      <c r="G17" t="str" xml:space="preserve">
         <v xml:space="preserve">Importante empresa de residuos está en busca de tu talento
 Solicitamos personal de limpieza (diversas áreas)
 Barrenderos
@@ -840,7 +984,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G17"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output/resultadosCompuTrabajo.xlsx
+++ b/output/resultadosCompuTrabajo.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,365 +427,432 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>EG Barrendero Nocturno Central de Abastos</v>
+        <v>Desarrollador NodeJS - 6 meses</v>
       </c>
       <c r="B2" t="str">
-        <v>Idea Market Solutions</v>
+        <v>Grupo TI de Mexico y Comercio Electronico SA de CV</v>
       </c>
       <c r="C2" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>Grupo TI de Mexico y Comercio Electronico SA de CV - Apodaca, Nuevo León</v>
       </c>
       <c r="D2" t="str">
-        <v>Tiempo Completo</v>
+        <v>Presencial y remoto</v>
       </c>
       <c r="E2" t="str">
-        <v>$ 10,000.00 (Mensual)</v>
+        <v>$ 23,000.00 (Mensual)</v>
       </c>
       <c r="F2" t="str">
-        <v>Hace 11 minutos (actualizada)</v>
+        <v>Hace 8 horas (actualizada)</v>
       </c>
       <c r="G2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Importante empresa de MANTENIMIENTO está en busca de tu talento
-Solicita: BARRENDERO NOCTURNO
-OFRECEMOS:
-• Sueldo de hasta $10,000
-• Prestaciones de ley
-• PAGO SEMANAL
-REQUISITOS:
-• SIN EXPERIENCIA
-• Escolaridad mínima
-• L a D
-• Horario fijo
-ZONA DE TRABAJO: CENTRAL DE ABASTOS, IZTAPALAPA, CDMX
-Si estas interesada/o postúlate con tu CV actualizado</v>
+        <v xml:space="preserve">Estamos en búsqueda de un Desarrollador de Software de TI
+Requerimientos Mínimos de Operación
+Operación en organizaciones de Sistemas de Información
+Desarrollo Node JS
+Desarrollo de API con NodeJs
+Integración con diferentes patrones (WSDL, API)
+Conexión con REST y con la infraestructura de AWS
+Operación de seguridad de datos
+Postman
+Laravel Framework
+Patrones de arquitectura
+DevOps
+Asignación durante 6 meses</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>EG Barrendero Vespertino Central de Abastos</v>
+        <v>Practicantes para Sistemas</v>
       </c>
       <c r="B3" t="str">
-        <v>Idea Market Solutions</v>
+        <v>No disponible</v>
       </c>
       <c r="C3" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>Importante empresa del sector - Culiacán, Sinaloa</v>
       </c>
       <c r="D3" t="str">
-        <v>Tiempo Completo</v>
+        <v>Beca/prácticas</v>
       </c>
       <c r="E3" t="str">
-        <v>$ 8,000.00 (Mensual)</v>
+        <v>A convenir</v>
       </c>
       <c r="F3" t="str">
-        <v>Hace 11 minutos (actualizada)</v>
+        <v>Hace 2 días (actualizada)</v>
       </c>
       <c r="G3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Importante empresa de MANTENIMIENTO está en busca de tu talento
-Solicita: BARRENDERO VESPERTINO
-OFRECEMOS:
-• Sueldo de hasta $8,000
-• Prestaciones de ley
-• PAGO SEMANAL
-REQUISITOS:
-• SIN EXPERIENCIA
-• Escolaridad mínima
-• L a D
-• Horario fijo
-ZONA DE TRABAJO: CENTRAL DE ABASTOS, IZTAPALAPA, CDMX
-Si estas interesada/o postúlate con tu CV actualizado</v>
+        <v xml:space="preserve">SE SOLICITA PRACTICANTES EN LA CARRERA DE ING EN SISTEMAS COMPUTACIONALES, LICENCIADO EN INFORMÁTICA
+Sexo: Indistinto
+Horarios: 8:00 a.m. 2:00 P.M
+11:00 a.m. A 5:00 P.M.
+Conocimientos mínimos en algunos de éstos 2 lenguajes de programación
+Python
+React
+Nodejs
+Express
+Github
+Postgresql
+Linux
+SE OFRECE APOYO PARA TRANSPORTE
+INTERESADOS ENVIAR CV</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>EG Barrendero Vespertino Central de Abastos</v>
+        <v>Desarrollador/a FullStack</v>
       </c>
       <c r="B4" t="str">
-        <v>Idea Market Solutions</v>
+        <v>Holcim Apasco</v>
       </c>
       <c r="C4" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>Holcim Apasco - San Pedro Tlaquepaque, Jalisco</v>
       </c>
       <c r="D4" t="str">
-        <v>Tiempo Completo</v>
+        <v>Presencial y remoto</v>
       </c>
       <c r="E4" t="str">
-        <v>$ 8,000.00 (Mensual)</v>
+        <v>$ 20,000.00 (Mensual)</v>
       </c>
       <c r="F4" t="str">
-        <v>Hace 7 días (actualizada)</v>
+        <v>Hace 4 días (actualizada)</v>
       </c>
       <c r="G4" t="str" xml:space="preserve">
-        <v xml:space="preserve">Importante empresa de MANTENIMIENTO está en busca de tu talento
-Solicita: BARRENDERO VESPERTINO
-OFRECEMOS:
-• Sueldo de hasta $8,000
-• Prestaciones de ley
-• PAGO SEMANAL
-REQUISITOS:
-• SIN EXPERIENCIA
-• Escolaridad mínima
-• L a D
-• Horario fijo
-ZONA DE TRABAJO: CENTRAL DE ABASTOS, IZTAPALAPA, CDMX
-Si estas interesada/o postúlate con tu CV actualizado</v>
+        <v xml:space="preserve">¿QUIÉN ES HOLCIM?
+Somos el líder mundial en soluciones innovadoras y sostenibles para la construcción mediante cuatro segmentos de negocio: cemento, concreto/hormigón premezclado, agregados, soluciones y productos.
+Nuestro objetivo es impulsar la construcción circular para construir más con menos. Gracias a nuestro enfoque en la reducción de emisiones de CO2, cuidado al medio ambiente, apoyo a las comunidades y desarrollo de nuestra gente, hemos logrado que nuestros 70.000 colaboradores y colaboradoras en todo el mundo sienten una gran pasión por construir progreso para las personas y el planeta, creando mejores soluciones y experiencias para sus clientes, comunidades y equipos.
+¡TRABAJA CON NOSOTROS!
+Tendrás la oportunidad de compartir la pasión que tenemos por nuestro planeta, aportar perspectivas innovadoras, dentro de un entorno dinámico y retador, que promueve la diversidad e inclusión.
+Porque solo si trabajamos juntos en una cultura en la que todos prosperamos, podremos construir el mundo en el que todos queremos vivir.
+TE ESTAMOS BUSCANDO: Desarrollador/a FullStack!
+Serás responsable de diseñar, desarrollar y mantener aplicaciones web completas (frontend y backend), asegurando interfaces atractivas, usabilidad, seguridad y alto rendimiento.
+Tus principales retos serán:
+Crear interfaces de usuario modernas, responsivas y funcionales.
+Desarrollar APIs robustas e integraciones con servicios externos.
+Implementar y administrar bases de datos relacionales y no relacionales.
+Asegurar la autenticación y seguridad de las aplicaciones.
+Integrar plataformas de pago y otros servicios de terceros.
+Colaborar con equipos multidisciplinarios en entornos ágiles.
+Lugar de trabajo: Carretera a Tlaquepaque Jalisco, San Martin de las flores.
+Requisitos indispensables:
+Licenciatura o ingeniería en sistemas, desarrollo de software o afín.
+Experiencia comprobable en desarrollo Full Stack.
+Dominio de HTML, CSS, JavaScript y frameworks como React, Angular o Vuejs
+Conocimientos en backend con Nodejs, Python o Java.
+Manejo de bases de datos relacionales (SQL Server, PostgreSQL) y no relacionales (MongoDB, Firebase).
+Experiencia con integración de APIs REST y GraphQL.
+Uso de servicios en la nube (AWS, GCP) y control de versiones con Git/GitHub.
+Inglés B2.
+Requisitos deseados:
+Experiencia en entornos de retail, e commerce o mayoristas (B2B/B2C).
+Familiaridad con plataformas de pago.
+Conocimientos en backend con Nodejs, Python o Java.
+¡NO TE PIERDAS LA OPORTUNIDAD DE SER PARTE DE NUESTRO EQUIPO!
+¡CONSTRUYE PROGRESO CON NOSOTROS!</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str">
-        <v>EG Barrendero Nocturno Central de Abastos</v>
+        <v>Desarrollador</v>
       </c>
       <c r="B5" t="str">
-        <v>Idea Market Solutions</v>
+        <v>CT Internacional del Noroeste</v>
       </c>
       <c r="C5" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>CT Internacional del Noroeste - Hermosillo, Sonora</v>
       </c>
       <c r="D5" t="str">
         <v>Tiempo Completo</v>
       </c>
       <c r="E5" t="str">
-        <v>$ 10,000.00 (Mensual)</v>
+        <v>A convenir</v>
       </c>
       <c r="F5" t="str">
-        <v>Hace 5 horas (actualizada)</v>
+        <v>Hace 6 días (actualizada)</v>
       </c>
       <c r="G5" t="str" xml:space="preserve">
-        <v xml:space="preserve">Importante empresa de MANTENIMIENTO está en busca de tu talento
-Solicita: BARRENDERO NOCTURNO
-OFRECEMOS:
-• Sueldo de hasta $10,000
-• Prestaciones de ley
-• PAGO SEMANAL
-REQUISITOS:
-• SIN EXPERIENCIA
-• Escolaridad mínima
-• L a D
-• Horario fijo
-ZONA DE TRABAJO: CENTRAL DE ABASTOS, IZTAPALAPA, CDMX
-Si estas interesada/o postúlate con tu CV actualizado</v>
+        <v xml:space="preserve">¿Quieres pertenecer a la empresa mayorista líder en la distribución de tecnología de información en México?
+Estamos buscando talento con deseos de crecer y desarrollarse en una empresa con gran proyección, para nuestra posición de: Desarrollador
+TRABAJO 100% PRESENCIAL HERMOSILLO, SONORA.
+Perfil
+Buscamos un Desarrollador Node.js responsable de gestionar el intercambio de datos entre el servidor y los usuarios.
+Su enfoque principal será el desarrollo de toda la lógica del lado del servidor, la definición y el mantenimiento de la base de datos y garantizar un alto rendimiento y capacidad de respuesta a las solicitudes del Front-End.
+Capaz integrar los elementos frontales creados por sus compañeros de trabajo en la aplicación. Por lo tanto, también es necesaria una comprensión básica de las tecnologías Front-End.
+Requisitos
+Buen dominio de JavaScript
+Experiencia con Nodejs / Express
+Conocimiento en SQL.
+MongoDB (Deseable)
+Alguna de las siguientes tecnologías: HTLM5, CSS3, Angular 4, Angular js.
+Deseable conocimiento de administración en Linux.
+Experiencia mínima de 1 año en puesto similar.
+Funciones
+Participar en el diseño de software de los sistemas, diseño de las bases de datos, programación, documentación de sistemas terminados control de calidad, mantenimiento a sistemas desarrollados y revisión de requerimientos.
+a. Desarrollar e implementar nuevas funcionalidades en el API.
+b. Corregir e identificar posibles incidencias en el API.
+c. Despliegue y publicación del API.
+d. Reingeniería de procesos y reestructuración código.
+e. Consumo de APIs e integración con servicios de terceros, aliados y proveedores.
+f. Análisis de requerimientos funcionales y técnicos.
+Habilidades
+Responsable
+Autodidacta
+Buen comunicador
+Organizado
+Analítico
+Disponibilidad de Tiempo
+Orientado a resultados</v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str">
-        <v>Barrenderos matutino y nocturno con o sin experiencia</v>
+        <v>Desarrollador – Diseño de Software de Sistemas</v>
       </c>
       <c r="B6" t="str">
-        <v>Idea Market Solutions</v>
+        <v>CT Internacional del Noroeste</v>
       </c>
       <c r="C6" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>CT Internacional del Noroeste - Hermosillo, Sonora</v>
       </c>
       <c r="D6" t="str">
         <v>Tiempo Completo</v>
       </c>
       <c r="E6" t="str">
-        <v>$ 8,000.00 (Mensual)</v>
+        <v>A convenir</v>
       </c>
       <c r="F6" t="str">
-        <v>14 de julio (actualizada)</v>
+        <v>Hace 6 días (actualizada)</v>
       </c>
       <c r="G6" t="str" xml:space="preserve">
-        <v xml:space="preserve">Unete al mejor equipo de trabajo como BARRENDER@
-TURNOS DISPONIBLES
-matutino: 9:00 am - 6:00 pm
-nocturno: 6pm - 6 am
-Lunes a Sábado a Domingo descanso rolado entre semana
-Salario: $2,000 semanales ( $2,500 NOCTURNO)
-+ prestaciones+uniformes
-Sexo indistinto
-No necesitas experiencia
-Contratación inmediata
-Zona de trabajo: Central de Abastos CDMX ( IZTAPALAPA)</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
+        <v xml:space="preserve">Estamos buscando talento con deseos de crecer y desarrollarse en una empresa con gran proyección, para nuestra posición de: Desarrollador
+TRABAJO 100% PRESENCIAL HERMOSILLO, SONORA.
+Horario de Lunes a jueves 8:00 a.m. a 6:00 p.m. viernes de 8:00 a.m. a 3:00 p.m.
+Perfil:
+Buscamos un Desarrollador Node.js responsable de gestionar el intercambio de datos entre el servidor y los usuarios.
+Su enfoque principal será el desarrollo de toda la lógica del lado del servidor, la definición y el mantenimiento de la base de datos y garantizar un alto rendimiento y capacidad de respuesta a las solicitudes del Front-End.
+Capaz integrar los elementos frontales creados por sus compañeros de trabajo en la aplicación. Por lo tanto, también es necesaria una comprensión básica de las tecnologías Front-End.
+Requisitos:
+Buen dominio de JavaScript
+Experiencia con Nodejs / Express
+Conocimiento en SQL.
+MongoDB (Deseable)
+Alguna de las siguientes tecnologías: HTLM5, CSS3, Angular 4, Angular js.
+Deseable conocimiento de administración en Linux.
+Experiencia mínima de 1 año en puesto similar.
+Funciones:
+Participar en el diseño de software de los sistemas, diseño de las bases de datos, programación, documentación de sistemas terminados control de calidad, mantenimiento a sistemas desarrollados y revisión de requerimientos.
+a. Desarrollar e implementar nuevas funcionalidades en el API.
+b. Corregir e identificar posibles incidencias en el API.
+c. Despliegue y publicación del API.
+d. Reingeniería de procesos y reestructuración código.
+e. Consumo de APIs e integración con servicios de terceros, aliados y proveedores.
+f. Análisis de requerimientos funcionales y técnicos.
+Habilidades:
+Responsable
+Autodidacta
+Buen comunicador
+Organizado
+Analítico
+Disponibilidad de Tiempo
+Orientado a resultados</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="str">
-        <v>Barrendero - Central de abastos cdmx (iztapalapa)</v>
+        <v>Programador/a - Administrador de servidor</v>
       </c>
       <c r="B7" t="str">
-        <v>Idea Market Solutions</v>
+        <v>SOLVENCIAINFORMATICA</v>
       </c>
       <c r="C7" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>SOLVENCIAINFORMATICA - Culiacán, Sinaloa</v>
       </c>
       <c r="D7" t="str">
-        <v>Tiempo Completo</v>
+        <v>Presencial y remoto</v>
       </c>
       <c r="E7" t="str">
-        <v>A convenir</v>
+        <v>$ 12,000.00 (Mensual)</v>
       </c>
       <c r="F7" t="str">
-        <v>Hace 15 horas (actualizada)</v>
-      </c>
-      <c r="G7" t="str" xml:space="preserve">
-        <v xml:space="preserve">Se solicita para Central de Abastos:
-Contratación inmediata
-- Barrenderos Nocturno
-Horario 5 pm a 5 am
-Sueldo: 10 mil pesos mensuales
-- Barrenderos Vespertino
-Horario de 10 am a 7:00 pm
-Sueldo: 8000 pesos mensuales
-Barrido de patios de la central
-Documentos: Acta, ine, curp, nss, constancia sat, comprobante domicilio, estado de cuenta bancario</v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
+        <v>Hace más de 30 días</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Experiencia c# javascrip, nodejs,php,html y mysql, administrar las actualizaciones de desarorrollo y mantenimiento de base de datos en servidores IBM SOFTLAYER</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="str">
-        <v>Barrendero con turno fijo en la tarde - En Central de Abastos Iztapalapa</v>
+        <v>Analista programador - administrador de servidor</v>
       </c>
       <c r="B8" t="str">
-        <v>Idea Market Solutions</v>
+        <v>SOLVENCIAINFORMATICA</v>
       </c>
       <c r="C8" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>SOLVENCIAINFORMATICA - Culiacán, Sinaloa</v>
       </c>
       <c r="D8" t="str">
-        <v>Tiempo Completo</v>
+        <v>Presencial y remoto</v>
       </c>
       <c r="E8" t="str">
-        <v>$ 10,000.00 (Mensual)</v>
+        <v>$ 12,000.00 (Mensual)</v>
       </c>
       <c r="F8" t="str">
-        <v>Hace 15 horas (actualizada)</v>
-      </c>
-      <c r="G8" t="str" xml:space="preserve">
-        <v xml:space="preserve">Importante empresa dedicada al sector limpieza solicita Barrendero.
-Requisitos:
-- Mayor de 18 años
-- Experiencia no necesaria
-Ofrecemos:
-- $8,000 mensuales netos (Pago semanal)
-- Prestaciones de ley
-- Trabajo de Lunes a Domingo con 1 descanso en la semana
-- Horario de 10:00 am a 7:00 pm
-Zona de trabajo: Central de Abastos Iztapalapa.
-Actividades : acompañamiento de camiones
-Levantar basura de cajones de tolva
-Levantar basura que cae de los camiones al momento de la carga
-Levantar basura al paso del recorrido
-Interesados que cuenten con documentos (Acta de nacimiento, Cuenta de Banco, Comprobante de domicilio, INE, CURP, IMSS, RFC) postularse por éste medio, y un ejecutivo te contactará por whatsapp.</v>
+        <v>Hace más de 30 días</v>
+      </c>
+      <c r="G8" t="str">
+        <v>ANALISTA-PROGRAMADOR-MANEJADOR BASE DE DATOS, ANALIZAR Y MODULAR REQUERIMIENTOS DEL CLIENTE, PROGRAMAR Y ADMINISTRAR SERVIDOR WEB,DESARROLLO-TESTEO-IMPLEMENTACION DEL DESARROLLO,CONOCIMIENTOS C#,JAVASCRIP,PHP.HTML,NODEJS Y MYSQL</v>
       </c>
     </row>
     <row r="9" xml:space="preserve">
       <c r="A9" t="str">
-        <v>Barrendero Nocturno - En Central de Abastos Iztapalapa</v>
+        <v>Programador/a</v>
       </c>
       <c r="B9" t="str">
-        <v>Idea Market Solutions</v>
+        <v>PROMOTORES DE GESTORIA NOTARIAL DE OAXACA</v>
       </c>
       <c r="C9" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>PROMOTORES DE GESTORIA NOTARIAL DE OAXACA - Oaxaca de Juárez, Oaxaca</v>
       </c>
       <c r="D9" t="str">
         <v>Tiempo Completo</v>
       </c>
       <c r="E9" t="str">
-        <v>$ 10,000.00 (Mensual)</v>
+        <v>$ 14,000.00 (Mensual)</v>
       </c>
       <c r="F9" t="str">
-        <v>Hace 15 horas (actualizada)</v>
+        <v>Hace más de 30 días</v>
       </c>
       <c r="G9" t="str" xml:space="preserve">
-        <v xml:space="preserve">Importante empresa dedicada al sector limpieza solicita Barrendero para el turno Nocturno.
-Requisitos:
-- Mayor de 18 años
-- Experiencia no necesaria
-Ofrecemos:
-- $10,000 mensuales netos (Pago semanal)
-- Prestaciones de ley
-- Trabajo de Lunes a Domingo con 1 descanso en la semana
-- Horario de 5:00 pm a 5:00 am
-Zona de trabajo: Central de Abastos Iztapalapa.
-Actividades : acompañamiento de camiones
-Levantar basura de cajones de tolva
-Levantar basura que cae de los camiones al momento de la carga
-Levantar basura al paso del recorrido
-Interesados que cuenten con documentos (Acta de nacimiento, Cuenta de Banco, Comprobante de domicilio, INE, CURP, IMSS, RFC) postularse por éste medio, y un ejecutivo te contactará por whatsapp.</v>
+        <v xml:space="preserve">Conocimientos:
+- En reactjs, Nextjs, Python, Nodejs, TypeScript.
+- Bases de datos relacionales y no relacionales como MongoDB, SqlServer.
+Funciones:
+-Desarrollar o modificar módulos de sistemas existentes o en desarrollo en reactjs.
+Codificar las interfaces gráficas de acuerdo con los diseños y funcionalidades proporcionados.
+-Probar sistemas en desarrollo o producción para validar la calidad y funcionalidad de los sistemas
+-Apoyar a las diferentes actividades del área.
+Periodo a prueba: 1 mes
+Perfil : Licenciatura en sistemas computacionales , informatica o afin.</v>
       </c>
     </row>
     <row r="10" xml:space="preserve">
       <c r="A10" t="str">
-        <v>Barrendero Central de Abastos - Iztapalapa</v>
+        <v>Fullstack Developer JavaScript Python - Hibrido CDMX</v>
       </c>
       <c r="B10" t="str">
-        <v>Idea Market Solutions</v>
+        <v>CORUS</v>
       </c>
       <c r="C10" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>CORUS - Benito Juárez, Ciudad de México DF</v>
       </c>
       <c r="D10" t="str">
-        <v>Tiempo Completo</v>
+        <v>Presencial y remoto</v>
       </c>
       <c r="E10" t="str">
-        <v>$ 10,000.00 (Mensual)</v>
+        <v>$ 31,500.00 (Mensual)</v>
       </c>
       <c r="F10" t="str">
-        <v>Hace 7 días (actualizada)</v>
+        <v>Ayer (actualizada)</v>
       </c>
       <c r="G10" t="str" xml:space="preserve">
-        <v xml:space="preserve">Importante mercado está en busca de tu talento
-SOLICITA BARRENDERO MATUTINO O NOCTURNO
-OFRECEMOS:
-Sueldo de $8,0000 a $10,000 neto mensual
-Uniforme gratuito
-Prestaciones de ley
-REQUISITOS:
-Experiencia no necesaria
-Primaria concluida
-Documentos completos en copia
-Lunes a Domingo de 5pm a 5am o 10am a 7pm, 1 descanso rolado a la semana
-Zona de trabajo: Central de abastos Iztapalapa, CDMX
-55
-11 41
-22 82
-Si estas interesada/o postúlate con tu CV actualizado</v>
+        <v xml:space="preserve">Corus Systems &amp; Consulting Inc es una empresa líder en el sector de tecnologías de la información, especializada en sistemas y desarrollo de software. Nos enorgullecemos de ofrecer un ambiente de trabajo dinámico y colaborativo, donde la innovación y el crecimiento profesional son fundamentales. Ubicación: La vacante es en Ciudad de México.
+Requisitos del puesto
+Estudios mínimos de Universitario de Ingeniería
+Programación orientada a objetos
+Angular
+Integración de servicios
+Microservicios
+Alto conocimiento en javascript y typescript
+Kubernetes
+Bases de datos
+APIS
+NodeJS
+Decorators
+Components
+Directives
+Inyección de dependencias
+Services
+Pipes
+Interceptors
+Guards
+Routing
+Template forms and reactive forms
+http client, HTML5, CSS3, Angular material
+Google Cloud Platform, Devops, python
+Responsabilidades del puesto
+Recibir y entender los requerimientos de negocio para poder desarrollarlos con tecnología Angular
+Desarrollar nuevos módulos principalmente, así como realizar el consumo de servicios de un backend en Python.
+Entendimiento de microservicios rest
+Manejo de bases de datos.
+Prestaciones y beneficios adicionales
+Salario mensual de 28,000 a 32,000 pesos.
+Contratación temporal a tiempo completo.
+Modalidad de trabajo híbrido, combinando trabajo remoto y presencial.
+Oportunidades de capacitación y desarrollo profesional.
+Ambiente de trabajo colaborativo y dinámico.</v>
       </c>
     </row>
     <row r="11" xml:space="preserve">
       <c r="A11" t="str">
-        <v>Barrendero con o sin experiencia / Nocturno y Vespertino - Zona Central de abastos Iztapalapa</v>
+        <v>Desarrollador Full Stack Jr</v>
       </c>
       <c r="B11" t="str">
-        <v>No disponible</v>
+        <v>Joyerías Bizzarro</v>
       </c>
       <c r="C11" t="str">
-        <v>Importante empresa del sector - Iztapalapa, Ciudad de México DF</v>
+        <v>Joyerías Bizzarro - Naucalpan de Juárez, Estado de México</v>
       </c>
       <c r="D11" t="str">
         <v>Tiempo Completo</v>
       </c>
       <c r="E11" t="str">
-        <v>A convenir</v>
+        <v>$ 20,000.00 (Mensual)</v>
       </c>
       <c r="F11" t="str">
-        <v>Hace 1 hora (actualizada)</v>
+        <v>Ayer (actualizada)</v>
       </c>
       <c r="G11" t="str" xml:space="preserve">
-        <v xml:space="preserve">Se busca barrendero para turnos nocturnos y vespertinos.
-Buscamos a una persona responsable, con experiencia en limpieza y mantenimiento de espacios comunes.
-El trabajo requiere desplazamientos cortos y uso de herramientas básicas de limpieza.
-Se valorará experiencia previa en limpieza, aunque no es imprescindible.
-Se ofrece contrato temporal con posibilidad de renovación.
-Se requiere disponibilidad para trabajar en horarios nocturnos y vespertinos.
-Se busca un perfil con actitud positiva y compromiso con el trabajo bien hecho.
-Se requiere puntualidad y capacidad para trabajar en equipo.
-Se ofrece ambiente de trabajo agradable y posibilidad de formación continua.
-Si tienes interés en mantener espacios limpios y cuidando los detalles, esta oportunidad puede ser para ti.
-Envía tu currículum con tus datos y experiencia previa en limpieza.
-Buscas un trabajo estable y con oportunidades de crecimiento profesional.
-Únete a nuestro equipo y contribuye a mantener nuestros entornos limpios y ordenados.</v>
+        <v xml:space="preserve">Únete a la marca #1 de Joyería como Programador Full Stack Jr.
+Requisitos y experiencia:
+• Ing. en informática, Ing en sistemas.
+• 1 año de experiencia en el puesto.
+• Programación para Backend (NodeJs, Java, PHP, Python, etc.)
+• Programación para Frontend (HTML, JavaScript, React, Vue, etc.)
+• Manejo de base de datos.
+• Métodos de transferencia de datos (servicios API, BATCH).
+• Análisis de procesos de negocio.
+Funciones:
+• Detectar y reportar las áreas de oportunidad en las aplicaciones.
+• Desarrollar nuevas funcionalidades en aplicaciones existentes y mejoras en funcionalidades existentes.
+• Gestionar las incidencias generadas por los usuarios, cumpliendo con el tiempo de respuesta establecido.
+• Desarrollar documentación técnica para desarrollo de proyectos.
+• Dar seguimiento a los desarrollos generados por proveedores.
+• Realizar pruebas sobre desarrollos generados.
+• Comunicar avances, riesgos y retrasos en los proyectos administrados.
+Ofrecemos:
+• Sueldo Base Mensual Bruto: $20,000
+• Prestaciones de ley y superiores.
+• Cotización al 100%
+• Caja de Ahorro.
+• Vales de despensa.
+• Días Flex.
+• Plan de crecimiento.
+• Capacitación constante e integral.
+• Descuento de la marca.
+• Beneficios en distintas marcas.
+• Día de cumpleaños.
+• Servicio de apoyo PAE (Emocional, Médica, Nutricional, Veterinaria, Legal y Economía personal).
+• Seguro de vida.
+TODOS LOS PROCESOS DE SELECCION Y CONTRATACIÓN SON GRATUITOS, JOYERIAS BIZARRO NO SOLICITA DEPOSITOS NI TRANSFERENCIAS PARA CONCLUIRLOS.</v>
       </c>
     </row>
     <row r="12" xml:space="preserve">
       <c r="A12" t="str">
-        <v>Barrendero/A - Turno Nocturno o Vespertino</v>
+        <v>Programador/a - fullstack</v>
       </c>
       <c r="B12" t="str">
-        <v>Idea Market Solutions</v>
+        <v>No disponible</v>
       </c>
       <c r="C12" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>Importante empresa del sector - Puebla, Puebla</v>
       </c>
       <c r="D12" t="str">
         <v>Tiempo Completo</v>
@@ -794,197 +861,1676 @@
         <v>A convenir</v>
       </c>
       <c r="F12" t="str">
-        <v>Hace 7 días (actualizada)</v>
+        <v>Ayer (actualizada)</v>
       </c>
       <c r="G12" t="str" xml:space="preserve">
-        <v xml:space="preserve">Buscamos tu talento como Barrendero/a para turno Nocturno o Vespertino:
-Zona de trabajo: Central de abastos Iztapalapa
-Barrenderos Nocturno (Horario 5 pm a 5 am)
-Barrenderos Vespertino (Horario de 10 am a 7:00 pm)
-Lunes a domingo descanso entre semana
-*Contratacion inmediata*
-Contar con documentacion (Acta de nacimiento, Comprobante de clabe interbancaria es decir cuenta de banco, nss, curp, ine, constancia de situacion fiscal y comprobante de domicilo)
-Agenda hoy mismo comunicate al 5 5 796 9 59 09</v>
+        <v xml:space="preserve">¡Estamos buscando talento tech para unirse a nuestro equipo!
+En Marathon Group, seguimos creciendo y buscamos un(a) Desarrollador(a) para el área de Sistemas con experiencia en desarrollo backend y conocimientos en tecnologías web. Si te apasiona resolver retos tecnológicos y trabajar con sistemas empresariales, ¡queremos conocerte!
+¿Qué necesitas para postular?
+Conocimientos sólidos en:
+Visual C++, .NET, C#
+SQL y experiencia trabajando con SQL Server
+Desarrollo con ASP.NET y MVC
+Consumo e integración de APIs REST y SOAP
+HTML, CSS, JavaScript, NodeJS (nivel básico/intermedio)
+Plus:
+-Experiencia previa en entornos con ERP
+-Capacidad de análisis, resolución de problemas y trabajo en equipo
+¿Qué ofrecemos?
+-Un ambiente colaborativo e innovador
+- Participación en proyectos desafiantes y de impacto
+- Oportunidades de crecimiento profesional</v>
       </c>
     </row>
     <row r="13" xml:space="preserve">
       <c r="A13" t="str">
-        <v>Barrenderos / $2,000 a la semana Central de Abastos CDMX</v>
+        <v>Ingeniero de interfaces administrativas Jr.</v>
       </c>
       <c r="B13" t="str">
-        <v>Idea Market Solutions</v>
+        <v>Grupo Caliente</v>
       </c>
       <c r="C13" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>Grupo Caliente - Tijuana, Baja California</v>
       </c>
       <c r="D13" t="str">
-        <v>Tiempo Completo</v>
+        <v>Presencial y remoto</v>
       </c>
       <c r="E13" t="str">
-        <v>A convenir</v>
+        <v>$ 35,000.00 (Mensual)</v>
       </c>
       <c r="F13" t="str">
-        <v>8 de julio (actualizada)</v>
+        <v>Ayer (actualizada)</v>
       </c>
       <c r="G13" t="str" xml:space="preserve">
-        <v xml:space="preserve">SOLICITAMOS POR EXPANSION: BARRENDEROS
-ZONA: IZTAPALAPA (CENTRAL DE ABASTOS)
-SUELDO $2,000 semanales libres
-Pagos semanales
-Contarás con Prestaciones de Ley
-Horario: 9:00 am a 6:00 pm
-Lunes a Domingo, 1 día de descanso entre semana</v>
+        <v xml:space="preserve">Descripción del empleo
+Nombre del puesto: Ingeniero de Interfaces Administrativas Jr.
+Descripción del puesto
+El ingeniero de datos Jr. es un profesional que se encarga de diseñar, implementar y
+gestionar sistemas para interactuar con los sistemas contables (SAP) y de recursos
+humanos de la empresa, permitiendo la automatización y mejora de los procesos ya
+existentes.
+Actividades Importantes
+1. Desarrollo, modificación y administración de aplicaciones (web, web services, apis,
+servicios, aplicaciones de escritorio) nuevas y existentes
+2. Levantamiento, análisis y desarrollo requerimientos de software.
+3. Manejo y uso de repositorios GIT.
+4. Estudio y aplicación de nuevas tecnologías para mejorar los procesos de la empresa
+5. Mantenimiento y optimización de consultas de SQL
+6. Seguimiento de tareas y actividades implementando la metodología SCRUM
+Competencias Requeridas
+1. Competencias Técnicas Profesionales
+a. Diseño, desarrollo y mantenimiento de aplicaciones WEB (HTML, NodeJS,
+PHP, JavaScript, React, Vue).
+b. Diseño, desarrollo y mantenimiento de aplicaciones Móviles.
+c. Manejo de lenguaje SQL en nivel intermedio
+d. Conocimiento basico de SAP
+e. Conocimiento basico de conceptos contables, Recursos Humanos, Nomina
+y Finazas
+2. Competencias personales:
+a. Trabajo en equipo
+b. Habilidad para comunicar ideas, dar soluciones.
+c. Habilidad para trabajar bajo metodologías ágiles.
+d. Capacidad de adaptación
+e. Facilidad para adoptar métodos de trabajo y mejorarlos
+f. Orden y disciplina
+g. Habilidad para relaciones interpersonales
+h. Liderazgo
+i. Disposición para compartir conocimiento
+j. Inteligencia Emocional
+k. Habilidad para gestionar su tiempo
+3. Competencias Técnicas Específicas
+a. SQL (MySQL, Netezza, PostgreSQL, AS400)
+b. PHP, Python, Frameworks para desarrollo
+c. HTML, JavaScript, Bootstrap
+d. GIT
+e. SAP basico
+4. Competencias Extras
+a. Automatización de procesos
+b. Mejora de procesos ya existentes
+5. Cumplimiento y Ética de Trabajo
+a. Disponibilidad de horario
+b. Respeto a los compañeros
+c. Confidencialidad
+d. Responsabilidad
+e. Integridad
+f. Puntualidad
+g. Profesionalismo</v>
       </c>
     </row>
     <row r="14" xml:space="preserve">
       <c r="A14" t="str">
-        <v>Auxiliar limpieza - Central de Abastos</v>
+        <v>Programador/a - Temporal</v>
       </c>
       <c r="B14" t="str">
-        <v>Idea Market Solutions</v>
+        <v>Caja Morelia Valladolid</v>
       </c>
       <c r="C14" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>Caja Morelia Valladolid - Morelia, Michoacán</v>
       </c>
       <c r="D14" t="str">
         <v>Tiempo Completo</v>
       </c>
       <c r="E14" t="str">
-        <v>$ 8,000.00 (Mensual)</v>
+        <v>A convenir</v>
       </c>
       <c r="F14" t="str">
-        <v>Hace 3 días (actualizada)</v>
+        <v>Hace 2 días (actualizada)</v>
       </c>
       <c r="G14" t="str" xml:space="preserve">
-        <v xml:space="preserve">Estamos en búsqueda de tu talento como:
-TENEMOS DISPONIBLES 2 VACANTES DE AUXILIAR DE LIMPIEZA:
-BARRENDERO
-Turno: Nocturno (De 6:00PM a 6:00AM)
-Sueldo: $10,000 mensuales
-BARRENDERO
-Turno: Vespertino (De 10:00AM a 7:00AM)
-Sueldo: $8,000 mensuales
-¡NO NECESITAS EXPERIENCIA! - INGRESO INMEDIATO
-Si estas interesada/o postúlate con tu CV actualizado</v>
+        <v xml:space="preserve">Empresa Mexicana dedicada al servicio Financiero con 59 años de historia y presencia nacional, Caja Morelia Valladolid solicita personal.
+PROGRAMADOR TEMPORAL
+OFECEMOS:
+-Sueldo base.
+-Prestaciones superiores a las de Ley.
+-Vales de despensa 8% del sueldo bruto mensual.
+-Fondo de ahorro del 13% del sueldo bruto mensual.
+-Seguro de vida.
+-Prima vacacional 100%.
+-30 días de aguinaldo desde el primer año.
+-Uniformes.
+-Opciones a becas.
+- Y mucho más...
+REQUISITOS:
+•Licenciatura o ingeniería Titulado en Informática, Sistemas Computacionales, TIC’s a fines.
+•Dominio de bases de datos SQL SERVER
+•Dominio de .NET C# o JAVA
+•Dominio Programación web (Html5, Maquetado CSS, Javascript, ECMAScript 2015+, VueJS2)
+•Dominio API Rest y SOAP (Net Core, nodeJS)
+•Dominio Programación móvil (Android, IOS, híbrido o nativo)
+•Manejo de Control de Versiones GIT.
+•Manejo de Plataforma JIRA &amp; Confluence
+•Deseable Delphi 6
+Horario de trabajo: Lunes a Viernes de 8:30 am a 5 pm y Sábados de 8:30 am a 2 pm
+Interesados postularse por este medio</v>
       </c>
     </row>
     <row r="15" xml:space="preserve">
       <c r="A15" t="str">
-        <v>Auxiliar de Limpieza sin Experiencia para Iztapalapa Turno Nocturno - $10,000 mensual Contratación el mismo dia</v>
+        <v>Programador Jr.</v>
       </c>
       <c r="B15" t="str">
-        <v>Idea Market Solutions</v>
+        <v>No disponible</v>
       </c>
       <c r="C15" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>Importante empresa del sector - Tlalnepantla de Baz, Estado de México</v>
       </c>
       <c r="D15" t="str">
         <v>Tiempo Completo</v>
       </c>
       <c r="E15" t="str">
-        <v>$ 10,000.00 (Mensual)</v>
+        <v>A convenir</v>
       </c>
       <c r="F15" t="str">
-        <v>Hace 7 días (actualizada)</v>
+        <v>Hace 2 días (actualizada)</v>
       </c>
       <c r="G15" t="str" xml:space="preserve">
-        <v xml:space="preserve">"Importante marca de Limpieza está en busca de tu talento"
-Solicita Axiliar de limpieza (Barrendero) sin Experiencia
+        <v xml:space="preserve">Importante empresa del sector manufacturero.
+Busca talento de: Programador
 Requisitos:
-Tener disponibilidad de Horario
-Buena Actitud
-Lunes a Domingo con descanso entre semana
-Edad: entre 18 a 55 años
-No contar con Infonavit de preferencia
-Sin tatuajes o perforaciones de preferencia
-Zona de trabajo: Iztapalapa
-OFRECEMOS:
-Sueldo base Neto semana $2500 semanal
-Nocturno 5pm a 5am $2500 semanales
-Pago Semanal
-Vacante Fija
-Si estas interesada/o postúlate con tu CV actualizado</v>
+Escolaridad: Licenciatura en Sistemas.
+Experiencia: Mínimo un año en programación o en el área de TI.
+Conocimientos:
+*Lenguajes de programación VB6, VB .NET, JavaScript, NodeJs, ReactJs,
+Transact-SQL.
+*Entornos Scrum.
+*Implementación de funcionalidades back-end y front-end.
+*Desarrollo de API Rest full manejando bases de datos relacionales.
+*Capacidad de análisis de requerimientos, problemas y diseño de soluciones.
+*Aplicación de mejores prácticas, calidad del software y mejora continua.
+*Uso de estándares de codificación.
+*Conocimiento y uso de Hooks.
+*Uso de control de versiones GI.T
+*Uso de Reporteadores Crystal Reports, Reports de VB.
+*Office Intermedio (Word, Excel, Power Point, Outlook).
+Ofrecemos:
+Prestaciones de ley y superiores a las de ley.
+Contratación directa por la empresa.
+Beneficios para ti y tu familia.
+Interesados:
+Postularse por este medio con cv actualizado y fotografía.</v>
       </c>
     </row>
     <row r="16" xml:space="preserve">
       <c r="A16" t="str">
-        <v>Auxiliar de Limpieza sin Experiencia para Iztapalapa Turno Intermedio - $8000 mensual Contratación el mismo dia</v>
+        <v>Desarrollador Fullstack Angular - Hibrido</v>
       </c>
       <c r="B16" t="str">
-        <v>Idea Market Solutions</v>
+        <v>CORUS</v>
       </c>
       <c r="C16" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>CORUS - Benito Juárez, Ciudad de México DF</v>
       </c>
       <c r="D16" t="str">
-        <v>Tiempo Completo</v>
+        <v>Presencial y remoto</v>
       </c>
       <c r="E16" t="str">
-        <v>$ 8,000.00 (Mensual)</v>
+        <v>$ 28,000.00 (Mensual)</v>
       </c>
       <c r="F16" t="str">
-        <v>Hace 7 días (actualizada)</v>
+        <v>Hace 3 días (actualizada)</v>
       </c>
       <c r="G16" t="str" xml:space="preserve">
-        <v xml:space="preserve">"Importante marca de Limpieza está en busca de tu talento"
-Solicita Axiliar de limpieza (Barrendero) sin Experiencia
-Requisitos:
-Tener disponibilidad de Horario
-Buena Actitud
-Lunes a Domingo con descanso entre semana 10 am a 7pm
-Edad: entre 18 a 55 años
-No contar con Infonavit de preferencia
-Sin tatuajes o perforaciones de preferencia
-Zona de trabajo: Iztapalapa
-OFRECEMOS:
-Sueldo base Neto semanal $2000 semanal
-Intermedio 10am a 7pm $2000 semanales
-Pago Semanal
-Vacante Fija
-Si estas interesada/o postúlate con tu CV actualizado</v>
+        <v xml:space="preserve">Corus Consulting somos una consultora con más de 15 años de experiencia con diferentes clientes a nivel mundial; tenemos presencia en Europa, Estados Unidos, Asia y México.
+Nos encontramos en búsqueda de tu talento para laborar como:
+Desarrollador Fullstack
+Experiencia:
+• Experiencia como desarrollador Fullstack de 4 años o más
+• Experiencia con herramientas de programación: Orientada a objetos, Angular, integración de servicios, microservicios.
+• Conocimientos en: Javascript, Typescript, Kubernetes, bases de datos, APIS, NodeJS, Inyección de dependencias, HTML5, CSS3,
+• Conocimientos deseables: Google Cloud Platform, Devops y Python
+Actividades a realizar:
+• Recibir y entender los requerimientos de negocio para poder desarrollarlos con tecnología Angular
+• Desarrollar nuevos módulos principalmente el consumo de servicios de un backend en Python.
+• Entendimiento de microservicios rest
+• Manejo de bases de datos
+Modalidad de trabajo:
+• Hibrido (2 a 3 días por semana de asistencia a oficinas)
+• Zona: México
+• Horario: lunes a viernes
+Ofrecemos:
+• Esquema 100% nomina
+• Sueldo $28,000 netos según experiencia
+• Prestaciones de ley: (12 días de vacaciones en el 1er año, 15 días de aguinaldo, 25% prima vacacional, Seguro social)
+• Prestaciones superiores a las de la ley
+• Cursos y/o certificaciones
+• Pago de PTU
+• Plan de carrera.</v>
       </c>
     </row>
     <row r="17" xml:space="preserve">
       <c r="A17" t="str">
-        <v>Auxiliares de limpieza contratación inmediata - Iztapalapa Central de abastos</v>
+        <v>Líder técnico arquitecto Net y Java</v>
       </c>
       <c r="B17" t="str">
-        <v>Idea Market Solutions</v>
+        <v>BRENDCAR Soluciones en Informática, S.A. de C.V.</v>
       </c>
       <c r="C17" t="str">
-        <v>Idea Market Solutions - Iztapalapa, Ciudad de México DF</v>
+        <v>BRENDCAR Soluciones en Informática, S.A. de C.V. - Benito Juárez, Ciudad de México DF</v>
       </c>
       <c r="D17" t="str">
+        <v>Presencial y remoto</v>
+      </c>
+      <c r="E17" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G17" t="str" xml:space="preserve">
+        <v xml:space="preserve">Licenciado en Informática, Sistemas o carrera a Fin
+- Conocimiento en implementación de integraciones entre sistemas legacy y SaaS
+- Conocimiento en preparación de diagramas de arquitectura, componentes y documentación necesaria para representar las integraciones
+- Conocimiento en desarrollo de aplicaciones Web, APIs, Servicios Web, implementación de Middlewares
+- Conocimiento en implementación de SSOs entrantes y salientes
+- Conocimiento de especificación técnica y documentación del requerimiento de desarrollo para la fábrica de software
+- Conocimiento de documentación y despliegue a servidores QA y Producción
+- Conocimiento de integraciones de código en controlador de versiones
+- Conocimiento en mejores prácticas de desarrollo de software y seguridad de aplicaciones
+- Seguimiento a fábrica de software, acompañamiento en pruebas y revisión de entregables
+- Conocimiento de:
+-- Java y NodeJS
+-- .Net, .Net Core, C#
+-- API REST, Web Services, Windows Comunication Foundation
+-- Angular, HTML, CSS, Javascript, jQuery
+-- SQL Server 2016
+-- Microsoft Azure, AWS
+-- GitHub, Azure DevOps
+-- Windows
+-- Software de ofimática, Visio, Project</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>Work From Home Junior Backend Developer (Node.js) / Ref. 0111</v>
+      </c>
+      <c r="B18" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C18" t="str">
+        <v>BairesDev LLC - Guadalajara, Jalisco</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E18" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G18" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Junior Backend Developer (Node.js) at BairesDev
+As a Junior Backend Developer (Node.js), apply your JavaScript and Node.js skills to build efficient server-side applications. This role involves developing APIs, working with server-side logic, and enhancing your backend development capabilities.
+What you will do:
+- Develop and maintain Node.js applications, focusing on creating efficient back-end functionality.
+- Work on integrating user-facing elements with server-side logic, collaborating with front-end developers.
+- Troubleshoot and debug applications, contributing to improving application performance.
+- Participate in code reviews to learn and maintain high-quality coding standards.
+- Stay updated with new trends in Node.js and related technologies, understanding their application in development projects.
+- Participate actively in team meetings and contribute ideas to enhance project development and team collaboration.
+Heres what we are looking for:
+- 1+ year of experience with Node.js.
+- Good understanding of basic algorithms and data structures.
+- Basic knowledge of version control systems, preferably Git.
+- Ability to solve problems effectively and learn new technologies quickly.
+- Advanced level of English is a plus.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>Work From Home Technical Writer / Ref. 0623</v>
+      </c>
+      <c r="B19" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C19" t="str">
+        <v>BairesDev LLC - Tuxtla Gutiérrez, Chiapas</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E19" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G19" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Technical Writer at BairesDev
+As a Technical Writer, you are an integral part of an agile team that works to enhance, build, and deliver trusted market-leading technology products in a secure, stable, and scalable way. As a core technical contributor, you are responsible for conducting critical technology solutions across multiple technical areas within various business functions in support of the firms business objectives.
+What You Will Do:
+- Develop comprehensive documentation that meets organizational standards.
+- Obtain a deep understanding of products and services to translate complex product information into simple, polished, and engaging content.
+- Understand Current Architecture based on Microservices, and Chrome Browser extension.
+Heres what we are looking for:
+- Bachelors degree in a relevant technical field.
+- 4+ years of industry experience as an effective technical writer.
+- Good knowledge of Current Tech Stack: NodeJS, Chrome Browser Extension, Microservices, Datadog, AWS services (RDS, etc).
+- Proven ability to quickly learn and understand complex topics.
+- Previous experience writing documentation and procedural materials for multiple audiences.
+- Superior written and verbal communication skills, with a keen eye for detail.
+- Proven working experience in technical writing of software documentation.
+- Ability to quickly grasp complex technical concepts and make them easily understandable in text and pictures.
+- Strong working knowledge of Microsoft Office.
+- Basic familiarity with SDLC and software development.
+- Excellent / Above average written skills in English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>Work From Home Node.js Senior Developer / Ref. 0111E</v>
+      </c>
+      <c r="B20" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C20" t="str">
+        <v>BairesDev LLC - Puebla, Puebla</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E20" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G20" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Node.js Senior Developer at BairesDev
+As a Node.js Senior Developer, lead the development of high-performance server-side applications. Your expertise in Node.js will guide architectural decisions, mentor junior developers, and integrate cutting-edge server technologies, ensuring high-quality software delivery.
+What you will do:
+- Lead the design and development of complex and high-performance Node.js applications, ensuring alignment with business objectives.
+- Mentor junior and semi-senior developers, fostering a culture of technical excellence and innovation.
+- Make key architectural and design decisions, contributing to the strategic planning of software projects.
+- Oversee code reviews and ensure adherence to high standards of code quality and best practices.
+- Evaluate and advocate for the adoption of new Node.js technologies and frameworks.
+- Provide technical insights and recommendations to project managers, stakeholders, and team members.
+What we are looking for:
+- 5+ years of experience with Node.js.
+- Strong understanding of best practices, such as SOLID and clean code, focusing on scalable solutions.
+- Extensive experience with code reviews, writing automated tests, and implementing CI/CD pipelines.
+- Strong expertise in unit testing, integration testing, and maintaining high code coverage.
+- Demonstrated ability to make informed technical decisions and apply the best approach for each use case.
+- IT infrastructure knowledge.
+- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>Work From Home Senior Engineering Manager (Node.js) / Ref. 0111</v>
+      </c>
+      <c r="B21" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C21" t="str">
+        <v>BairesDev LLC - Hermosillo, Sonora</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E21" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G21" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Senior Engineering Manager (Node.js) at BairesDev
+Join as a Senior Engineering Manager (Node.js) to drive our development team with your deep understanding of Node.js. Youll oversee project development, set technical standards, and lead the team in delivering scalable and robust server-side applications, fostering innovation in backend development.
+What you will do:
+- Oversee the technical direction of Node.js projects, aligning technical decisions with business goals.
+- Lead and mentor a development team, promoting effective collaboration, skill development, and project success.
+- Define project requirements, scope, and timelines in collaboration with stakeholders.
+- Ensure the delivery of high-quality, scalable, and efficient Node.js solutions.
+- Stay informed on industry trends and emerging technologies, assessing their application in the teams projects.
+- Facilitate communication and problem-solving within the team, ensuring efficient workflow and addressing technical challenges proactively.
+Heres what we are looking for:
+- 7+ years of experience with Node.js.
+- Proficient in Agile methodologies, ensuring efficient project delivery and team collaboration.
+- In-depth knowledge of Design Patterns.
+- Advanced IT infrastructure knowledge.
+- Strong experience in application security best practices.
+- Proven track record in developing and integrating large-scale applications.
+- Expertise in both back-end and front-end development areas.
+- Skilled in conducting code reviews and managing CI/CD pipelines.
+- Expert understanding of clients requirements, assessing potential benefits and weaknesses.
+- Advanced knowledge of the trade-offs involved in choosing specific technologies or solutions.
+- Strong experience leading client and stakeholder meetings, effectively communicating technical concepts.
+- Demonstrated leadership skills in team management, task allocation, risk identification, decision-making, task estimation, conflict resolution, and project planning.
+- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>Work From Home Senior Tech Lead (Node.js) / Ref. 0111</v>
+      </c>
+      <c r="B22" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C22" t="str">
+        <v>BairesDev LLC - Ecatepec de Morelos, Estado de México</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E22" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G22" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Senior Tech Lead (Node.js) at BairesDev
+Join as a Senior Tech Lead (Node.js) to drive our development team with your deep understanding of Node.js. Youll oversee project development, set technical standards, and lead the team in delivering scalable and robust server-side applications, fostering innovation in backend development.
+What you will do:
+- Oversee the technical direction of Node.js projects, aligning technical decisions with business goals.
+- Lead and mentor a development team, promoting effective collaboration, skill development, and project success.
+- Define project requirements, scope, and timelines in collaboration with stakeholders.
+- Ensure the delivery of high-quality, scalable, and efficient Node.js solutions.
+- Stay informed on industry trends and emerging technologies, assessing their application in the teams projects.
+- Facilitate communication and problem-solving within the team, ensuring efficient workflow and addressing technical challenges proactively.
+Heres what we are looking for:
+- 7+ years of experience with Node.js.
+- Proficient in Agile methodologies, ensuring efficient project delivery and team collaboration.
+- In-depth knowledge of Design Patterns.
+- Advanced IT infrastructure knowledge.
+- Strong experience in application security best practices.
+- Proven track record in developing and integrating large-scale applications.
+- Expertise in both back-end and front-end development areas.
+- Skilled in conducting code reviews and managing CI/CD pipelines.
+- Expert understanding of clients requirements, assessing potential benefits and weaknesses.
+- Advanced knowledge of the trade-offs involved in choosing specific technologies or solutions.
+- Strong experience leading client and stakeholder meetings, effectively communicating technical concepts.
+- Demonstrated leadership skills in team management, task allocation, risk identification, decision-making, task estimation, conflict resolution, and project planning.
+- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>Trabajo Desde Casa Node.js Senior Tech Lead / Ref. 0111</v>
+      </c>
+      <c r="B23" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C23" t="str">
+        <v>BairesDev LLC - Guadalajara, Jalisco</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E23" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G23" t="str" xml:space="preserve">
+        <v xml:space="preserve">En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Node.js Senior Tech Lead en BairesDev
+Únete como Node.js Senior Tech Lead para impulsar a nuestro equipo de desarrollo con tu amplio conocimiento de Node.js. Supervisarás el desarrollo de proyectos, establecerás estándares técnicos y liderarás al equipo en la entrega de aplicaciones escalables y robustas del lado del servidor, fomentando la innovación en el desarrollo back-end.
+Lo que harás
+- Supervisar la dirección técnica de proyectos Node.js, alineando las decisiones técnicas con los objetivos comerciales.
+- Liderar y orientar a un equipo de desarrollo, promoviendo la colaboración efectiva y el éxito del proyecto.
+- Definir los requisitos, el alcance y los plazos del proyecto en colaboración con las partes interesadas.
+- Garantizar la entrega de soluciones Node.js de alta calidad, escalables y eficientes.
+- Mantenerte al día con las tendencias de la industria y las nuevas tecnologías, evaluando su aplicación en los proyectos del equipo.
+- Facilitar la comunicación y la resolución de problemas dentro del equipo, garantizando un flujo de trabajo eficiente y abordando los desafíos técnicos de manera proactiva.
+¿Qué Buscamos?
+- 7+ años de experiencia con Node.js.
+- Experto en metodologías Agile, asegurando la entrega eficiente del proyecto y la colaboración del equipo.
+- Dominio profundo de Patrones de Diseño.
+- Conocimiento avanzado de infraestructura IT.
+- Sólida experiencia en las mejores prácticas de seguridad de aplicaciones.
+- Historial comprobado en el desarrollo e integración de aplicaciones a gran escala.
+- Experiencia en ambas áreas de desarrollo, front-end y back-end.
+- Habilidad para realizar revisiones de código y administrar pipelines de CI/CD.
+- Comprensión clara de los requisitos del cliente, evaluando los beneficios y debilidades potenciales.
+- Conocimiento avanzado de las ventajas y desventajas de elegir tecnologías o soluciones específicas.
+- Amplia experiencia en liderar reuniones con clientes y partes interesadas, comunicando efectivamente conceptos técnicos.
+- Habilidades de liderazgo demostradas en la gestión de equipos, asignación y estimación de tareas, identificación de riesgos, toma de decisiones, resolución de conflictos y planificación de proyectos.
+- Inglés avanzado.
+Qué ofrecemos para que tu trabajo (y tu vida) sea más fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.
+- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.
+- Hardware y software.
+- Horarios flexibles
+- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.
+- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.
+- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>Work From Home Node.js Junior Engineer / Ref. 0111</v>
+      </c>
+      <c r="B24" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C24" t="str">
+        <v>BairesDev LLC - Chilcuautla, Hidalgo</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E24" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G24" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Node.js Junior Engineer at BairesDev
+As a Node.js Junior Engineer, apply your JavaScript and Node.js skills to build efficient server-side applications. This role involves developing APIs, working with server-side logic, and enhancing your backend development capabilities.
+What you will do:
+- Develop and maintain Node.js applications, focusing on creating efficient back-end functionality.
+- Work on integrating user-facing elements with server-side logic, collaborating with front-end developers.
+- Troubleshoot and debug applications, contributing to improving application performance.
+- Participate in code reviews to learn and maintain high-quality coding standards.
+- Stay updated with new trends in Node.js and related technologies, understanding their application in development projects.
+- Participate actively in team meetings and contribute ideas to enhance project development and team collaboration.
+Heres what we are looking for:
+- 1+ year of experience with Node.js.
+- Good understanding of basic algorithms and data structures.
+- Basic knowledge of version control systems, preferably Git.
+- Ability to solve problems effectively and learn new technologies quickly.
+- Advanced level of English is a plus.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>Work From Home Node.js Junior Developer / Ref. 0111</v>
+      </c>
+      <c r="B25" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C25" t="str">
+        <v>BairesDev LLC - Tulum, Quintana Roo</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E25" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G25" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Node.js Junior Developer at BairesDev
+As a Node.js Junior Developer, apply your JavaScript and Node.js skills to build efficient server-side applications. This role involves developing APIs, working with server-side logic, and enhancing your backend development capabilities.
+What you will do:
+- Develop and maintain Node.js applications, focusing on creating efficient back-end functionality.
+- Work on integrating user-facing elements with server-side logic, collaborating with front-end developers.
+- Troubleshoot and debug applications, contributing to improving application performance.
+- Participate in code reviews to learn and maintain high-quality coding standards.
+- Stay updated with new trends in Node.js and related technologies, understanding their application in development projects.
+- Participate actively in team meetings and contribute ideas to enhance project development and team collaboration.
+Heres what we are looking for:
+- 1+ year of experience with Node.js.
+- Good understanding of basic algorithms and data structures.
+- Basic knowledge of version control systems, preferably Git.
+- Ability to solve problems effectively and learn new technologies quickly.
+- Advanced level of English is a plus.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>Trabajo Desde Casa Desarrollador Node.js / Ref. 0111</v>
+      </c>
+      <c r="B26" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C26" t="str">
+        <v>BairesDev LLC - Tijuana, Baja California</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E26" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G26" t="str" xml:space="preserve">
+        <v xml:space="preserve">En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Desarrollador Node.js en BairesDev
+Como Desarrollador Node.js en BairesDev, diseñarás e implementarás aplicaciones del lado del servidor utilizando Node.js y tecnologías relacionadas. Aplicarás tu experiencia para desarrollar servicios backend escalables, optimizar el rendimiento de APIs y colaborar con equipos multifuncionales para entregar software de alta calidad que cumpla con los requisitos del negocio.
+Qué harás:
+- Diseñar, desarrollar y mantener aplicaciones Node.js, demostrando habilidades avanzadas de resolución de problemas y competencia en codificación.
+- Construir APIs RESTful y arquitecturas de microservicios para soportar aplicaciones web y móviles.
+- Implementar esquemas y consultas de bases de datos eficientes para optimizar el acceso y almacenamiento de datos.
+- Integrar servicios de terceros y APIs externas para mejorar la funcionalidad de las aplicaciones.
+- Solucionar problemas, depurar y actualizar aplicaciones del lado del servidor existentes para mejorar el rendimiento.
+- Participar en revisiones de código y discusiones técnicas para mejorar la calidad general del código.
+Qué buscamos:
+- 3+ años de experiencia con desarrollo Node.js.
+- Experiencia con tecnologías de bases de datos (SQL o NoSQL).
+- Familiaridad con desarrollo e integración de APIs.
+- Conocimiento de JavaScript y características modernas de ES6+.
+- Experiencia con sistemas de control de versiones, preferiblemente Git.
+- Nivel avanzado de inglés.
+Qué ofrecemos para que tu trabajo (y tu vida) sea más fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.
+- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.
+- Hardware y software.
+- Horarios flexibles
+- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.
+- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.
+- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>Trabajo Desde Casa Desarrollador Junior Node.js / Ref. 0111</v>
+      </c>
+      <c r="B27" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C27" t="str">
+        <v>BairesDev LLC - Mulegé, Baja California Sur</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E27" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G27" t="str" xml:space="preserve">
+        <v xml:space="preserve">En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Desarrollador Junior Node.js en BairesDev
+Como Desarrollador Junior Node.js, aplica tus conocimientos de JavaScript y Node.js para construir aplicaciones eficientes. Este rol involucra el desarrollo de APIs, trabajo con lógica del lado del servidor y la mejora de tus capacidades de desarrollo back-end.
+Lo que harás
+- Desarrollar y mantener aplicaciones Node.js, centrándote en crear funcionalidades eficientes del back-end.
+- Trabajar en la integración de elementos orientados al usuario con la lógica del lado del servidor, colaborando con desarrolladores front-end.
+- Solucionar problemas y depurar aplicaciones, contribuyendo a la mejora del rendimiento de las aplicaciones.
+- Participar en revisiones de código para aprender y mantener estándares de programación de alta calidad.
+- Mantenerte al día con las nuevas tendencias en Node.js y tecnologías relacionadas, entendiendo su aplicación en proyectos de desarrollo.
+- Participar activamente en reuniones de equipo y contribuir con ideas para mejorar el desarrollo del proyecto y la colaboración del equipo.
+¿Qué Buscamos?
+- 1+ año de experiencia con Node.js.
+- Buen entendimiento de algoritmos básicos y estructuras de datos.
+- Conocimiento básico de sistemas de control de versiones, preferiblemente Git.
+- Capacidad para resolver problemas de manera eficaz y aprender nuevas tecnologías rápidamente.
+- Buen nivel de inglés
+Qué ofrecemos para que tu trabajo (y tu vida) sea más fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.
+- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.
+- Hardware y software.
+- Horarios flexibles
+- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.
+- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.
+- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>Becario Tester - Backend</v>
+      </c>
+      <c r="B28" t="str">
+        <v>No disponible</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Importante empresa del sector - Miguel Hidalgo, Ciudad de México DF</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Presencial y remoto</v>
+      </c>
+      <c r="E28" t="str">
+        <v>$ 8,000.00 (Mensual)</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G28" t="str" xml:space="preserve">
+        <v xml:space="preserve">BECARIO (A) TESTER BACKEND
+Escolaridad:
+Licenciatura Curso Ing. Sistemas Computacionales, Computación, Informática, Ingeniería de Software o afín en curso.
+Conocimientos Solidos:
+Javascript - Intermedio
+NodeJS - Intermedio
+TypeScript - Básico
+Base de datos SQL/Nosql
+Control de versiones (Git)
+Funcionamiento básico de APIS
+PRUEBAS DE SOFTWARE A NIVEL USUARIO
+Pruebas Caja Blanca
+Pruebas Caja Negra
+Requisitos:
+-Ser estudiante de los últimos semestres de la ingeniería
+-6to semestre en adelante
+-No egresados ni pasantes.
+-No estar a menos de 6 meses de concluir tus estudios universitarios.
+-Disponibilidad para cubrir 30h semanales (seis horas diarias lunes a viernes)
+Responsabilidades:
+Colaborar en la planificación y ejecución de pruebas de software
+Identificar, reportar y dar seguimiento a defectos o errores en el sistema
+Desarrollar y ejecutar pruebas automatizadas para servicios backend
+Ayudar en la documentación de los procesos de prueba y resultados
+Habilidades
+-Iniciativa, Proactivo, Análisis, integración a equipos de trabajo, trabajo bajo presión.
+Ofrecemos:
+-Beca económica mensual de $8,000 (libres)
+-Zona de trabajo Polanco,
+-Modalidad hibrida 3 dias presenciales, 2 dias home office
+-Indispensable vivir en CDMX o Municipios cercanos a la CDMX, no mas de 1 hr de Polanco
+Si te interesa la vacante envía tu CV por este medio.</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>Work From Home Junior Backend Developer (Node.js) / Ref. 0111</v>
+      </c>
+      <c r="B29" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C29" t="str">
+        <v>BairesDev LLC - Culiacán, Sinaloa</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E29" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Hace 3 días (actualizada)</v>
+      </c>
+      <c r="G29" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Junior Backend Developer (Node.js) at BairesDev
+As a Junior Backend Developer (Node.js), apply your JavaScript and Node.js skills to build efficient server-side applications. This role involves developing APIs, working with server-side logic, and enhancing your backend development capabilities.
+What you will do:
+- Develop and maintain Node.js applications, focusing on creating efficient back-end functionality.
+- Work on integrating user-facing elements with server-side logic, collaborating with front-end developers.
+- Troubleshoot and debug applications, contributing to improving application performance.
+- Participate in code reviews to learn and maintain high-quality coding standards.
+- Stay updated with new trends in Node.js and related technologies, understanding their application in development projects.
+- Participate actively in team meetings and contribute ideas to enhance project development and team collaboration.
+Heres what we are looking for:
+- 1+ year of experience with Node.js.
+- Good understanding of basic algorithms and data structures.
+- Basic knowledge of version control systems, preferably Git.
+- Ability to solve problems effectively and learn new technologies quickly.
+- Advanced level of English is a plus.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>Work From Home Technical Writer / Ref. 0623</v>
+      </c>
+      <c r="B30" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C30" t="str">
+        <v>BairesDev LLC - Hermosillo, Sonora</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E30" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G30" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Technical Writer at BairesDev
+As a Technical Writer, you are an integral part of an agile team that works to enhance, build, and deliver trusted market-leading technology products in a secure, stable, and scalable way. As a core technical contributor, you are responsible for conducting critical technology solutions across multiple technical areas within various business functions in support of the firms business objectives.
+What You Will Do:
+- Develop comprehensive documentation that meets organizational standards.
+- Obtain a deep understanding of products and services to translate complex product information into simple, polished, and engaging content.
+- Understand Current Architecture based on Microservices, and Chrome Browser extension.
+Heres what we are looking for:
+- Bachelors degree in a relevant technical field.
+- 4+ years of industry experience as an effective technical writer.
+- Good knowledge of Current Tech Stack: NodeJS, Chrome Browser Extension, Microservices, Datadog, AWS services (RDS, etc).
+- Proven ability to quickly learn and understand complex topics.
+- Previous experience writing documentation and procedural materials for multiple audiences.
+- Superior written and verbal communication skills, with a keen eye for detail.
+- Proven working experience in technical writing of software documentation.
+- Ability to quickly grasp complex technical concepts and make them easily understandable in text and pictures.
+- Strong working knowledge of Microsoft Office.
+- Basic familiarity with SDLC and software development.
+- Excellent / Above average written skills in English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>Work From Home Senior Engineering Manager (Node.js) / Ref. 0111</v>
+      </c>
+      <c r="B31" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C31" t="str">
+        <v>BairesDev LLC - Ecatepec de Morelos, Estado de México</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E31" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G31" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Senior Engineering Manager (Node.js) at BairesDev
+Join as a Senior Engineering Manager (Node.js) to drive our development team with your deep understanding of Node.js. Youll oversee project development, set technical standards, and lead the team in delivering scalable and robust server-side applications, fostering innovation in backend development.
+What you will do:
+- Oversee the technical direction of Node.js projects, aligning technical decisions with business goals.
+- Lead and mentor a development team, promoting effective collaboration, skill development, and project success.
+- Define project requirements, scope, and timelines in collaboration with stakeholders.
+- Ensure the delivery of high-quality, scalable, and efficient Node.js solutions.
+- Stay informed on industry trends and emerging technologies, assessing their application in the teams projects.
+- Facilitate communication and problem-solving within the team, ensuring efficient workflow and addressing technical challenges proactively.
+Heres what we are looking for:
+- 7+ years of experience with Node.js.
+- Proficient in Agile methodologies, ensuring efficient project delivery and team collaboration.
+- In-depth knowledge of Design Patterns.
+- Advanced IT infrastructure knowledge.
+- Strong experience in application security best practices.
+- Proven track record in developing and integrating large-scale applications.
+- Expertise in both back-end and front-end development areas.
+- Skilled in conducting code reviews and managing CI/CD pipelines.
+- Expert understanding of clients requirements, assessing potential benefits and weaknesses.
+- Advanced knowledge of the trade-offs involved in choosing specific technologies or solutions.
+- Strong experience leading client and stakeholder meetings, effectively communicating technical concepts.
+- Demonstrated leadership skills in team management, task allocation, risk identification, decision-making, task estimation, conflict resolution, and project planning.
+- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>Work From Home Node.js Junior Developer / Ref. 0111</v>
+      </c>
+      <c r="B32" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C32" t="str">
+        <v>BairesDev LLC - Benito Juárez, Quintana Roo</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E32" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G32" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Node.js Junior Developer at BairesDev
+As a Node.js Junior Developer, apply your JavaScript and Node.js skills to build efficient server-side applications. This role involves developing APIs, working with server-side logic, and enhancing your backend development capabilities.
+What you will do:
+- Develop and maintain Node.js applications, focusing on creating efficient back-end functionality.
+- Work on integrating user-facing elements with server-side logic, collaborating with front-end developers.
+- Troubleshoot and debug applications, contributing to improving application performance.
+- Participate in code reviews to learn and maintain high-quality coding standards.
+- Stay updated with new trends in Node.js and related technologies, understanding their application in development projects.
+- Participate actively in team meetings and contribute ideas to enhance project development and team collaboration.
+Heres what we are looking for:
+- 1+ year of experience with Node.js.
+- Good understanding of basic algorithms and data structures.
+- Basic knowledge of version control systems, preferably Git.
+- Ability to solve problems effectively and learn new technologies quickly.
+- Advanced level of English is a plus.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>Desarrollador Web - Front End/Back End/Full Stack</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Grupo seguridad integral</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Grupo seguridad integral - Venustiano Carranza, Ciudad de México DF</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Presencial y remoto</v>
+      </c>
+      <c r="E33" t="str">
+        <v>$ 20,000.00 (Mensual)</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Hace 5 días (actualizada)</v>
+      </c>
+      <c r="G33" t="str" xml:space="preserve">
+        <v xml:space="preserve">GRUPO SEGURIDAD INTEGRAL
+Líderes en traslado de valores y seguridad privada conformados por más de 50 empresas como: Cometra, Sepsa, Seguritec, Tecnoval, Tameme, Grumer, etc... Te invita a formar parte de su equipo de trabajo.
+REQUISITOS:
+- Licenciatura o Ingeniería en sistemas o similares.
+- Ingles: Básico - Intermedio
+CONOCIMIENTOS:
+- JavaScrip
+- NodeJs
+- React Jsa
+- Python
+- Base de datos SQL y No SQL
+- Mongo DB, My SQL, JWT
+- RESTful SOAP Services
+- Herramientas de seguimiento de proyectos (Jira, Notion y similares)
+- Controlador de versiones (Git, github)
+- Metodologías de desarrollo ágil (Scrum)
+- Windows, Linux
+FUNCIONES:
+- Desarrollo de nuevos proyectos, orientados a la web y aplicaciones de escritorio, así como mantenimiento y mejora a los ya existentes.
+- Integración de tecnologías innovadoras.
+- Resolución de problemas y atención a incidencias.
+- Control y monitoreo de proyectos.
+- Cumplimiento eficaz de tareas asignadas.
+- Desarrollo de módulos para lógica de negocios.
+- Maqueado y desarrollo de vistas basadas en UI/UX, etc.
+OFRECEMOS:
+- Sueldo de 18 mil a 22 mil según habilidades.
+- Prestaciones de Ley: IMSS desde el primer día, aguinaldo, vacaciones, prima vacacional.
+- Home office y presencial (oficinas en la Alcaldía Venustiano Carranza)
+Si te encuentras interesado(a) en la vacante favor de postularse por este medio y nos pondremos en contacto contigo.</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
+        <v>Trabajo Desde Casa Desarrollador Junior Node.js / Ref. 0111</v>
+      </c>
+      <c r="B34" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C34" t="str">
+        <v>BairesDev LLC - Chihuahua, Chihuahua</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E34" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G34" t="str" xml:space="preserve">
+        <v xml:space="preserve">En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Desarrollador Junior Node.js en BairesDev
+Como Desarrollador Junior Node.js, aplica tus conocimientos de JavaScript y Node.js para construir aplicaciones eficientes. Este rol involucra el desarrollo de APIs, trabajo con lógica del lado del servidor y la mejora de tus capacidades de desarrollo back-end.
+Lo que harás
+- Desarrollar y mantener aplicaciones Node.js, centrándote en crear funcionalidades eficientes del back-end.
+- Trabajar en la integración de elementos orientados al usuario con la lógica del lado del servidor, colaborando con desarrolladores front-end.
+- Solucionar problemas y depurar aplicaciones, contribuyendo a la mejora del rendimiento de las aplicaciones.
+- Participar en revisiones de código para aprender y mantener estándares de programación de alta calidad.
+- Mantenerte al día con las nuevas tendencias en Node.js y tecnologías relacionadas, entendiendo su aplicación en proyectos de desarrollo.
+- Participar activamente en reuniones de equipo y contribuir con ideas para mejorar el desarrollo del proyecto y la colaboración del equipo.
+¿Qué Buscamos?
+- 1+ año de experiencia con Node.js.
+- Buen entendimiento de algoritmos básicos y estructuras de datos.
+- Conocimiento básico de sistemas de control de versiones, preferiblemente Git.
+- Capacidad para resolver problemas de manera eficaz y aprender nuevas tecnologías rápidamente.
+- Buen nivel de inglés
+Qué ofrecemos para que tu trabajo (y tu vida) sea más fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.
+- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.
+- Hardware y software.
+- Horarios flexibles
+- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.
+- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.
+- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str">
+        <v>Full Stack WordPress Developer</v>
+      </c>
+      <c r="B35" t="str">
+        <v>HAPPIEST MINDS INC</v>
+      </c>
+      <c r="C35" t="str">
+        <v>HAPPIEST MINDS INC - Gustavo A. Madero, Ciudad de México DF</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E35" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Hace 5 días (actualizada)</v>
+      </c>
+      <c r="G35" t="str" xml:space="preserve">
+        <v xml:space="preserve">Job Description
+Full Stack WordPress Developer - will work with a talented team to bridge the gap between graphical design and technical implementation.
+Responsible for maintaining and enhancing the organization’s custom WordPress technology stack, developing scalable solutions, and ensuring best practices in performance, security, and accessibility.
+Main Responsibilities
+• Construct new websites using a custom WordPress technology stack
+• Produce marketing assets to support new partners and programs
+• Migrate legacy websites into Client's standard custom WordPress stack
+• Maintain websites via production tickets and ad hoc projects
+• Implement new features/enhancements to site platform
+• Create custom modules for content entry and publishing automation
+• Optimize code bases via page speed diagnostics to improve browser efficiency and search rankings
+• Quality assurance reviews of other developers’ work
+• Troubleshoot errors by reviewing logs and browser consoles
+• Assist with feature documentation
+• Ensure the technical feasibility of UI/UX designs for responsive page development; strong understanding of responsive design best practices
+• Ensure accessibility compliancy via WCAG 2.0 A and AA standards
+• Collaborate with other team members and stakeholders
+Job Requirements
+• Bachelor’s degree in related field or equivalent work experience preferred
+• 5+ years full stack development experience
+• 3+ years WordPress development experience
+• Familiarity with WordPress database schema, ability to write and execute WordPress database queries, updates
+• Familiarity with WordPress wp-cli command line utility
+• Proficient understanding of front-end technologies including HTML5, CSS3, SASS, JS and jQuery. Experience with ReactJS, BootStrap, Vue is a plus
+• Experience working with A/B testing frameworks such as Webflow Intellimize
+• Advanced knowledge of PHP (5+ years) and MySQL (3+ years)
+• Experience implementing and consuming JSON RESTful APIs; experience with NodeJS is a plus
+• Experience working with Pantheon hosting platform (including Pantheon Terminus utility) is a plus
+• Worpress Plugin Development Experience
+• Experience working with Azure DevOps
+• Familiarity with Elementor visual designer experience
+• Experience with Tealium customer data platform is a plus
+• Experience Conversion Rate Optimization strategies, implementing A/B testing (using tools such as Intellimize), is a strong plus
+• Understanding of custom post type development and implementation via visual designers
+• Understanding of standard web performance benchmarks such as Google Core Web Vitals
+• Experience with CMS parent and child theme development
+• Experience with GIT version control tools and local development
+• Ability to interpret Figma designs into code
+• Strong understanding of best practices in software design and implementation
+• Strong understanding of data architecture
+• Experience with code security standards, such as using PHPCS, Sonar Cube code scanning utilities nice to have
+• Experience performing code reviews in collaborative team environment
+• Demonstrated ability to effectively and indepently work within a mid-sized development team using formal SDLC methodologies such as Scrum. Proven ability to assess, estimate and deliver solutions that meet requirements and timelines.
+• Knowledge of schema markup and code optimization for search rankings
+• Analytical mindset with strong quantitative and problem-solving skills
+• Effective communication and documentation skills</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str">
+        <v>Programador/a - Temporal</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Caja Morelia Valladolid</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Caja Morelia Valladolid - Morelia, Michoacán</v>
+      </c>
+      <c r="D36" t="str">
         <v>Tiempo Completo</v>
       </c>
-      <c r="E17" t="str">
-        <v>$ 10,000.00 (Mensual)</v>
-      </c>
-      <c r="F17" t="str">
-        <v>6 de julio (actualizada)</v>
-      </c>
-      <c r="G17" t="str" xml:space="preserve">
-        <v xml:space="preserve">Importante empresa de residuos está en busca de tu talento
-Solicitamos personal de limpieza (diversas áreas)
-Barrenderos
-Auxiliares de limpieza de pasillos
-Lavadores de camiones
-ZONA IZTAPALAPA
-OFRECEMOS:
-Sueldo semanal (dependiendo de la posición)
-Horario dependiendo de la operación
-Pagos semanales
-Requisitos:
-Disponibilidad de horario
-Experiencia no necesaria o mínima
-Zona de trabajo
-CENTRAL DE ABASTOS IZTAPALAPA
-Si estas interesada/o postúlate con tu CV actualizado o marca al 5580109495</v>
+      <c r="E36" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G36" t="str" xml:space="preserve">
+        <v xml:space="preserve">Empresa Mexicana dedicada al servicio Financiero con 59 años de historia y presencia nacional, Caja Morelia Valladolid solicita personal.
+PROGRAMADOR TEMPORAL
+OFECEMOS:
+-Sueldo base.
+-Prestaciones superiores a las de Ley.
+-Vales de despensa 8% del sueldo bruto mensual.
+-Fondo de ahorro del 13% del sueldo bruto mensual.
+-Seguro de vida.
+-Prima vacacional 100%.
+-30 días de aguinaldo desde el primer año.
+-Uniformes.
+-Opciones a becas.
+- Y mucho más...
+REQUISITOS:
+•Licenciatura o ingeniería Titulado en Informática, Sistemas Computacionales, TIC’s a fines.
+•Dominio de bases de datos SQL SERVER
+•Dominio de .NET C# o JAVA
+•Dominio Programación web (Html5, Maquetado CSS, Javascript, ECMAScript 2015+, VueJS2)
+•Dominio API Rest y SOAP (Net Core, nodeJS)
+•Dominio Programación móvil (Android, IOS, híbrido o nativo)
+•Manejo de Control de Versiones GIT.
+•Manejo de Plataforma JIRA &amp; Confluence
+•Deseable Delphi 6
+Horario de trabajo: Lunes a Viernes de 8:30 am a 5 pm y Sábados de 8:30 am a 2 pm
+Interesados postularse por este medio</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str">
+        <v>Work From Home Senior Engineering Manager (Node.js) / Ref. 0111</v>
+      </c>
+      <c r="B37" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C37" t="str">
+        <v>BairesDev LLC - Ensenada, Baja California</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E37" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G37" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Senior Engineering Manager (Node.js) at BairesDev
+Join as a Senior Engineering Manager (Node.js) to drive our development team with your deep understanding of Node.js. Youll oversee project development, set technical standards, and lead the team in delivering scalable and robust server-side applications, fostering innovation in backend development.
+What you will do:
+- Oversee the technical direction of Node.js projects, aligning technical decisions with business goals.
+- Lead and mentor a development team, promoting effective collaboration, skill development, and project success.
+- Define project requirements, scope, and timelines in collaboration with stakeholders.
+- Ensure the delivery of high-quality, scalable, and efficient Node.js solutions.
+- Stay informed on industry trends and emerging technologies, assessing their application in the teams projects.
+- Facilitate communication and problem-solving within the team, ensuring efficient workflow and addressing technical challenges proactively.
+Heres what we are looking for:
+- 7+ years of experience with Node.js.
+- Proficient in Agile methodologies, ensuring efficient project delivery and team collaboration.
+- In-depth knowledge of Design Patterns.
+- Advanced IT infrastructure knowledge.
+- Strong experience in application security best practices.
+- Proven track record in developing and integrating large-scale applications.
+- Expertise in both back-end and front-end development areas.
+- Skilled in conducting code reviews and managing CI/CD pipelines.
+- Expert understanding of clients requirements, assessing potential benefits and weaknesses.
+- Advanced knowledge of the trade-offs involved in choosing specific technologies or solutions.
+- Strong experience leading client and stakeholder meetings, effectively communicating technical concepts.
+- Demonstrated leadership skills in team management, task allocation, risk identification, decision-making, task estimation, conflict resolution, and project planning.
+- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>Work From Home Node.js Junior Developer / Ref. 0111</v>
+      </c>
+      <c r="B38" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C38" t="str">
+        <v>BairesDev LLC - Aguascalientes, Aguascalientes</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E38" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Hace 4 días (actualizada)</v>
+      </c>
+      <c r="G38" t="str" xml:space="preserve">
+        <v xml:space="preserve">At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Node.js Junior Developer at BairesDev
+As a Node.js Junior Developer, apply your JavaScript and Node.js skills to build efficient server-side applications. This role involves developing APIs, working with server-side logic, and enhancing your backend development capabilities.
+What you will do:
+- Develop and maintain Node.js applications, focusing on creating efficient back-end functionality.
+- Work on integrating user-facing elements with server-side logic, collaborating with front-end developers.
+- Troubleshoot and debug applications, contributing to improving application performance.
+- Participate in code reviews to learn and maintain high-quality coding standards.
+- Stay updated with new trends in Node.js and related technologies, understanding their application in development projects.
+- Participate actively in team meetings and contribute ideas to enhance project development and team collaboration.
+Heres what we are looking for:
+- 1+ year of experience with Node.js.
+- Good understanding of basic algorithms and data structures.
+- Basic knowledge of version control systems, preferably Git.
+- Ability to solve problems effectively and learn new technologies quickly.
+- Advanced level of English is a plus.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).
+- Excellent compensation in USD or your local currency if preferred
+- Hardware and software setup for you to work from home.
+- Flexible hours: create your own schedule.
+- Paid parental leaves, vacations, and national holidays.
+- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.
+- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>Java Fullstack React - Backend or Frontend Engineers</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Adecco</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Adecco - Benito Juárez, Ciudad de México DF</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Remoto</v>
+      </c>
+      <c r="E39" t="str">
+        <v>$ 60,000.00 (Mensual)</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Hace más de 30 días</v>
+      </c>
+      <c r="G39" t="str" xml:space="preserve">
+        <v xml:space="preserve">Roles: Java, Java React, Java Back End, Java Front End Engineers
+Requirements and Offer Job
+Education: Bachelor’s Degree in Information Technologies or related.
+Languages: High level of proficiency in English (speaking, reading, writing) Level: B2, C1, C2, Fluent
+Modality: Home Office 100 %
+Location: Mexico
+Workday: Monday - Friday
+Gross Salary: $60,000 MXN /Month
+Hiring: 100 % Payroll
+Benefits: Social Insurance (IMSS), 12 Vacation days per year, 15 Days of Christmas Bonus, 25 % Vacation Bonus, Life Insurance.
+Plus Benefits: Online Technical Trainings and Access to Academies and Certifications.
+Job Stability and Professional Development
+Role: Java Engineer
+Design, develop, and maintain advanced software systems while adhering to high standards for code quality, testing, and automation.
+Collaborate with cross-functional teams to deliver scalable solutions, mentor junior developers, and support DevOps practices, including CI/CD pipelines and cloud infrastructure.
++ 7 years of hands-on experience in software development, with expertise in system design, architecture, and building enterprise-level applications.
+Software Development Languages: Proficiency: Java (required)
+Frameworks: Spring Boot
+RESTful architecture and microservices
+Messaging technologies (e.g., Kafka, SQS
+Cloud platforms (AWS preferred)
+Kubernetes, Lambda (preferred)
+CI/CD pipelines (e.g., GitLab CI/CD, Terraform)
+Test automation (Unit, Integration, Regression, Load)
+Familiarity with relational databases
+Logging and monitoring tools (e.g., New Relic, Splunk)
+Role: Java React
+Engineer with strong UI experience with full stack experience.
+Expectation is the candidates are strong on React based web UI development.
+They are also open and willing to do backend development as per project needs.
+Engineer with full stack development experience and stronger backend development experience.
+Again, they should be able to do UI development as needed but focus would be more on backend development.
+Design, Development, Testing, Documentation, Data analysis, On-call support during working hours.
+Design, develop, and maintain advanced software systems while adhering to high standards for code quality, testing, and automation.
+Collaborate with cross-functional teams to deliver scalable solutions, mentor junior developers, and support DevOps practices, including CI/CD pipelines and cloud infrastructure.
+Software Engineer with + 5 years of hands-on experience in software development, with expertise in system design, architecture, and building enterprise-level applications.
+Proficiency: Java (required)
+Frameworks: Spring Boot
+RESTful architecture and microservices
+Messaging technologies (e.g., Kafka, SQS)
+Cloud platforms (AWS preferred)
+Kubernetes, Lambda (preferred)
+CI/CD pipelines (e.g., GitLab CI/CD, Terraform)
+Test automation (Unit, Integration, Regression, Load)
+Familiarity with relational databases
+Logging and monitoring tools (e.g., New Relic, Splunk)
+Role: Java BackEnd
+Have experience on the entire tech stack - frontend, backend, data engineering, devops, support.
+Be an expert in backend development, proficient in k8s, Kafka, AWS ecosystems, comfortable designing and implementing Rest / GraphQL services on Java / Springboot.
+Have exposure to system design, be able to think comprehensively about integrations with other components and / or systems
+Master CS fundamentals - time / space complexity analysis in context of data structures and algorithms.
+Leads and works with other software engineers on design best practices and conducts code reviews.
+Drive end user experience goals and initiatives for on-going end user productivity improvements
+Facilitates cross functional troubleshooting, root cause analysis and engages others when needed.
+Responsible for creating, evaluating, and contributing to feature detailed designs.
+Design, develop, and implement software utilizing an agile project cycle.
+Mentor others on the team and raise the bar for technical knowledge across a wide spectrum.
+Demonstrates thorough knowledge of information technology concepts issues, trends and best practices as they relate to Cloud technologies and system integrations.
+Apply and share knowledge of security coding practices and secure system fundamentals.
+Experience with cloud-based services such as AWS.
+Familiarity with Continuous Integration and Continuous Delivery methodologies and tooling.
+A deep proficiency of an OOP language.
+Role: Java FrontEnd
+Design, code, devops, incident engagement during office hours
+Have experience on the entire tech stack - frontend, backend, data engineering, devops, support.
+Be an expert in frontend development, proficient in ReactJS ecosystem, comfortable designing and implementing Rest / GraphQL services on NodeJS / Typescript.
+Have exposure to system design, be able to think comprehensively about integrations with other components and / or systems
+Master CS fundamentals – time / space complexity analysis in context of data structures and algorithms.
+Leads and works with other software engineers on design best practices and conducts code reviews.
+Facilitates cross functional troubleshooting, root cause analysis and engages others when needed.
+Responsible for creating, evaluating, and contributing to feature detailed designs.
+Design, develop, and implement software utilizing an agile project cycle.
+Mentor others on the team and raise the bar for technical knowledge across a wide spectrum.
+Demonstrates thorough knowledge of information technology concepts issues, trends and best practices as they relate to Cloud technologies and system integrations.
+Apply and share knowledge of security coding practices and secure system fundamentals.
+Experience with cloud-based services such as AWS.
+Familiarity with Continuous Integration and Continuous Delivery methodologies and tooling.
+A deep proficiency of an OOP language.</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>Desarrollador/a o Técnico en Sistemas - Proyectos Freelance por Horas</v>
+      </c>
+      <c r="B40" t="str">
+        <v>ACPOS</v>
+      </c>
+      <c r="C40" t="str">
+        <v>ACPOS - Mérida, Yucatán</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Presencial y remoto</v>
+      </c>
+      <c r="E40" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Hace más de 30 días</v>
+      </c>
+      <c r="G40" t="str" xml:space="preserve">
+        <v xml:space="preserve">En ACPOS Ingeniería y Desarrollo estamos buscando talento freelance para sumarse a nuestra bolsa de trabajo por proyectos por horas. Participa en soluciones tecnológicas que impactan directamente en empresas reales del sector restaurantero, hotelero y retail.
+Buscamos perfiles con experiencia en una o más de las siguientes tecnologías:
+Frontend y Backend: HTML, CSS, JavaScript, React, Angular, Vue, NodeJS, C#, Java, PHP
+Bases de Datos: MySQL, SQL Server, PostgreSQL
+Frameworks y APIs: Django, .NET, Slim3, API REST
+Herramientas y DevOps: Git, GitHub, Postman, AWS
+Mobile &amp; UI: Android, Swift, WPF, Electron, Figma
+Integraciones: Aloha Connect</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>Programador php</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Versatilidad Internacional de Cooperación Oportuna</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Versatilidad Internacional de Cooperación Oportuna - Benito Juárez, Ciudad de México DF</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E41" t="str">
+        <v>$ 18,000.00 (Mensual)</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Hace más de 30 días</v>
+      </c>
+      <c r="G41" t="str" xml:space="preserve">
+        <v xml:space="preserve">Importante grupo, líder en América Latina, solicita "Programador (a)"
+Perfil profesional:
+Licenciatura o ingeniería concluida en ciencias de la computación, informática o a fin.
+Experiencia mínima de 3 años en desarrollo e integraciones
+La principal función el desarrollo FullStack en diferentes lenguajes de programación
+Conocimientos:
+Dominio de lenguajes de programación PHP, JAVA, NodeJS,Android Studio, Python, CSS, , Javascript, canvas html5,Bootstrap, JSON, XM, Entre otros, Base de datos MariaDB, MySQL, Postgrest, SQL, DJango, entre otros. FTP, SSH, Navicat, PGAdmin, Moodle, desarollo de plugin para Moodle y , Wordpress y Woocomerce. Wordpress, integración entre aplicaciones por Api, o Webhons, ChatGPT, ChatBots. entre otros LLM de AI, Desarrollo y consumo de API y Web service.
+Ofrecemos
+Salario base de $18,000 neto
+Prestaciones de Ley
+Horario: lunes a viernes 9:00 - 18:00 horas</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str">
+        <v>Desarrollador php - Con experiencia Laravel 2 años</v>
+      </c>
+      <c r="B42" t="str">
+        <v>TOOSOLUTION</v>
+      </c>
+      <c r="C42" t="str">
+        <v>TOOSOLUTION - Aguascalientes, Aguascalientes</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E42" t="str">
+        <v>$ 12,000.00 (Mensual)</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Hace más de 30 días</v>
+      </c>
+      <c r="G42" t="str" xml:space="preserve">
+        <v xml:space="preserve">TOOSOLUTION DE MEXICO somos una empresa 100% mexicana comprometida hacia sus clientes, con una excelente atención personal. Brindamos a las micro y medianas empresas la competitividad y productividad necesarias brindándoles las herramientas tecnológicas que necesitan.
+Cualidades de la persona: • Responsable • Trabajo en Equipo • Proactivo • Facilidad de aprendizaje • Autodidacta • Liderazgo • Trabajo bajo presión • Disponibilidad de viajar • Disponibilidad de cambio de residencia
+Un año mínimo de experiencia con las siguientes Skills puede ser experiencia como freelance pero que sea comprobable.
+Idioma: • Español nativo • Ingles básico
+BackEnd: • PHP • NodeJS • Laravel
+FrontEnd: • JavaScript • Tailwind • Bootstrap • CSS • HTML
+Bases de Datos: • MySql • PostgreSql
+Software: • VS Code • HeidiSql • Git • Laragon • Note++
+Ofrecemos:
+Salario de acorde a Conocimiento a partir de $12,000.00
+Prestaciones de Ley.
+Oportunidad de crecimiento.
+Aprendizaje y crecimiento profesional.</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str">
+        <v>Desarrollador/a de software - con experiencia</v>
+      </c>
+      <c r="B43" t="str">
+        <v>ADH GUARDIAN MEXICO</v>
+      </c>
+      <c r="C43" t="str">
+        <v>ADH GUARDIAN MEXICO - Hermosillo, Sonora</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E43" t="str">
+        <v>A convenir</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Hace más de 30 días</v>
+      </c>
+      <c r="G43" t="str" xml:space="preserve">
+        <v xml:space="preserve">Programador FullStack:
+o Conocimientos solidos en cualquiera de
+las siguientes áreas:
+§ Programador móvil:Android en Java, iOS en Swift y StoryBoard
+§ Programación Backend:PHP, JavaScript con NodeJs, Base de datos relacionales
+§ DevOps (No indispensable):AWS, Servidores Apache, Linux
+§ Con preferencias de dominio de Inglés</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str">
+        <v>Desarrollador Front End - Desarrollar y optimizar interfaces web y móviles</v>
+      </c>
+      <c r="B44" t="str">
+        <v>SB Soluciones</v>
+      </c>
+      <c r="C44" t="str">
+        <v>SB Soluciones - Mérida, Yucatán</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Tiempo Completo</v>
+      </c>
+      <c r="E44" t="str">
+        <v>$ 28,000.00 (Mensual)</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Hace más de 30 días</v>
+      </c>
+      <c r="G44" t="str" xml:space="preserve">
+        <v xml:space="preserve">Desarrollador Front End
+Desarrollar y optimizar interfaces web y móviles
+Experiencia en desarrollo de aplicaciones web
+Desarrollar interfaces de usuario intuitivas, responsivas y eficientes para aplicaciones web y móviles.
+Crear y mantener componentes reutilizables que aseguren escalabilidad y consistencia en los proyectos.
+Integrar el frontend con servicios y APIs para garantizar una comunicación fluida entre cliente y servidor.
+Garantizar la calidad del código mediante pruebas, buenas prácticas y optimización del rendimiento.
+Colaborar con el equipo de diseño y producto para transformar requerimientos en experiencias de usuario efectivas.
+Seguir metodologías ágiles de desarrollo y participar en la mejora continua de procesos.
+Mantener y actualizar aplicaciones existentes, asegurando su estabilidad y evolución.
+Investigar y proponer nuevas herramientas y tecnologías para mejorar el desarrollo y la experiencia de usuario.
+Documentar código, decisiones técnicas y procesos de desarrollo, facilitando la comprensión y mantenimiento de las soluciones.
+Participar en revisiones de código y compartir conocimientos con el equipo para fomentar el aprendizaje continuo.
+Participar en reuniones diarias y planificación de sprints en metodologías ágiles (Scrum/Kanban).
+Estimar tiempos de desarrollo y dar seguimiento a tareas asignadas en Jira u otras herramientas de gestión.
+Colaborar en retrospectivas para mejorar procesos de desarrollo dentro del equipo.
+Competencias Técnicas
+Jira
+Git/GitHub/GitLab
+Figma (Deseable)
+Slack (o herramienta de comunicación similar)
+Confluence (o herramienta de documentación interna)
+Cypress o Jasmine (para pruebas)
+Docker (Deseable) A P T I T U D E S T É C N I C A S T A C T I C A S
+Visual Studio Code (o editor de código similar)
+Postman (para pruebas de API) (no necesario)
+Desarrollo de frontend basado en NodeJS. x X
+Experiencia en Angular v17+ para desarrollo de aplicaciones web.
+Manejo de aplicaciones Cliente-Servidor.
+Uso de TypeScript para desarrollo seguro y tipado fuerte.
+CSS/SCSS para estilización avanzada y diseño responsivo.
+Consumo de APIs REST y GraphQL. � � Manejo de frameworks como React.
+Conocimientos básicos en bases de datos relacionales y no relacionales.
+Experiencia en desarrollo de aplicaciones móviles (Ionic, React Native).
+Familiaridad con herramientas de diseño como Figma
+Nuestra oferta
+Sueldo competitivo
+Capacitación constante
+Prestaciones de Ley
+Desarrollo personal
+Disponibilidad de horario</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G44"/>
   </ignoredErrors>
 </worksheet>
 </file>